--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JP102"/>
+  <dimension ref="A1:JQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HA23" activeCellId="0" sqref="HA23"/>
@@ -1284,8 +1284,11 @@
       <c r="JO1" s="1" t="n">
         <v>10731</v>
       </c>
-      <c r="JP1" t="n">
+      <c r="JP1" s="1" t="n">
         <v>10741</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>10757</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2116,8 +2119,11 @@
       <c r="JO2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JP2" s="1" t="n">
         <v>2022</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="2">
@@ -2948,8 +2954,11 @@
       <c r="JO3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JP3" t="n">
+      <c r="JP3" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3780,7 +3789,10 @@
       <c r="JO4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JP4" t="n">
+      <c r="JP4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,7 +4624,10 @@
       <c r="JO5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JP5" t="n">
+      <c r="JP5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5444,8 +5459,11 @@
       <c r="JO6" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="JP6" t="n">
+      <c r="JP6" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6276,8 +6294,11 @@
       <c r="JO7" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="JP7" t="n">
+      <c r="JP7" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7108,8 +7129,11 @@
       <c r="JO8" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JP8" t="n">
+      <c r="JP8" s="1" t="n">
         <v>-56</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>-16</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7940,7 +7964,10 @@
       <c r="JO9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JP9" t="n">
+      <c r="JP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8772,8 +8799,11 @@
       <c r="JO10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JP10" t="n">
+      <c r="JP10" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9604,8 +9634,11 @@
       <c r="JO11" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="JP11" t="n">
+      <c r="JP11" s="1" t="n">
         <v>166</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10436,8 +10469,11 @@
       <c r="JO12" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="JP12" t="n">
+      <c r="JP12" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11268,8 +11304,11 @@
       <c r="JO13" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="JP13" t="n">
+      <c r="JP13" s="1" t="n">
         <v>287</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12100,8 +12139,11 @@
       <c r="JO14" s="1" t="n">
         <v>1.55</v>
       </c>
-      <c r="JP14" t="n">
+      <c r="JP14" s="1" t="n">
         <v>1.37</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -12932,8 +12974,11 @@
       <c r="JO15" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="JP15" t="n">
+      <c r="JP15" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13764,8 +13809,11 @@
       <c r="JO16" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="JP16" t="n">
+      <c r="JP16" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14596,8 +14644,11 @@
       <c r="JO17" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JP17" t="n">
+      <c r="JP17" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15428,8 +15479,11 @@
       <c r="JO18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JP18" t="n">
+      <c r="JP18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16260,8 +16314,11 @@
       <c r="JO19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JP19" t="n">
+      <c r="JP19" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17092,8 +17149,11 @@
       <c r="JO20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JP20" t="n">
+      <c r="JP20" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -17924,8 +17984,11 @@
       <c r="JO21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JP21" t="n">
+      <c r="JP21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18756,8 +18819,11 @@
       <c r="JO22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JP22" t="n">
+      <c r="JP22" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JQ22" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19588,8 +19654,11 @@
       <c r="JO23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JP23" t="n">
+      <c r="JP23" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20420,8 +20489,11 @@
       <c r="JO24" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="JP24" t="n">
+      <c r="JP24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21252,8 +21324,11 @@
       <c r="JO25" s="1" t="n">
         <v>53.6</v>
       </c>
-      <c r="JP25" t="n">
+      <c r="JP25" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22084,8 +22159,11 @@
       <c r="JO26" s="1" t="n">
         <v>23.27</v>
       </c>
-      <c r="JP26" t="n">
+      <c r="JP26" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -22916,8 +22994,11 @@
       <c r="JO27" s="1" t="n">
         <v>12.46</v>
       </c>
-      <c r="JP27" t="n">
+      <c r="JP27" s="1" t="n">
         <v>14.35</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>10.6</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -23748,8 +23829,11 @@
       <c r="JO28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JP28" t="n">
+      <c r="JP28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="JQ28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24580,8 +24664,11 @@
       <c r="JO29" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="JP29" t="n">
+      <c r="JP29" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25412,8 +25499,11 @@
       <c r="JO30" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="JP30" t="n">
+      <c r="JP30" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26244,8 +26334,11 @@
       <c r="JO31" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JP31" t="n">
+      <c r="JP31" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27076,8 +27169,11 @@
       <c r="JO32" s="1" t="n">
         <v>1.86</v>
       </c>
-      <c r="JP32" t="n">
+      <c r="JP32" s="1" t="n">
         <v>2.4</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -27908,8 +28004,11 @@
       <c r="JO33" s="1" t="n">
         <v>3.47</v>
       </c>
-      <c r="JP33" t="n">
+      <c r="JP33" s="1" t="n">
         <v>6.86</v>
+      </c>
+      <c r="JQ33" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -28740,8 +28839,11 @@
       <c r="JO34" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JP34" t="n">
+      <c r="JP34" s="1" t="n">
         <v>31.2</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -29572,8 +29674,11 @@
       <c r="JO35" s="1" t="n">
         <v>28.8</v>
       </c>
-      <c r="JP35" t="n">
+      <c r="JP35" s="1" t="n">
         <v>14.6</v>
+      </c>
+      <c r="JQ35" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -30404,8 +30509,11 @@
       <c r="JO36" s="1" t="n">
         <v>186.8</v>
       </c>
-      <c r="JP36" t="n">
+      <c r="JP36" s="1" t="n">
         <v>186.9</v>
+      </c>
+      <c r="JQ36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -31236,8 +31344,11 @@
       <c r="JO37" s="1" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="JP37" t="n">
+      <c r="JP37" s="1" t="n">
         <v>87.3</v>
+      </c>
+      <c r="JQ37" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32068,8 +32179,11 @@
       <c r="JO38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="JP38" t="n">
+      <c r="JP38" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="JQ38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -32900,8 +33014,11 @@
       <c r="JO39" s="1" t="n">
         <v>66.5</v>
       </c>
-      <c r="JP39" t="n">
+      <c r="JP39" s="1" t="n">
         <v>68.8</v>
+      </c>
+      <c r="JQ39" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -33732,8 +33849,11 @@
       <c r="JO40" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JP40" t="n">
+      <c r="JP40" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JQ40" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -34564,8 +34684,11 @@
       <c r="JO41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JP41" t="n">
+      <c r="JP41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JQ41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -35396,7 +35519,10 @@
       <c r="JO42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JP42" t="n">
+      <c r="JP42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36228,8 +36354,11 @@
       <c r="JO43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JP43" t="n">
+      <c r="JP43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JQ43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -37060,8 +37189,11 @@
       <c r="JO44" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="JP44" t="n">
+      <c r="JP44" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -37892,8 +38024,11 @@
       <c r="JO45" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="JP45" t="n">
+      <c r="JP45" s="1" t="n">
         <v>129</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -38724,8 +38859,11 @@
       <c r="JO46" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="JP46" t="n">
+      <c r="JP46" s="1" t="n">
         <v>181</v>
+      </c>
+      <c r="JQ46" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -39556,8 +39694,11 @@
       <c r="JO47" s="1" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="JP47" t="n">
+      <c r="JP47" s="1" t="n">
         <v>63.1</v>
+      </c>
+      <c r="JQ47" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -40388,8 +40529,11 @@
       <c r="JO48" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="JP48" t="n">
+      <c r="JP48" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="JQ48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -41220,8 +41364,11 @@
       <c r="JO49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JP49" t="n">
+      <c r="JP49" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JQ49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -42052,8 +42199,11 @@
       <c r="JO50" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JP50" t="n">
+      <c r="JP50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JQ50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -42884,8 +43034,11 @@
       <c r="JO51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JP51" t="n">
+      <c r="JP51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="JQ51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -43716,8 +43869,11 @@
       <c r="JO52" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="JP52" t="n">
+      <c r="JP52" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -44548,8 +44704,11 @@
       <c r="JO53" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JP53" t="n">
+      <c r="JP53" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -45380,8 +45539,11 @@
       <c r="JO54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JP54" t="n">
+      <c r="JP54" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -46212,8 +46374,11 @@
       <c r="JO55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JP55" t="n">
+      <c r="JP55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -47044,8 +47209,11 @@
       <c r="JO56" s="1" t="n">
         <v>86.7</v>
       </c>
-      <c r="JP56" t="n">
+      <c r="JP56" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="JQ56" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -47876,8 +48044,11 @@
       <c r="JO57" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="JP57" t="n">
+      <c r="JP57" s="1" t="n">
         <v>237</v>
+      </c>
+      <c r="JQ57" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -48708,8 +48879,11 @@
       <c r="JO58" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="JP58" t="n">
+      <c r="JP58" s="1" t="n">
         <v>164</v>
+      </c>
+      <c r="JQ58" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -49540,8 +49714,11 @@
       <c r="JO59" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="JP59" t="n">
+      <c r="JP59" s="1" t="n">
         <v>401</v>
+      </c>
+      <c r="JQ59" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -50372,8 +50549,11 @@
       <c r="JO60" s="1" t="n">
         <v>1.35</v>
       </c>
-      <c r="JP60" t="n">
+      <c r="JP60" s="1" t="n">
         <v>1.45</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -51204,8 +51384,11 @@
       <c r="JO61" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="JP61" t="n">
+      <c r="JP61" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="JQ61" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -52036,8 +52219,11 @@
       <c r="JO62" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JP62" t="n">
+      <c r="JP62" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="JQ62" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -52868,8 +53054,11 @@
       <c r="JO63" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JP63" t="n">
+      <c r="JP63" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JQ63" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -53700,8 +53889,11 @@
       <c r="JO64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JP64" t="n">
+      <c r="JP64" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JQ64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -54532,8 +54724,11 @@
       <c r="JO65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JP65" t="n">
+      <c r="JP65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JQ65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -55364,8 +55559,11 @@
       <c r="JO66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JP66" t="n">
+      <c r="JP66" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JQ66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -56196,8 +56394,11 @@
       <c r="JO67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JP67" t="n">
+      <c r="JP67" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JQ67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -57028,8 +57229,11 @@
       <c r="JO68" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JP68" t="n">
+      <c r="JP68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JQ68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -57860,8 +58064,11 @@
       <c r="JO69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JP69" t="n">
+      <c r="JP69" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -58692,7 +58899,10 @@
       <c r="JO70" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JP70" t="n">
+      <c r="JP70" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="JQ70" t="n">
         <v>31</v>
       </c>
     </row>
@@ -59524,8 +59734,11 @@
       <c r="JO71" s="1" t="n">
         <v>41.7</v>
       </c>
-      <c r="JP71" t="n">
+      <c r="JP71" s="1" t="n">
         <v>51.6</v>
+      </c>
+      <c r="JQ71" t="n">
+        <v>48.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -60356,8 +60569,11 @@
       <c r="JO72" s="1" t="n">
         <v>35.3</v>
       </c>
-      <c r="JP72" t="n">
+      <c r="JP72" s="1" t="n">
         <v>25.06</v>
+      </c>
+      <c r="JQ72" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -61188,8 +61404,11 @@
       <c r="JO73" s="1" t="n">
         <v>14.71</v>
       </c>
-      <c r="JP73" t="n">
+      <c r="JP73" s="1" t="n">
         <v>12.94</v>
+      </c>
+      <c r="JQ73" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -62020,8 +62239,11 @@
       <c r="JO74" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JP74" t="n">
+      <c r="JP74" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JQ74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -62852,8 +63074,11 @@
       <c r="JO75" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JP75" t="n">
+      <c r="JP75" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JQ75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -63684,8 +63909,11 @@
       <c r="JO76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JP76" t="n">
+      <c r="JP76" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -64516,8 +64744,11 @@
       <c r="JO77" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JP77" t="n">
+      <c r="JP77" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="JQ77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -65348,8 +65579,11 @@
       <c r="JO78" s="1" t="n">
         <v>2.46</v>
       </c>
-      <c r="JP78" t="n">
+      <c r="JP78" s="1" t="n">
         <v>1.97</v>
+      </c>
+      <c r="JQ78" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -66180,8 +66414,11 @@
       <c r="JO79" s="1" t="n">
         <v>5.9</v>
       </c>
-      <c r="JP79" t="n">
+      <c r="JP79" s="1" t="n">
         <v>3.81</v>
+      </c>
+      <c r="JQ79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -67012,8 +67249,11 @@
       <c r="JO80" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="JP80" t="n">
+      <c r="JP80" s="1" t="n">
         <v>42.6</v>
+      </c>
+      <c r="JQ80" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -67844,8 +68084,11 @@
       <c r="JO81" s="1" t="n">
         <v>16.9</v>
       </c>
-      <c r="JP81" t="n">
+      <c r="JP81" s="1" t="n">
         <v>26.2</v>
+      </c>
+      <c r="JQ81" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -68676,8 +68919,11 @@
       <c r="JO82" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="JP82" t="n">
+      <c r="JP82" s="1" t="n">
         <v>187.4</v>
+      </c>
+      <c r="JQ82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -69508,8 +69754,11 @@
       <c r="JO83" s="1" t="n">
         <v>85.2</v>
       </c>
-      <c r="JP83" t="n">
+      <c r="JP83" s="1" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="JQ83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -70340,8 +70589,11 @@
       <c r="JO84" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="JP84" t="n">
+      <c r="JP84" s="1" t="n">
         <v>25.58</v>
+      </c>
+      <c r="JQ84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -71172,8 +71424,11 @@
       <c r="JO85" s="1" t="n">
         <v>92.7</v>
       </c>
-      <c r="JP85" t="n">
+      <c r="JP85" s="1" t="n">
         <v>112.1</v>
+      </c>
+      <c r="JQ85" t="n">
+        <v>95.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -72004,8 +72259,11 @@
       <c r="JO86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JP86" t="n">
+      <c r="JP86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -72836,8 +73094,11 @@
       <c r="JO87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JP87" t="n">
+      <c r="JP87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -73668,8 +73929,11 @@
       <c r="JO88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JP88" t="n">
+      <c r="JP88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -74500,7 +74764,10 @@
       <c r="JO89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JP89" t="n">
+      <c r="JP89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ89" t="n">
         <v>6</v>
       </c>
     </row>
@@ -75332,8 +75599,11 @@
       <c r="JO90" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="JP90" t="n">
+      <c r="JP90" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="JQ90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -76164,7 +76434,10 @@
       <c r="JO91" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="JP91" t="n">
+      <c r="JP91" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="JQ91" t="n">
         <v>236</v>
       </c>
     </row>
@@ -76996,7 +77269,10 @@
       <c r="JO92" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="JP92" t="n">
+      <c r="JP92" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="JQ92" t="n">
         <v>287</v>
       </c>
     </row>
@@ -77828,8 +78104,11 @@
       <c r="JO93" s="1" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="JP93" t="n">
+      <c r="JP93" s="1" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="JQ93" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -78660,8 +78939,11 @@
       <c r="JO94" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JP94" t="n">
+      <c r="JP94" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JQ94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -79492,8 +79774,11 @@
       <c r="JO95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JP95" t="n">
+      <c r="JP95" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JQ95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -80324,8 +80609,11 @@
       <c r="JO96" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JP96" t="n">
+      <c r="JP96" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JQ96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -81156,8 +81444,11 @@
       <c r="JO97" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JP97" t="n">
+      <c r="JP97" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JQ97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -81988,8 +82279,11 @@
       <c r="JO98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JP98" t="n">
+      <c r="JP98" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="JQ98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -82820,8 +83114,11 @@
       <c r="JO99" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JP99" t="n">
+      <c r="JP99" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JQ99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -83652,8 +83949,11 @@
       <c r="JO100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JP100" t="n">
+      <c r="JP100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -84484,8 +84784,11 @@
       <c r="JO101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JP101" t="n">
+      <c r="JP101" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JQ101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -85316,8 +85619,11 @@
       <c r="JO102" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="JP102" t="n">
+      <c r="JP102" s="1" t="n">
         <v>68.8</v>
+      </c>
+      <c r="JQ102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JR102"/>
+  <dimension ref="A1:JS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HA23" activeCellId="0" sqref="HA23"/>
@@ -1290,8 +1290,11 @@
       <c r="JQ1" s="1" t="n">
         <v>10757</v>
       </c>
-      <c r="JR1" t="n">
+      <c r="JR1" s="1" t="n">
         <v>10763</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>10774</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2128,7 +2131,10 @@
       <c r="JQ2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JR2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2966,8 +2972,11 @@
       <c r="JQ3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JR3" t="n">
+      <c r="JR3" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3804,8 +3813,11 @@
       <c r="JQ4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JR4" t="n">
+      <c r="JR4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4642,7 +4654,10 @@
       <c r="JQ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JR5" t="n">
+      <c r="JR5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5480,8 +5495,11 @@
       <c r="JQ6" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="JR6" t="n">
+      <c r="JR6" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6318,8 +6336,11 @@
       <c r="JQ7" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="JR7" t="n">
+      <c r="JR7" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7156,8 +7177,11 @@
       <c r="JQ8" s="1" t="n">
         <v>-16</v>
       </c>
-      <c r="JR8" t="n">
+      <c r="JR8" s="1" t="n">
         <v>-32</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7994,8 +8018,11 @@
       <c r="JQ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JR9" t="n">
+      <c r="JR9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8832,8 +8859,11 @@
       <c r="JQ10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JR10" t="n">
+      <c r="JR10" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9670,8 +9700,11 @@
       <c r="JQ11" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="JR11" t="n">
+      <c r="JR11" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10508,8 +10541,11 @@
       <c r="JQ12" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="JR12" t="n">
+      <c r="JR12" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11346,8 +11382,11 @@
       <c r="JQ13" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="JR13" t="n">
+      <c r="JR13" s="1" t="n">
         <v>358</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12184,8 +12223,11 @@
       <c r="JQ14" s="1" t="n">
         <v>2.15</v>
       </c>
-      <c r="JR14" t="n">
+      <c r="JR14" s="1" t="n">
         <v>1.52</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13022,8 +13064,11 @@
       <c r="JQ15" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="JR15" t="n">
+      <c r="JR15" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13860,8 +13905,11 @@
       <c r="JQ16" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JR16" t="n">
+      <c r="JR16" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14698,8 +14746,11 @@
       <c r="JQ17" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JR17" t="n">
+      <c r="JR17" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15536,8 +15587,11 @@
       <c r="JQ18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JR18" t="n">
+      <c r="JR18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JS18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16374,8 +16428,11 @@
       <c r="JQ19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JR19" t="n">
+      <c r="JR19" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JS19" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17212,8 +17269,11 @@
       <c r="JQ20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JR20" t="n">
+      <c r="JR20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JS20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18050,8 +18110,11 @@
       <c r="JQ21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JR21" t="n">
+      <c r="JR21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JS21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18888,8 +18951,11 @@
       <c r="JQ22" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JR22" t="n">
+      <c r="JR22" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JS22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19726,8 +19792,11 @@
       <c r="JQ23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JR23" t="n">
+      <c r="JR23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20564,8 +20633,11 @@
       <c r="JQ24" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JR24" t="n">
+      <c r="JR24" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21402,8 +21474,11 @@
       <c r="JQ25" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JR25" t="n">
+      <c r="JR25" s="1" t="n">
         <v>38.5</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22240,8 +22315,11 @@
       <c r="JQ26" s="1" t="n">
         <v>26.5</v>
       </c>
-      <c r="JR26" t="n">
+      <c r="JR26" s="1" t="n">
         <v>35.8</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>18.44</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23078,8 +23156,11 @@
       <c r="JQ27" s="1" t="n">
         <v>10.6</v>
       </c>
-      <c r="JR27" t="n">
+      <c r="JR27" s="1" t="n">
         <v>13.77</v>
+      </c>
+      <c r="JS27" t="n">
+        <v>12.3</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -23916,8 +23997,11 @@
       <c r="JQ28" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JR28" t="n">
+      <c r="JR28" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JS28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24754,8 +24838,11 @@
       <c r="JQ29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JR29" t="n">
+      <c r="JR29" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JS29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25592,8 +25679,11 @@
       <c r="JQ30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JR30" t="n">
+      <c r="JR30" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JS30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26430,8 +26520,11 @@
       <c r="JQ31" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JR31" t="n">
+      <c r="JR31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="JS31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27268,8 +27361,11 @@
       <c r="JQ32" s="1" t="n">
         <v>1.73</v>
       </c>
-      <c r="JR32" t="n">
+      <c r="JR32" s="1" t="n">
         <v>2.04</v>
+      </c>
+      <c r="JS32" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28106,8 +28202,11 @@
       <c r="JQ33" s="1" t="n">
         <v>4.33</v>
       </c>
-      <c r="JR33" t="n">
+      <c r="JR33" s="1" t="n">
         <v>5.3</v>
+      </c>
+      <c r="JS33" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -28944,8 +29043,11 @@
       <c r="JQ34" s="1" t="n">
         <v>53.8</v>
       </c>
-      <c r="JR34" t="n">
+      <c r="JR34" s="1" t="n">
         <v>43.4</v>
+      </c>
+      <c r="JS34" t="n">
+        <v>44.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -29782,8 +29884,11 @@
       <c r="JQ35" s="1" t="n">
         <v>23.1</v>
       </c>
-      <c r="JR35" t="n">
+      <c r="JR35" s="1" t="n">
         <v>18.9</v>
+      </c>
+      <c r="JS35" t="n">
+        <v>30.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -30620,7 +30725,10 @@
       <c r="JQ36" s="1" t="n">
         <v>188.1</v>
       </c>
-      <c r="JR36" t="n">
+      <c r="JR36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JS36" t="n">
         <v>187.3</v>
       </c>
     </row>
@@ -31458,8 +31566,11 @@
       <c r="JQ37" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="JR37" t="n">
+      <c r="JR37" s="1" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="JS37" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32296,8 +32407,11 @@
       <c r="JQ38" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="JR38" t="n">
+      <c r="JR38" s="1" t="n">
         <v>24.49</v>
+      </c>
+      <c r="JS38" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -33134,8 +33248,11 @@
       <c r="JQ39" s="1" t="n">
         <v>75.7</v>
       </c>
-      <c r="JR39" t="n">
+      <c r="JR39" s="1" t="n">
         <v>74.90000000000001</v>
+      </c>
+      <c r="JS39" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -33972,8 +34089,11 @@
       <c r="JQ40" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JR40" t="n">
+      <c r="JR40" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JS40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -34810,8 +34930,11 @@
       <c r="JQ41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JR41" t="n">
+      <c r="JR41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JS41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -35648,7 +35771,10 @@
       <c r="JQ42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JR42" t="n">
+      <c r="JR42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36486,7 +36612,10 @@
       <c r="JQ43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JR43" t="n">
+      <c r="JR43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37324,8 +37453,11 @@
       <c r="JQ44" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="JR44" t="n">
+      <c r="JR44" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="JS44" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38162,8 +38294,11 @@
       <c r="JQ45" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="JR45" t="n">
+      <c r="JR45" s="1" t="n">
         <v>213</v>
+      </c>
+      <c r="JS45" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39000,8 +39135,11 @@
       <c r="JQ46" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="JR46" t="n">
+      <c r="JR46" s="1" t="n">
         <v>253</v>
+      </c>
+      <c r="JS46" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -39838,8 +39976,11 @@
       <c r="JQ47" s="1" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="JR47" t="n">
+      <c r="JR47" s="1" t="n">
         <v>70.7</v>
+      </c>
+      <c r="JS47" t="n">
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -40676,8 +40817,11 @@
       <c r="JQ48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JR48" t="n">
+      <c r="JR48" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JS48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -41514,8 +41658,11 @@
       <c r="JQ49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JR49" t="n">
+      <c r="JR49" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JS49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -42352,8 +42499,11 @@
       <c r="JQ50" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JR50" t="n">
+      <c r="JR50" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JS50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -43190,8 +43340,11 @@
       <c r="JQ51" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JR51" t="n">
+      <c r="JR51" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JS51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -44028,8 +44181,11 @@
       <c r="JQ52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JR52" t="n">
+      <c r="JR52" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JS52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -44866,8 +45022,11 @@
       <c r="JQ53" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JR53" t="n">
+      <c r="JR53" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="JS53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -45704,8 +45863,11 @@
       <c r="JQ54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JR54" t="n">
+      <c r="JR54" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JS54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -46542,8 +46704,11 @@
       <c r="JQ55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JR55" t="n">
+      <c r="JR55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JS55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -47380,8 +47545,11 @@
       <c r="JQ56" s="1" t="n">
         <v>83.3</v>
       </c>
-      <c r="JR56" t="n">
+      <c r="JR56" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="JS56" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -48218,8 +48386,11 @@
       <c r="JQ57" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="JR57" t="n">
+      <c r="JR57" s="1" t="n">
         <v>209</v>
+      </c>
+      <c r="JS57" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -49056,8 +49227,11 @@
       <c r="JQ58" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="JR58" t="n">
+      <c r="JR58" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="JS58" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -49894,8 +50068,11 @@
       <c r="JQ59" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="JR59" t="n">
+      <c r="JR59" s="1" t="n">
         <v>348</v>
+      </c>
+      <c r="JS59" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -50732,8 +50909,11 @@
       <c r="JQ60" s="1" t="n">
         <v>1.25</v>
       </c>
-      <c r="JR60" t="n">
+      <c r="JR60" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="JS60" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -51570,8 +51750,11 @@
       <c r="JQ61" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="JR61" t="n">
+      <c r="JR61" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="JS61" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -52408,8 +52591,11 @@
       <c r="JQ62" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JR62" t="n">
+      <c r="JR62" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JS62" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -53246,8 +53432,11 @@
       <c r="JQ63" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="JR63" t="n">
+      <c r="JR63" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JS63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -54084,8 +54273,11 @@
       <c r="JQ64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JR64" t="n">
+      <c r="JR64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JS64" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -54922,8 +55114,11 @@
       <c r="JQ65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JR65" t="n">
+      <c r="JR65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JS65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -55760,8 +55955,11 @@
       <c r="JQ66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JR66" t="n">
+      <c r="JR66" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JS66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -56598,8 +56796,11 @@
       <c r="JQ67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JR67" t="n">
+      <c r="JR67" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JS67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -57436,8 +57637,11 @@
       <c r="JQ68" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JR68" t="n">
+      <c r="JR68" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JS68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -58274,7 +58478,10 @@
       <c r="JQ69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JR69" t="n">
+      <c r="JR69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -59112,8 +59319,11 @@
       <c r="JQ70" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="JR70" t="n">
+      <c r="JR70" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JS70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -59950,8 +60160,11 @@
       <c r="JQ71" s="1" t="n">
         <v>48.4</v>
       </c>
-      <c r="JR71" t="n">
+      <c r="JR71" s="1" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="JS71" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -60788,8 +61001,11 @@
       <c r="JQ72" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="JR72" t="n">
+      <c r="JR72" s="1" t="n">
         <v>20.47</v>
+      </c>
+      <c r="JS72" t="n">
+        <v>22.85</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -61626,8 +61842,11 @@
       <c r="JQ73" s="1" t="n">
         <v>12.1</v>
       </c>
-      <c r="JR73" t="n">
+      <c r="JR73" s="1" t="n">
         <v>15.13</v>
+      </c>
+      <c r="JS73" t="n">
+        <v>14.14</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -62464,8 +62683,11 @@
       <c r="JQ74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JR74" t="n">
+      <c r="JR74" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JS74" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -63302,8 +63524,11 @@
       <c r="JQ75" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="JR75" t="n">
+      <c r="JR75" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="JS75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -64140,8 +64365,11 @@
       <c r="JQ76" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="JR76" t="n">
+      <c r="JR76" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JS76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -64978,8 +65206,11 @@
       <c r="JQ77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JR77" t="n">
+      <c r="JR77" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="JS77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -65816,8 +66047,11 @@
       <c r="JQ78" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="JR78" t="n">
+      <c r="JR78" s="1" t="n">
         <v>2.22</v>
+      </c>
+      <c r="JS78" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -66654,8 +66888,11 @@
       <c r="JQ79" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JR79" t="n">
+      <c r="JR79" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JS79" t="n">
+        <v>3.77</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -67492,8 +67729,11 @@
       <c r="JQ80" s="1" t="n">
         <v>46.7</v>
       </c>
-      <c r="JR80" t="n">
+      <c r="JR80" s="1" t="n">
         <v>41.2</v>
+      </c>
+      <c r="JS80" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -68330,8 +68570,11 @@
       <c r="JQ81" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="JR81" t="n">
+      <c r="JR81" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JS81" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -69168,8 +69411,11 @@
       <c r="JQ82" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="JR82" t="n">
+      <c r="JR82" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="JS82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -70006,8 +70252,11 @@
       <c r="JQ83" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JR83" t="n">
+      <c r="JR83" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JS83" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -70844,8 +71093,11 @@
       <c r="JQ84" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="JR84" t="n">
+      <c r="JR84" s="1" t="n">
         <v>27.49</v>
+      </c>
+      <c r="JS84" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -71682,8 +71934,11 @@
       <c r="JQ85" s="1" t="n">
         <v>95.5</v>
       </c>
-      <c r="JR85" t="n">
+      <c r="JR85" s="1" t="n">
         <v>131.7</v>
+      </c>
+      <c r="JS85" t="n">
+        <v>108.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -72520,8 +72775,11 @@
       <c r="JQ86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JR86" t="n">
+      <c r="JR86" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JS86" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -73358,8 +73616,11 @@
       <c r="JQ87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JR87" t="n">
+      <c r="JR87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JS87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -74196,8 +74457,11 @@
       <c r="JQ88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JR88" t="n">
+      <c r="JR88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JS88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -75034,8 +75298,11 @@
       <c r="JQ89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JR89" t="n">
+      <c r="JR89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JS89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -75872,8 +76139,11 @@
       <c r="JQ90" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="JR90" t="n">
+      <c r="JR90" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="JS90" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -76710,8 +76980,11 @@
       <c r="JQ91" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="JR91" t="n">
+      <c r="JR91" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="JS91" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -77548,8 +77821,11 @@
       <c r="JQ92" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="JR92" t="n">
+      <c r="JR92" s="1" t="n">
         <v>255</v>
+      </c>
+      <c r="JS92" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -78386,8 +78662,11 @@
       <c r="JQ93" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="JR93" t="n">
+      <c r="JR93" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="JS93" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -79224,8 +79503,11 @@
       <c r="JQ94" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="JR94" t="n">
+      <c r="JR94" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="JS94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -80062,8 +80344,11 @@
       <c r="JQ95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JR95" t="n">
+      <c r="JR95" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JS95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -80900,8 +81185,11 @@
       <c r="JQ96" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JR96" t="n">
+      <c r="JR96" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JS96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -81738,8 +82026,11 @@
       <c r="JQ97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JR97" t="n">
+      <c r="JR97" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JS97" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -82576,8 +82867,11 @@
       <c r="JQ98" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="JR98" t="n">
+      <c r="JR98" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JS98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -83414,8 +83708,11 @@
       <c r="JQ99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="JR99" t="n">
+      <c r="JR99" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JS99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -84252,8 +84549,11 @@
       <c r="JQ100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JR100" t="n">
+      <c r="JR100" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JS100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -85090,8 +85390,11 @@
       <c r="JQ101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JR101" t="n">
+      <c r="JR101" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JS101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -85928,8 +86231,11 @@
       <c r="JQ102" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JR102" t="n">
+      <c r="JR102" s="1" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="JS102" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JS102"/>
+  <dimension ref="A1:JT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HA23" activeCellId="0" sqref="HA23"/>
@@ -1293,8 +1293,11 @@
       <c r="JR1" s="1" t="n">
         <v>10763</v>
       </c>
-      <c r="JS1" t="n">
+      <c r="JS1" s="1" t="n">
         <v>10774</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>10780</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2134,7 +2137,10 @@
       <c r="JR2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JS2" t="n">
+      <c r="JS2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JT2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2975,8 +2981,11 @@
       <c r="JR3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JS3" t="n">
+      <c r="JS3" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3816,8 +3825,11 @@
       <c r="JR4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JS4" t="n">
+      <c r="JS4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4657,8 +4669,11 @@
       <c r="JR5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JS5" t="n">
+      <c r="JS5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5498,8 +5513,11 @@
       <c r="JR6" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="JS6" t="n">
+      <c r="JS6" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6339,8 +6357,11 @@
       <c r="JR7" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="JS7" t="n">
+      <c r="JS7" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7180,8 +7201,11 @@
       <c r="JR8" s="1" t="n">
         <v>-32</v>
       </c>
-      <c r="JS8" t="n">
+      <c r="JS8" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8021,7 +8045,10 @@
       <c r="JR9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JS9" t="n">
+      <c r="JS9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8862,8 +8889,11 @@
       <c r="JR10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JS10" t="n">
+      <c r="JS10" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9703,8 +9733,11 @@
       <c r="JR11" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="JS11" t="n">
+      <c r="JS11" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10544,8 +10577,11 @@
       <c r="JR12" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="JS12" t="n">
+      <c r="JS12" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11385,8 +11421,11 @@
       <c r="JR13" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="JS13" t="n">
+      <c r="JS13" s="1" t="n">
         <v>332</v>
+      </c>
+      <c r="JT13" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12226,8 +12265,11 @@
       <c r="JR14" s="1" t="n">
         <v>1.52</v>
       </c>
-      <c r="JS14" t="n">
+      <c r="JS14" s="1" t="n">
         <v>1.77</v>
+      </c>
+      <c r="JT14" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13067,8 +13109,11 @@
       <c r="JR15" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="JS15" t="n">
+      <c r="JS15" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="JT15" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13908,8 +13953,11 @@
       <c r="JR16" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JS16" t="n">
+      <c r="JS16" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JT16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14749,8 +14797,11 @@
       <c r="JR17" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JS17" t="n">
+      <c r="JS17" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JT17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15590,7 +15641,10 @@
       <c r="JR18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JS18" t="n">
+      <c r="JS18" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JT18" t="n">
         <v>22</v>
       </c>
     </row>
@@ -16431,8 +16485,11 @@
       <c r="JR19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JS19" t="n">
+      <c r="JS19" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="JT19" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17272,8 +17329,11 @@
       <c r="JR20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JS20" t="n">
+      <c r="JS20" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JT20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18113,8 +18173,11 @@
       <c r="JR21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JS21" t="n">
+      <c r="JS21" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JT21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18954,8 +19017,11 @@
       <c r="JR22" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JS22" t="n">
+      <c r="JS22" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JT22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19795,8 +19861,11 @@
       <c r="JR23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JS23" t="n">
+      <c r="JS23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JT23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20636,8 +20705,11 @@
       <c r="JR24" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="JS24" t="n">
+      <c r="JS24" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="JT24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21477,8 +21549,11 @@
       <c r="JR25" s="1" t="n">
         <v>38.5</v>
       </c>
-      <c r="JS25" t="n">
+      <c r="JS25" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JT25" t="n">
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22318,8 +22393,11 @@
       <c r="JR26" s="1" t="n">
         <v>35.8</v>
       </c>
-      <c r="JS26" t="n">
+      <c r="JS26" s="1" t="n">
         <v>18.44</v>
+      </c>
+      <c r="JT26" t="n">
+        <v>22.35</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23159,8 +23237,11 @@
       <c r="JR27" s="1" t="n">
         <v>13.77</v>
       </c>
-      <c r="JS27" t="n">
+      <c r="JS27" s="1" t="n">
         <v>12.3</v>
+      </c>
+      <c r="JT27" t="n">
+        <v>14.62</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24000,8 +24081,11 @@
       <c r="JR28" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JS28" t="n">
+      <c r="JS28" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="JT28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24841,8 +24925,11 @@
       <c r="JR29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JS29" t="n">
+      <c r="JS29" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="JT29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25682,8 +25769,11 @@
       <c r="JR30" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JS30" t="n">
+      <c r="JS30" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JT30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26523,8 +26613,11 @@
       <c r="JR31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="JS31" t="n">
+      <c r="JS31" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JT31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27364,8 +27457,11 @@
       <c r="JR32" s="1" t="n">
         <v>2.04</v>
       </c>
-      <c r="JS32" t="n">
+      <c r="JS32" s="1" t="n">
         <v>2.19</v>
+      </c>
+      <c r="JT32" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28205,8 +28301,11 @@
       <c r="JR33" s="1" t="n">
         <v>5.3</v>
       </c>
-      <c r="JS33" t="n">
+      <c r="JS33" s="1" t="n">
         <v>3.28</v>
+      </c>
+      <c r="JT33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29046,8 +29145,11 @@
       <c r="JR34" s="1" t="n">
         <v>43.4</v>
       </c>
-      <c r="JS34" t="n">
+      <c r="JS34" s="1" t="n">
         <v>44.1</v>
+      </c>
+      <c r="JT34" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -29887,8 +29989,11 @@
       <c r="JR35" s="1" t="n">
         <v>18.9</v>
       </c>
-      <c r="JS35" t="n">
+      <c r="JS35" s="1" t="n">
         <v>30.5</v>
+      </c>
+      <c r="JT35" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -30728,8 +30833,11 @@
       <c r="JR36" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="JS36" t="n">
+      <c r="JS36" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="JT36" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -31569,8 +31677,11 @@
       <c r="JR37" s="1" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="JS37" t="n">
+      <c r="JS37" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="JT37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32410,8 +32521,11 @@
       <c r="JR38" s="1" t="n">
         <v>24.49</v>
       </c>
-      <c r="JS38" t="n">
+      <c r="JS38" s="1" t="n">
         <v>24.58</v>
+      </c>
+      <c r="JT38" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -33251,8 +33365,11 @@
       <c r="JR39" s="1" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="JS39" t="n">
+      <c r="JS39" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="JT39" t="n">
+        <v>80.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -34092,8 +34209,11 @@
       <c r="JR40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JS40" t="n">
+      <c r="JS40" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JT40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -34933,8 +35053,11 @@
       <c r="JR41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JS41" t="n">
+      <c r="JS41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JT41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -35774,7 +35897,10 @@
       <c r="JR42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JS42" t="n">
+      <c r="JS42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36615,7 +36741,10 @@
       <c r="JR43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JS43" t="n">
+      <c r="JS43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37456,8 +37585,11 @@
       <c r="JR44" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="JS44" t="n">
+      <c r="JS44" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="JT44" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38297,8 +38429,11 @@
       <c r="JR45" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="JS45" t="n">
+      <c r="JS45" s="1" t="n">
         <v>183</v>
+      </c>
+      <c r="JT45" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39138,8 +39273,11 @@
       <c r="JR46" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="JS46" t="n">
+      <c r="JS46" s="1" t="n">
         <v>251</v>
+      </c>
+      <c r="JT46" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -39979,8 +40117,11 @@
       <c r="JR47" s="1" t="n">
         <v>70.7</v>
       </c>
-      <c r="JS47" t="n">
+      <c r="JS47" s="1" t="n">
         <v>75.59999999999999</v>
+      </c>
+      <c r="JT47" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -40820,8 +40961,11 @@
       <c r="JR48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JS48" t="n">
+      <c r="JS48" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="JT48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -41661,8 +41805,11 @@
       <c r="JR49" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JS49" t="n">
+      <c r="JS49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JT49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -42502,8 +42649,11 @@
       <c r="JR50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JS50" t="n">
+      <c r="JS50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JT50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -43343,8 +43493,11 @@
       <c r="JR51" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JS51" t="n">
+      <c r="JS51" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="JT51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -44184,8 +44337,11 @@
       <c r="JR52" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JS52" t="n">
+      <c r="JS52" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JT52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -45025,8 +45181,11 @@
       <c r="JR53" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JS53" t="n">
+      <c r="JS53" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="JT53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -45866,8 +46025,11 @@
       <c r="JR54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JS54" t="n">
+      <c r="JS54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JT54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -46707,8 +46869,11 @@
       <c r="JR55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JS55" t="n">
+      <c r="JS55" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JT55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -47548,8 +47713,11 @@
       <c r="JR56" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="JS56" t="n">
+      <c r="JS56" s="1" t="n">
         <v>72.2</v>
+      </c>
+      <c r="JT56" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -48389,8 +48557,11 @@
       <c r="JR57" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="JS57" t="n">
+      <c r="JS57" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="JT57" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -49230,8 +49401,11 @@
       <c r="JR58" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="JS58" t="n">
+      <c r="JS58" s="1" t="n">
         <v>109</v>
+      </c>
+      <c r="JT58" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -50071,8 +50245,11 @@
       <c r="JR59" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="JS59" t="n">
+      <c r="JS59" s="1" t="n">
         <v>297</v>
+      </c>
+      <c r="JT59" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -50912,8 +51089,11 @@
       <c r="JR60" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="JS60" t="n">
+      <c r="JS60" s="1" t="n">
         <v>1.72</v>
+      </c>
+      <c r="JT60" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -51753,8 +51933,11 @@
       <c r="JR61" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="JS61" t="n">
+      <c r="JS61" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="JT61" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -52594,8 +52777,11 @@
       <c r="JR62" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JS62" t="n">
+      <c r="JS62" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="JT62" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -53435,8 +53621,11 @@
       <c r="JR63" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JS63" t="n">
+      <c r="JS63" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="JT63" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -54276,8 +54465,11 @@
       <c r="JR64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JS64" t="n">
+      <c r="JS64" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="JT64" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -55117,8 +55309,11 @@
       <c r="JR65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JS65" t="n">
+      <c r="JS65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JT65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -55958,8 +56153,11 @@
       <c r="JR66" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JS66" t="n">
+      <c r="JS66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JT66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -56799,8 +56997,11 @@
       <c r="JR67" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JS67" t="n">
+      <c r="JS67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JT67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -57640,8 +57841,11 @@
       <c r="JR68" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JS68" t="n">
+      <c r="JS68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JT68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -58481,8 +58685,11 @@
       <c r="JR69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JS69" t="n">
+      <c r="JS69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JT69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -59322,8 +59529,11 @@
       <c r="JR70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JS70" t="n">
+      <c r="JS70" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="JT70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -60163,8 +60373,11 @@
       <c r="JR71" s="1" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="JS71" t="n">
+      <c r="JS71" s="1" t="n">
         <v>61.9</v>
+      </c>
+      <c r="JT71" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -61004,8 +61217,11 @@
       <c r="JR72" s="1" t="n">
         <v>20.47</v>
       </c>
-      <c r="JS72" t="n">
+      <c r="JS72" s="1" t="n">
         <v>22.85</v>
+      </c>
+      <c r="JT72" t="n">
+        <v>33.4</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -61845,8 +62061,11 @@
       <c r="JR73" s="1" t="n">
         <v>15.13</v>
       </c>
-      <c r="JS73" t="n">
+      <c r="JS73" s="1" t="n">
         <v>14.14</v>
+      </c>
+      <c r="JT73" t="n">
+        <v>15.18</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -62686,8 +62905,11 @@
       <c r="JR74" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JS74" t="n">
+      <c r="JS74" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JT74" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -63527,8 +63749,11 @@
       <c r="JR75" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="JS75" t="n">
+      <c r="JS75" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JT75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -64368,8 +64593,11 @@
       <c r="JR76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="JS76" t="n">
+      <c r="JS76" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="JT76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -65209,8 +65437,11 @@
       <c r="JR77" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="JS77" t="n">
+      <c r="JS77" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="JT77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -66050,8 +66281,11 @@
       <c r="JR78" s="1" t="n">
         <v>2.22</v>
       </c>
-      <c r="JS78" t="n">
+      <c r="JS78" s="1" t="n">
         <v>2.33</v>
+      </c>
+      <c r="JT78" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -66891,8 +67125,11 @@
       <c r="JR79" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JS79" t="n">
+      <c r="JS79" s="1" t="n">
         <v>3.77</v>
+      </c>
+      <c r="JT79" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -67732,8 +67969,11 @@
       <c r="JR80" s="1" t="n">
         <v>41.2</v>
       </c>
-      <c r="JS80" t="n">
+      <c r="JS80" s="1" t="n">
         <v>38.8</v>
+      </c>
+      <c r="JT80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -68573,8 +68813,11 @@
       <c r="JR81" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="JS81" t="n">
+      <c r="JS81" s="1" t="n">
         <v>26.5</v>
+      </c>
+      <c r="JT81" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -69414,7 +69657,10 @@
       <c r="JR82" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="JS82" t="n">
+      <c r="JS82" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="JT82" t="n">
         <v>188</v>
       </c>
     </row>
@@ -70255,8 +70501,11 @@
       <c r="JR83" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JS83" t="n">
+      <c r="JS83" s="1" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JT83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -71096,8 +71345,11 @@
       <c r="JR84" s="1" t="n">
         <v>27.49</v>
       </c>
-      <c r="JS84" t="n">
+      <c r="JS84" s="1" t="n">
         <v>26.41</v>
+      </c>
+      <c r="JT84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -71937,8 +72189,11 @@
       <c r="JR85" s="1" t="n">
         <v>131.7</v>
       </c>
-      <c r="JS85" t="n">
+      <c r="JS85" s="1" t="n">
         <v>108.8</v>
+      </c>
+      <c r="JT85" t="n">
+        <v>79.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -72778,8 +73033,11 @@
       <c r="JR86" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JS86" t="n">
+      <c r="JS86" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JT86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -73619,7 +73877,10 @@
       <c r="JR87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JS87" t="n">
+      <c r="JS87" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT87" t="n">
         <v>10</v>
       </c>
     </row>
@@ -74460,7 +74721,10 @@
       <c r="JR88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JS88" t="n">
+      <c r="JS88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -75301,8 +75565,11 @@
       <c r="JR89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JS89" t="n">
+      <c r="JS89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JT89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -76142,8 +76409,11 @@
       <c r="JR90" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="JS90" t="n">
+      <c r="JS90" s="1" t="n">
         <v>124</v>
+      </c>
+      <c r="JT90" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -76983,8 +77253,11 @@
       <c r="JR91" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="JS91" t="n">
+      <c r="JS91" s="1" t="n">
         <v>161</v>
+      </c>
+      <c r="JT91" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -77824,8 +78097,11 @@
       <c r="JR92" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="JS92" t="n">
+      <c r="JS92" s="1" t="n">
         <v>215</v>
+      </c>
+      <c r="JT92" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -78665,8 +78941,11 @@
       <c r="JR93" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="JS93" t="n">
+      <c r="JS93" s="1" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="JT93" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -79506,8 +79785,11 @@
       <c r="JR94" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="JS94" t="n">
+      <c r="JS94" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JT94" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -80347,8 +80629,11 @@
       <c r="JR95" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JS95" t="n">
+      <c r="JS95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JT95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -81188,8 +81473,11 @@
       <c r="JR96" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JS96" t="n">
+      <c r="JS96" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JT96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -82029,8 +82317,11 @@
       <c r="JR97" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JS97" t="n">
+      <c r="JS97" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JT97" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -82870,8 +83161,11 @@
       <c r="JR98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="JS98" t="n">
+      <c r="JS98" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="JT98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -83711,8 +84005,11 @@
       <c r="JR99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JS99" t="n">
+      <c r="JS99" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="JT99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -84552,8 +84849,11 @@
       <c r="JR100" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JS100" t="n">
+      <c r="JS100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JT100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -85393,8 +85693,11 @@
       <c r="JR101" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JS101" t="n">
+      <c r="JS101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JT101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -86234,8 +86537,11 @@
       <c r="JR102" s="1" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="JS102" t="n">
+      <c r="JS102" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="JT102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JT102"/>
+  <dimension ref="A1:JV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HA23" activeCellId="0" sqref="HA23"/>
@@ -1296,8 +1296,14 @@
       <c r="JS1" s="1" t="n">
         <v>10774</v>
       </c>
-      <c r="JT1" t="n">
+      <c r="JT1" s="1" t="n">
         <v>10780</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>10787</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>10787</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2140,7 +2146,13 @@
       <c r="JS2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JT2" t="n">
+      <c r="JT2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JU2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2984,8 +2996,14 @@
       <c r="JS3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JT3" t="n">
+      <c r="JT3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JU3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3828,7 +3846,13 @@
       <c r="JS4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JT4" t="n">
+      <c r="JT4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,7 +4696,13 @@
       <c r="JS5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JT5" t="n">
+      <c r="JT5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,8 +5546,14 @@
       <c r="JS6" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="JT6" t="n">
+      <c r="JT6" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="JU6" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6360,8 +6396,14 @@
       <c r="JS7" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="JT7" t="n">
+      <c r="JT7" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="JU7" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7204,8 +7246,14 @@
       <c r="JS8" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="JT8" t="n">
+      <c r="JT8" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="JU8" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8048,7 +8096,13 @@
       <c r="JS9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JT9" t="n">
+      <c r="JT9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8892,8 +8946,14 @@
       <c r="JS10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JT10" t="n">
+      <c r="JT10" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JU10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9736,8 +9796,14 @@
       <c r="JS11" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="JT11" t="n">
+      <c r="JT11" s="1" t="n">
         <v>222</v>
+      </c>
+      <c r="JU11" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10580,8 +10646,14 @@
       <c r="JS12" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="JT12" t="n">
+      <c r="JT12" s="1" t="n">
         <v>158</v>
+      </c>
+      <c r="JU12" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11424,8 +11496,14 @@
       <c r="JS13" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="JT13" t="n">
+      <c r="JT13" s="1" t="n">
         <v>380</v>
+      </c>
+      <c r="JU13" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="JV13" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12268,8 +12346,14 @@
       <c r="JS14" s="1" t="n">
         <v>1.77</v>
       </c>
-      <c r="JT14" t="n">
+      <c r="JT14" s="1" t="n">
         <v>1.41</v>
+      </c>
+      <c r="JU14" s="1" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="JV14" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13112,8 +13196,14 @@
       <c r="JS15" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="JT15" t="n">
+      <c r="JT15" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JU15" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="JV15" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13956,8 +14046,14 @@
       <c r="JS16" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JT16" t="n">
+      <c r="JT16" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JU16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JV16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14800,8 +14896,14 @@
       <c r="JS17" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JT17" t="n">
+      <c r="JT17" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JU17" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="JV17" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15644,7 +15746,13 @@
       <c r="JS18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JT18" t="n">
+      <c r="JT18" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JU18" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JV18" t="n">
         <v>22</v>
       </c>
     </row>
@@ -16488,8 +16596,14 @@
       <c r="JS19" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JT19" t="n">
+      <c r="JT19" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="JU19" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JV19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17332,8 +17446,14 @@
       <c r="JS20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JT20" t="n">
+      <c r="JT20" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JU20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18176,8 +18296,14 @@
       <c r="JS21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JT21" t="n">
+      <c r="JT21" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JU21" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JV21" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19020,8 +19146,14 @@
       <c r="JS22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JT22" t="n">
+      <c r="JT22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JU22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JV22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19864,8 +19996,14 @@
       <c r="JS23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JT23" t="n">
+      <c r="JT23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JU23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20708,8 +20846,14 @@
       <c r="JS24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="JT24" t="n">
+      <c r="JT24" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="JU24" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21552,8 +21696,14 @@
       <c r="JS25" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="JT25" t="n">
+      <c r="JT25" s="1" t="n">
         <v>65.40000000000001</v>
+      </c>
+      <c r="JU25" s="1" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JV25" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22396,8 +22546,14 @@
       <c r="JS26" s="1" t="n">
         <v>18.44</v>
       </c>
-      <c r="JT26" t="n">
+      <c r="JT26" s="1" t="n">
         <v>22.35</v>
+      </c>
+      <c r="JU26" s="1" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="JV26" t="n">
+        <v>22.11</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23240,8 +23396,14 @@
       <c r="JS27" s="1" t="n">
         <v>12.3</v>
       </c>
-      <c r="JT27" t="n">
+      <c r="JT27" s="1" t="n">
         <v>14.62</v>
+      </c>
+      <c r="JU27" s="1" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="JV27" t="n">
+        <v>14.21</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24084,8 +24246,14 @@
       <c r="JS28" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="JT28" t="n">
+      <c r="JT28" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JU28" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24928,8 +25096,14 @@
       <c r="JS29" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JT29" t="n">
+      <c r="JT29" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="JU29" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JV29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25772,8 +25946,14 @@
       <c r="JS30" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JT30" t="n">
+      <c r="JT30" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JU30" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JV30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26616,7 +26796,13 @@
       <c r="JS31" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JT31" t="n">
+      <c r="JT31" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JU31" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="JV31" t="n">
         <v>51</v>
       </c>
     </row>
@@ -27460,8 +27646,14 @@
       <c r="JS32" s="1" t="n">
         <v>2.19</v>
       </c>
-      <c r="JT32" t="n">
+      <c r="JT32" s="1" t="n">
         <v>1.96</v>
+      </c>
+      <c r="JU32" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="JV32" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28304,8 +28496,14 @@
       <c r="JS33" s="1" t="n">
         <v>3.28</v>
       </c>
-      <c r="JT33" t="n">
+      <c r="JT33" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JU33" s="1" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="JV33" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29148,8 +29346,14 @@
       <c r="JS34" s="1" t="n">
         <v>44.1</v>
       </c>
-      <c r="JT34" t="n">
+      <c r="JT34" s="1" t="n">
         <v>47.1</v>
+      </c>
+      <c r="JU34" s="1" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="JV34" t="n">
+        <v>54.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -29992,8 +30196,14 @@
       <c r="JS35" s="1" t="n">
         <v>30.5</v>
       </c>
-      <c r="JT35" t="n">
+      <c r="JT35" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JU35" s="1" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="JV35" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -30836,8 +31046,14 @@
       <c r="JS36" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="JT36" t="n">
+      <c r="JT36" s="1" t="n">
         <v>187.1</v>
+      </c>
+      <c r="JU36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JV36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -31680,8 +31896,14 @@
       <c r="JS37" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="JT37" t="n">
+      <c r="JT37" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JU37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="JV37" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32524,7 +32746,13 @@
       <c r="JS38" s="1" t="n">
         <v>24.58</v>
       </c>
-      <c r="JT38" t="n">
+      <c r="JT38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JU38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JV38" t="n">
         <v>24.74</v>
       </c>
     </row>
@@ -33368,8 +33596,14 @@
       <c r="JS39" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="JT39" t="n">
+      <c r="JT39" s="1" t="n">
         <v>80.2</v>
+      </c>
+      <c r="JU39" s="1" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="JV39" t="n">
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -34212,8 +34446,14 @@
       <c r="JS40" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JT40" t="n">
+      <c r="JT40" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JU40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JV40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -35056,8 +35296,14 @@
       <c r="JS41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JT41" t="n">
+      <c r="JT41" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JU41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JV41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -35900,7 +36146,13 @@
       <c r="JS42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JT42" t="n">
+      <c r="JT42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36744,7 +36996,13 @@
       <c r="JS43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JT43" t="n">
+      <c r="JT43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37588,8 +37846,14 @@
       <c r="JS44" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="JT44" t="n">
+      <c r="JT44" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="JU44" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="JV44" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38432,8 +38696,14 @@
       <c r="JS45" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="JT45" t="n">
+      <c r="JT45" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="JU45" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="JV45" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39276,8 +39546,14 @@
       <c r="JS46" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="JT46" t="n">
+      <c r="JT46" s="1" t="n">
         <v>276</v>
+      </c>
+      <c r="JU46" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="JV46" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -40120,8 +40396,14 @@
       <c r="JS47" s="1" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="JT47" t="n">
+      <c r="JT47" s="1" t="n">
         <v>72.59999999999999</v>
+      </c>
+      <c r="JU47" s="1" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="JV47" t="n">
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -40964,8 +41246,14 @@
       <c r="JS48" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JT48" t="n">
+      <c r="JT48" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="JU48" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JV48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -41808,8 +42096,14 @@
       <c r="JS49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JT49" t="n">
+      <c r="JT49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JU49" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JV49" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -42652,8 +42946,14 @@
       <c r="JS50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JT50" t="n">
+      <c r="JT50" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JU50" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JV50" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -43496,8 +43796,14 @@
       <c r="JS51" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="JT51" t="n">
+      <c r="JT51" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JU51" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -44340,8 +44646,14 @@
       <c r="JS52" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JT52" t="n">
+      <c r="JT52" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JU52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JV52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -45184,8 +45496,14 @@
       <c r="JS53" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="JT53" t="n">
+      <c r="JT53" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="JU53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JV53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -46028,7 +46346,13 @@
       <c r="JS54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JT54" t="n">
+      <c r="JT54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JU54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -46872,8 +47196,14 @@
       <c r="JS55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JT55" t="n">
+      <c r="JT55" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JU55" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JV55" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -47716,8 +48046,14 @@
       <c r="JS56" s="1" t="n">
         <v>72.2</v>
       </c>
-      <c r="JT56" t="n">
+      <c r="JT56" s="1" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="JU56" s="1" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="JV56" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -48560,8 +48896,14 @@
       <c r="JS57" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="JT57" t="n">
+      <c r="JT57" s="1" t="n">
         <v>179</v>
+      </c>
+      <c r="JU57" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="JV57" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -49404,8 +49746,14 @@
       <c r="JS58" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="JT58" t="n">
+      <c r="JT58" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="JU58" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="JV58" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -50248,8 +50596,14 @@
       <c r="JS59" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="JT59" t="n">
+      <c r="JT59" s="1" t="n">
         <v>334</v>
+      </c>
+      <c r="JU59" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="JV59" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -51092,8 +51446,14 @@
       <c r="JS60" s="1" t="n">
         <v>1.72</v>
       </c>
-      <c r="JT60" t="n">
+      <c r="JT60" s="1" t="n">
         <v>1.15</v>
+      </c>
+      <c r="JU60" s="1" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="JV60" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -51936,8 +52296,14 @@
       <c r="JS61" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="JT61" t="n">
+      <c r="JT61" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="JU61" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="JV61" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -52780,8 +53146,14 @@
       <c r="JS62" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="JT62" t="n">
+      <c r="JT62" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="JU62" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="JV62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -53624,8 +53996,14 @@
       <c r="JS63" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="JT63" t="n">
+      <c r="JT63" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="JU63" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="JV63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -54468,8 +54846,14 @@
       <c r="JS64" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JT64" t="n">
+      <c r="JT64" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="JU64" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JV64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -55312,8 +55696,14 @@
       <c r="JS65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JT65" t="n">
+      <c r="JT65" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="JU65" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JV65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -56156,8 +56546,14 @@
       <c r="JS66" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JT66" t="n">
+      <c r="JT66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JU66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JV66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -57000,8 +57396,14 @@
       <c r="JS67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JT67" t="n">
+      <c r="JT67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JU67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -57844,8 +58246,14 @@
       <c r="JS68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JT68" t="n">
+      <c r="JT68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JU68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -58688,8 +59096,14 @@
       <c r="JS69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JT69" t="n">
+      <c r="JT69" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JU69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -59532,8 +59946,14 @@
       <c r="JS70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="JT70" t="n">
+      <c r="JT70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JU70" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JV70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -60376,8 +60796,14 @@
       <c r="JS71" s="1" t="n">
         <v>61.9</v>
       </c>
-      <c r="JT71" t="n">
+      <c r="JT71" s="1" t="n">
         <v>45.5</v>
+      </c>
+      <c r="JU71" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="JV71" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -61220,8 +61646,14 @@
       <c r="JS72" s="1" t="n">
         <v>22.85</v>
       </c>
-      <c r="JT72" t="n">
+      <c r="JT72" s="1" t="n">
         <v>33.4</v>
+      </c>
+      <c r="JU72" s="1" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="JV72" t="n">
+        <v>35.56</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -62064,8 +62496,14 @@
       <c r="JS73" s="1" t="n">
         <v>14.14</v>
       </c>
-      <c r="JT73" t="n">
+      <c r="JT73" s="1" t="n">
         <v>15.18</v>
+      </c>
+      <c r="JU73" s="1" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="JV73" t="n">
+        <v>18.82</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -62908,8 +63346,14 @@
       <c r="JS74" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JT74" t="n">
+      <c r="JT74" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JU74" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JV74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -63752,7 +64196,13 @@
       <c r="JS75" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JT75" t="n">
+      <c r="JT75" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JU75" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JV75" t="n">
         <v>50</v>
       </c>
     </row>
@@ -64596,8 +65046,14 @@
       <c r="JS76" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JT76" t="n">
+      <c r="JT76" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JU76" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JV76" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -65440,8 +65896,14 @@
       <c r="JS77" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="JT77" t="n">
+      <c r="JT77" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="JU77" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="JV77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -66284,8 +66746,14 @@
       <c r="JS78" s="1" t="n">
         <v>2.33</v>
       </c>
-      <c r="JT78" t="n">
+      <c r="JT78" s="1" t="n">
         <v>2.32</v>
+      </c>
+      <c r="JU78" s="1" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="JV78" t="n">
+        <v>3.12</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -67128,8 +67596,14 @@
       <c r="JS79" s="1" t="n">
         <v>3.77</v>
       </c>
-      <c r="JT79" t="n">
+      <c r="JT79" s="1" t="n">
         <v>5.1</v>
+      </c>
+      <c r="JU79" s="1" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="JV79" t="n">
+        <v>5.89</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -67972,8 +68446,14 @@
       <c r="JS80" s="1" t="n">
         <v>38.8</v>
       </c>
-      <c r="JT80" t="n">
+      <c r="JT80" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JU80" s="1" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="JV80" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -68816,8 +69296,14 @@
       <c r="JS81" s="1" t="n">
         <v>26.5</v>
       </c>
-      <c r="JT81" t="n">
+      <c r="JT81" s="1" t="n">
         <v>19.6</v>
+      </c>
+      <c r="JU81" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JV81" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -69660,8 +70146,14 @@
       <c r="JS82" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="JT82" t="n">
+      <c r="JT82" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="JU82" s="1" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JV82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -70504,8 +70996,14 @@
       <c r="JS83" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="JT83" t="n">
+      <c r="JT83" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JU83" s="1" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="JV83" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -71348,8 +71846,14 @@
       <c r="JS84" s="1" t="n">
         <v>26.41</v>
       </c>
-      <c r="JT84" t="n">
+      <c r="JT84" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="JU84" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JV84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -72192,8 +72696,14 @@
       <c r="JS85" s="1" t="n">
         <v>108.8</v>
       </c>
-      <c r="JT85" t="n">
+      <c r="JT85" s="1" t="n">
         <v>79.3</v>
+      </c>
+      <c r="JU85" s="1" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="JV85" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -73036,8 +73546,14 @@
       <c r="JS86" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JT86" t="n">
+      <c r="JT86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JU86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -73880,8 +74396,14 @@
       <c r="JS87" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JT87" t="n">
+      <c r="JT87" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JU87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -74724,8 +75246,14 @@
       <c r="JS88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JT88" t="n">
+      <c r="JT88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JU88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -75568,8 +76096,14 @@
       <c r="JS89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JT89" t="n">
+      <c r="JT89" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JU89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -76412,8 +76946,14 @@
       <c r="JS90" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="JT90" t="n">
+      <c r="JT90" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="JU90" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="JV90" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -77256,8 +77796,14 @@
       <c r="JS91" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="JT91" t="n">
+      <c r="JT91" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="JU91" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="JV91" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -78100,8 +78646,14 @@
       <c r="JS92" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="JT92" t="n">
+      <c r="JT92" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="JU92" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="JV92" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -78944,8 +79496,14 @@
       <c r="JS93" s="1" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="JT93" t="n">
+      <c r="JT93" s="1" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="JU93" s="1" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="JV93" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -79788,7 +80346,13 @@
       <c r="JS94" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JT94" t="n">
+      <c r="JT94" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JU94" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JV94" t="n">
         <v>50</v>
       </c>
     </row>
@@ -80632,8 +81196,14 @@
       <c r="JS95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JT95" t="n">
+      <c r="JT95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JU95" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JV95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -81476,8 +82046,14 @@
       <c r="JS96" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JT96" t="n">
+      <c r="JT96" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JU96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -82320,8 +82896,14 @@
       <c r="JS97" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JT97" t="n">
+      <c r="JT97" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JU97" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JV97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -83164,8 +83746,14 @@
       <c r="JS98" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JT98" t="n">
+      <c r="JT98" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JU98" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JV98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -84008,8 +84596,14 @@
       <c r="JS99" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="JT99" t="n">
+      <c r="JT99" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JU99" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JV99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -84852,8 +85446,14 @@
       <c r="JS100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JT100" t="n">
+      <c r="JT100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JU100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -85696,8 +86296,14 @@
       <c r="JS101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JT101" t="n">
+      <c r="JT101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JU101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -86540,8 +87146,14 @@
       <c r="JS102" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="JT102" t="n">
+      <c r="JT102" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JU102" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JV102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JV102"/>
+  <dimension ref="A1:JY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HA23" activeCellId="0" sqref="HA23"/>
@@ -1302,8 +1302,17 @@
       <c r="JU1" s="1" t="n">
         <v>10787</v>
       </c>
-      <c r="JV1" t="n">
+      <c r="JV1" s="1" t="n">
         <v>10787</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>10800</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2152,7 +2161,16 @@
       <c r="JU2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JV2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JW2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JX2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JY2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3002,8 +3020,17 @@
       <c r="JU3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JV3" t="n">
+      <c r="JV3" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JW3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3852,8 +3879,17 @@
       <c r="JU4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JV4" t="n">
+      <c r="JV4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JW4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4702,8 +4738,17 @@
       <c r="JU5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JV5" t="n">
+      <c r="JV5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JW5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5552,8 +5597,17 @@
       <c r="JU6" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="JV6" t="n">
+      <c r="JV6" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="JW6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JX6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6402,8 +6456,17 @@
       <c r="JU7" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="JV7" t="n">
+      <c r="JV7" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="JW7" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="JX7" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="JY7" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7252,8 +7315,17 @@
       <c r="JU8" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JV8" t="n">
+      <c r="JV8" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="JW8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8102,7 +8174,16 @@
       <c r="JU9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JV9" t="n">
+      <c r="JV9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8952,8 +9033,17 @@
       <c r="JU10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JV10" t="n">
+      <c r="JV10" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JW10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JX10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JY10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9802,8 +9892,17 @@
       <c r="JU11" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="JV11" t="n">
+      <c r="JV11" s="1" t="n">
         <v>242</v>
+      </c>
+      <c r="JW11" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="JX11" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="JY11" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10652,8 +10751,17 @@
       <c r="JU12" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="JV12" t="n">
+      <c r="JV12" s="1" t="n">
         <v>156</v>
+      </c>
+      <c r="JW12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="JX12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="JY12" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11502,8 +11610,17 @@
       <c r="JU13" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="JV13" t="n">
+      <c r="JV13" s="1" t="n">
         <v>398</v>
+      </c>
+      <c r="JW13" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="JX13" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="JY13" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12352,8 +12469,17 @@
       <c r="JU14" s="1" t="n">
         <v>1.55</v>
       </c>
-      <c r="JV14" t="n">
+      <c r="JV14" s="1" t="n">
         <v>1.55</v>
+      </c>
+      <c r="JW14" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="JX14" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="JY14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13202,8 +13328,17 @@
       <c r="JU15" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="JV15" t="n">
+      <c r="JV15" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="JW15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JX15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JY15" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14052,8 +14187,17 @@
       <c r="JU16" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JV16" t="n">
+      <c r="JV16" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JW16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="JX16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="JY16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14902,8 +15046,17 @@
       <c r="JU17" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JV17" t="n">
+      <c r="JV17" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JW17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JX17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JY17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15752,8 +15905,17 @@
       <c r="JU18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JV18" t="n">
+      <c r="JV18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JW18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JX18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JY18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16602,8 +16764,17 @@
       <c r="JU19" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JV19" t="n">
+      <c r="JV19" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JW19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JX19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JY19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17452,8 +17623,17 @@
       <c r="JU20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JV20" t="n">
+      <c r="JV20" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JW20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JX20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JY20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18302,8 +18482,17 @@
       <c r="JU21" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JV21" t="n">
+      <c r="JV21" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JW21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19152,8 +19341,17 @@
       <c r="JU22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JV22" t="n">
+      <c r="JV22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JW22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20002,8 +20200,17 @@
       <c r="JU23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JV23" t="n">
+      <c r="JV23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JW23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20852,8 +21059,17 @@
       <c r="JU24" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="JV24" t="n">
+      <c r="JV24" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="JW24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JX24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JY24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21702,8 +21918,17 @@
       <c r="JU25" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="JV25" t="n">
+      <c r="JV25" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="JW25" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JX25" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JY25" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22552,8 +22777,17 @@
       <c r="JU26" s="1" t="n">
         <v>22.11</v>
       </c>
-      <c r="JV26" t="n">
+      <c r="JV26" s="1" t="n">
         <v>22.11</v>
+      </c>
+      <c r="JW26" s="1" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="JX26" s="1" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="JY26" t="n">
+        <v>32.27</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23402,8 +23636,17 @@
       <c r="JU27" s="1" t="n">
         <v>14.21</v>
       </c>
-      <c r="JV27" t="n">
+      <c r="JV27" s="1" t="n">
         <v>14.21</v>
+      </c>
+      <c r="JW27" s="1" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="JX27" s="1" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="JY27" t="n">
+        <v>14.79</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24252,8 +24495,17 @@
       <c r="JU28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JV28" t="n">
+      <c r="JV28" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="JW28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JX28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JY28" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25102,8 +25354,17 @@
       <c r="JU29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JV29" t="n">
+      <c r="JV29" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JW29" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="JX29" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="JY29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25952,8 +26213,17 @@
       <c r="JU30" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JV30" t="n">
+      <c r="JV30" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JW30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JX30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JY30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26802,8 +27072,17 @@
       <c r="JU31" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="JV31" t="n">
+      <c r="JV31" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="JW31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="JX31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="JY31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27652,8 +27931,17 @@
       <c r="JU32" s="1" t="n">
         <v>1.82</v>
       </c>
-      <c r="JV32" t="n">
+      <c r="JV32" s="1" t="n">
         <v>1.82</v>
+      </c>
+      <c r="JW32" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="JX32" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="JY32" t="n">
+        <v>2.21</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28502,8 +28790,17 @@
       <c r="JU33" s="1" t="n">
         <v>2.83</v>
       </c>
-      <c r="JV33" t="n">
+      <c r="JV33" s="1" t="n">
         <v>2.83</v>
+      </c>
+      <c r="JW33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="JX33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="JY33" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29352,8 +29649,17 @@
       <c r="JU34" s="1" t="n">
         <v>54.9</v>
       </c>
-      <c r="JV34" t="n">
+      <c r="JV34" s="1" t="n">
         <v>54.9</v>
+      </c>
+      <c r="JW34" s="1" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="JX34" s="1" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="JY34" t="n">
+        <v>35.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30202,8 +30508,17 @@
       <c r="JU35" s="1" t="n">
         <v>35.3</v>
       </c>
-      <c r="JV35" t="n">
+      <c r="JV35" s="1" t="n">
         <v>35.3</v>
+      </c>
+      <c r="JW35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="JX35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="JY35" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31052,7 +31367,16 @@
       <c r="JU36" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="JV36" t="n">
+      <c r="JV36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JW36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JX36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JY36" t="n">
         <v>187.3</v>
       </c>
     </row>
@@ -31902,7 +32226,16 @@
       <c r="JU37" s="1" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="JV37" t="n">
+      <c r="JV37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="JW37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="JX37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="JY37" t="n">
         <v>87.59999999999999</v>
       </c>
     </row>
@@ -32752,7 +33085,16 @@
       <c r="JU38" s="1" t="n">
         <v>24.74</v>
       </c>
-      <c r="JV38" t="n">
+      <c r="JV38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JW38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JX38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JY38" t="n">
         <v>24.74</v>
       </c>
     </row>
@@ -33602,8 +33944,17 @@
       <c r="JU39" s="1" t="n">
         <v>81.59999999999999</v>
       </c>
-      <c r="JV39" t="n">
+      <c r="JV39" s="1" t="n">
         <v>81.59999999999999</v>
+      </c>
+      <c r="JW39" s="1" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="JX39" s="1" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="JY39" t="n">
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -34452,7 +34803,16 @@
       <c r="JU40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JV40" t="n">
+      <c r="JV40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JW40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JY40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -35302,7 +35662,16 @@
       <c r="JU41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JV41" t="n">
+      <c r="JV41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JW41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JX41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JY41" t="n">
         <v>10</v>
       </c>
     </row>
@@ -36152,7 +36521,16 @@
       <c r="JU42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JV42" t="n">
+      <c r="JV42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37002,7 +37380,16 @@
       <c r="JU43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JV43" t="n">
+      <c r="JV43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37852,8 +38239,17 @@
       <c r="JU44" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="JV44" t="n">
+      <c r="JV44" s="1" t="n">
         <v>156</v>
+      </c>
+      <c r="JW44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="JX44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="JY44" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38702,8 +39098,17 @@
       <c r="JU45" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="JV45" t="n">
+      <c r="JV45" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="JW45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="JX45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="JY45" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39552,8 +39957,17 @@
       <c r="JU46" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="JV46" t="n">
+      <c r="JV46" s="1" t="n">
         <v>302</v>
+      </c>
+      <c r="JW46" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="JX46" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="JY46" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -40402,8 +40816,17 @@
       <c r="JU47" s="1" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="JV47" t="n">
+      <c r="JV47" s="1" t="n">
         <v>75.90000000000001</v>
+      </c>
+      <c r="JW47" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="JX47" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="JY47" t="n">
+        <v>71.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -41252,8 +41675,17 @@
       <c r="JU48" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JV48" t="n">
+      <c r="JV48" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JW48" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="JX48" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="JY48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -42102,8 +42534,17 @@
       <c r="JU49" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JV49" t="n">
+      <c r="JV49" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JW49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -42952,8 +43393,17 @@
       <c r="JU50" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JV50" t="n">
+      <c r="JV50" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JW50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JX50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JY50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -43802,8 +44252,17 @@
       <c r="JU51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JV51" t="n">
+      <c r="JV51" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="JW51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JX51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JY51" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -44652,8 +45111,17 @@
       <c r="JU52" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JV52" t="n">
+      <c r="JV52" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JW52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JX52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JY52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -45502,8 +45970,17 @@
       <c r="JU53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JV53" t="n">
+      <c r="JV53" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JW53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JX53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JY53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -46352,7 +46829,16 @@
       <c r="JU54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JV54" t="n">
+      <c r="JV54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -47202,8 +47688,17 @@
       <c r="JU55" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JV55" t="n">
+      <c r="JV55" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JW55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -48052,8 +48547,17 @@
       <c r="JU56" s="1" t="n">
         <v>83.3</v>
       </c>
-      <c r="JV56" t="n">
+      <c r="JV56" s="1" t="n">
         <v>83.3</v>
+      </c>
+      <c r="JW56" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JX56" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JY56" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -48902,8 +49406,17 @@
       <c r="JU57" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="JV57" t="n">
+      <c r="JV57" s="1" t="n">
         <v>183</v>
+      </c>
+      <c r="JW57" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="JX57" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="JY57" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -49752,8 +50265,17 @@
       <c r="JU58" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="JV58" t="n">
+      <c r="JV58" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="JW58" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="JX58" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="JY58" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -50602,8 +51124,17 @@
       <c r="JU59" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="JV59" t="n">
+      <c r="JV59" s="1" t="n">
         <v>320</v>
+      </c>
+      <c r="JW59" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="JX59" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="JY59" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -51452,8 +51983,17 @@
       <c r="JU60" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="JV60" t="n">
+      <c r="JV60" s="1" t="n">
         <v>1.34</v>
+      </c>
+      <c r="JW60" s="1" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="JX60" s="1" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="JY60" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -52302,8 +52842,17 @@
       <c r="JU61" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="JV61" t="n">
+      <c r="JV61" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="JW61" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="JX61" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="JY61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -53152,8 +53701,17 @@
       <c r="JU62" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="JV62" t="n">
+      <c r="JV62" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="JW62" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="JX62" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="JY62" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -54002,8 +54560,17 @@
       <c r="JU63" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JV63" t="n">
+      <c r="JV63" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="JW63" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JX63" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JY63" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -54852,8 +55419,17 @@
       <c r="JU64" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JV64" t="n">
+      <c r="JV64" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JW64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JX64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JY64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -55702,8 +56278,17 @@
       <c r="JU65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JV65" t="n">
+      <c r="JV65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JW65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JX65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JY65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -56552,8 +57137,17 @@
       <c r="JU66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JV66" t="n">
+      <c r="JV66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JW66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JX66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JY66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -57402,8 +57996,17 @@
       <c r="JU67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JV67" t="n">
+      <c r="JV67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JW67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JY67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -58252,8 +58855,17 @@
       <c r="JU68" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JV68" t="n">
+      <c r="JV68" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JW68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JY68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -59102,8 +59714,17 @@
       <c r="JU69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JV69" t="n">
+      <c r="JV69" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JW69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -59952,8 +60573,17 @@
       <c r="JU70" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JV70" t="n">
+      <c r="JV70" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JW70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="JX70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="JY70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -60802,8 +61432,17 @@
       <c r="JU71" s="1" t="n">
         <v>52.9</v>
       </c>
-      <c r="JV71" t="n">
+      <c r="JV71" s="1" t="n">
         <v>52.9</v>
+      </c>
+      <c r="JW71" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="JX71" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="JY71" t="n">
+        <v>52.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -61652,8 +62291,17 @@
       <c r="JU72" s="1" t="n">
         <v>35.56</v>
       </c>
-      <c r="JV72" t="n">
+      <c r="JV72" s="1" t="n">
         <v>35.56</v>
+      </c>
+      <c r="JW72" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JX72" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JY72" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -62502,8 +63150,17 @@
       <c r="JU73" s="1" t="n">
         <v>18.82</v>
       </c>
-      <c r="JV73" t="n">
+      <c r="JV73" s="1" t="n">
         <v>18.82</v>
+      </c>
+      <c r="JW73" s="1" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="JX73" s="1" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="JY73" t="n">
+        <v>16.76</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -63352,8 +64009,17 @@
       <c r="JU74" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JV74" t="n">
+      <c r="JV74" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JW74" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JX74" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JY74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -64202,8 +64868,17 @@
       <c r="JU75" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JV75" t="n">
+      <c r="JV75" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JW75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JX75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JY75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -65052,8 +65727,17 @@
       <c r="JU76" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JV76" t="n">
+      <c r="JV76" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JW76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JX76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JY76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -65902,8 +66586,17 @@
       <c r="JU77" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="JV77" t="n">
+      <c r="JV77" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="JW77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JX77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JY77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -66752,8 +67445,17 @@
       <c r="JU78" s="1" t="n">
         <v>3.12</v>
       </c>
-      <c r="JV78" t="n">
+      <c r="JV78" s="1" t="n">
         <v>3.12</v>
+      </c>
+      <c r="JW78" s="1" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="JX78" s="1" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="JY78" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -67602,8 +68304,17 @@
       <c r="JU79" s="1" t="n">
         <v>5.89</v>
       </c>
-      <c r="JV79" t="n">
+      <c r="JV79" s="1" t="n">
         <v>5.89</v>
+      </c>
+      <c r="JW79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="JX79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="JY79" t="n">
+        <v>4.27</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -68452,8 +69163,17 @@
       <c r="JU80" s="1" t="n">
         <v>24.5</v>
       </c>
-      <c r="JV80" t="n">
+      <c r="JV80" s="1" t="n">
         <v>24.5</v>
+      </c>
+      <c r="JW80" s="1" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="JX80" s="1" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="JY80" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -69302,8 +70022,17 @@
       <c r="JU81" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JV81" t="n">
+      <c r="JV81" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JW81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="JX81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="JY81" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -70152,8 +70881,17 @@
       <c r="JU82" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="JV82" t="n">
+      <c r="JV82" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="JW82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JX82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JY82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -71002,8 +71740,17 @@
       <c r="JU83" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="JV83" t="n">
+      <c r="JV83" s="1" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JW83" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="JX83" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="JY83" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -71852,8 +72599,17 @@
       <c r="JU84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="JV84" t="n">
+      <c r="JV84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JW84" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="JX84" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="JY84" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -72702,8 +73458,17 @@
       <c r="JU85" s="1" t="n">
         <v>87.8</v>
       </c>
-      <c r="JV85" t="n">
+      <c r="JV85" s="1" t="n">
         <v>87.8</v>
+      </c>
+      <c r="JW85" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="JX85" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="JY85" t="n">
+        <v>74.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -73552,8 +74317,17 @@
       <c r="JU86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JV86" t="n">
+      <c r="JV86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JW86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JX86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JY86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -74402,8 +75176,17 @@
       <c r="JU87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JV87" t="n">
+      <c r="JV87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JW87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -75252,8 +76035,17 @@
       <c r="JU88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JV88" t="n">
+      <c r="JV88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JW88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -76102,7 +76894,16 @@
       <c r="JU89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JV89" t="n">
+      <c r="JV89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -76952,8 +77753,17 @@
       <c r="JU90" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="JV90" t="n">
+      <c r="JV90" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="JW90" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="JX90" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="JY90" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -77802,8 +78612,17 @@
       <c r="JU91" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="JV91" t="n">
+      <c r="JV91" s="1" t="n">
         <v>181</v>
+      </c>
+      <c r="JW91" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="JX91" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="JY91" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -78652,8 +79471,17 @@
       <c r="JU92" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="JV92" t="n">
+      <c r="JV92" s="1" t="n">
         <v>226</v>
+      </c>
+      <c r="JW92" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="JX92" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="JY92" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -79502,8 +80330,17 @@
       <c r="JU93" s="1" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="JV93" t="n">
+      <c r="JV93" s="1" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="JW93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="JX93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="JY93" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -80352,8 +81189,17 @@
       <c r="JU94" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JV94" t="n">
+      <c r="JV94" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JW94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JX94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JY94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -81202,8 +82048,17 @@
       <c r="JU95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JV95" t="n">
+      <c r="JV95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JW95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -82052,7 +82907,16 @@
       <c r="JU96" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JV96" t="n">
+      <c r="JV96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY96" t="n">
         <v>7</v>
       </c>
     </row>
@@ -82902,8 +83766,17 @@
       <c r="JU97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JV97" t="n">
+      <c r="JV97" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JW97" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JX97" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JY97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -83752,8 +84625,17 @@
       <c r="JU98" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JV98" t="n">
+      <c r="JV98" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JW98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JX98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JY98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -84602,8 +85484,17 @@
       <c r="JU99" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JV99" t="n">
+      <c r="JV99" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="JW99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JX99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JY99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -85452,8 +86343,17 @@
       <c r="JU100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JV100" t="n">
+      <c r="JV100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JW100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JY100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -86302,8 +87202,17 @@
       <c r="JU101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JV101" t="n">
+      <c r="JV101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JW101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JY101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -87152,8 +88061,17 @@
       <c r="JU102" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="JV102" t="n">
+      <c r="JV102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JW102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="JX102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="JY102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JY102"/>
+  <dimension ref="A1:KF102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HA23" activeCellId="0" sqref="HA23"/>
@@ -1311,7 +1311,28 @@
       <c r="JX1" s="1" t="n">
         <v>10800</v>
       </c>
-      <c r="JY1" t="n">
+      <c r="JY1" s="1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="KF1" t="n">
         <v>10800</v>
       </c>
     </row>
@@ -2170,7 +2191,28 @@
       <c r="JX2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="JY2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JZ2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KA2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KB2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KC2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KD2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KE2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KF2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3029,7 +3071,28 @@
       <c r="JX3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JY3" t="n">
+      <c r="JY3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3888,7 +3951,28 @@
       <c r="JX4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JY4" t="n">
+      <c r="JY4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4747,7 +4831,28 @@
       <c r="JX5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JY5" t="n">
+      <c r="JY5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,7 +5711,28 @@
       <c r="JX6" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="JY6" t="n">
+      <c r="JY6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JZ6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KA6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KB6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KC6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KD6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KE6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KF6" t="n">
         <v>79</v>
       </c>
     </row>
@@ -6465,7 +6591,28 @@
       <c r="JX7" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="JY7" t="n">
+      <c r="JY7" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="JZ7" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KA7" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KB7" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KC7" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KD7" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KE7" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KF7" t="n">
         <v>76</v>
       </c>
     </row>
@@ -7324,7 +7471,28 @@
       <c r="JX8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JY8" t="n">
+      <c r="JY8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8183,7 +8351,28 @@
       <c r="JX9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JY9" t="n">
+      <c r="JY9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9042,7 +9231,28 @@
       <c r="JX10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JY10" t="n">
+      <c r="JY10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KA10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KB10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KC10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KD10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KE10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KF10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -9901,7 +10111,28 @@
       <c r="JX11" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="JY11" t="n">
+      <c r="JY11" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="JZ11" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="KA11" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="KB11" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="KC11" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="KD11" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="KE11" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="KF11" t="n">
         <v>205</v>
       </c>
     </row>
@@ -10760,7 +10991,28 @@
       <c r="JX12" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="JY12" t="n">
+      <c r="JY12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="JZ12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="KA12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="KB12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="KC12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="KD12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="KE12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="KF12" t="n">
         <v>150</v>
       </c>
     </row>
@@ -11619,7 +11871,28 @@
       <c r="JX13" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="JY13" t="n">
+      <c r="JY13" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="JZ13" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="KA13" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="KB13" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="KC13" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="KD13" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="KE13" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="KF13" t="n">
         <v>355</v>
       </c>
     </row>
@@ -12478,7 +12751,28 @@
       <c r="JX14" s="1" t="n">
         <v>1.37</v>
       </c>
-      <c r="JY14" t="n">
+      <c r="JY14" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="JZ14" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="KA14" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="KB14" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="KC14" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="KD14" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="KE14" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="KF14" t="n">
         <v>1.37</v>
       </c>
     </row>
@@ -13337,7 +13631,28 @@
       <c r="JX15" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="JY15" t="n">
+      <c r="JY15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="JZ15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KA15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KB15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KC15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KD15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KE15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KF15" t="n">
         <v>79</v>
       </c>
     </row>
@@ -14196,7 +14511,28 @@
       <c r="JX16" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="JY16" t="n">
+      <c r="JY16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="JZ16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="KA16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="KB16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="KC16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="KD16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="KE16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="KF16" t="n">
         <v>75</v>
       </c>
     </row>
@@ -15055,7 +15391,28 @@
       <c r="JX17" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JY17" t="n">
+      <c r="JY17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JZ17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KA17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KB17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KC17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KD17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KE17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KF17" t="n">
         <v>45</v>
       </c>
     </row>
@@ -15914,7 +16271,28 @@
       <c r="JX18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JY18" t="n">
+      <c r="JY18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JZ18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KA18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KB18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KC18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KD18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KE18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KF18" t="n">
         <v>20</v>
       </c>
     </row>
@@ -16773,7 +17151,28 @@
       <c r="JX19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JY19" t="n">
+      <c r="JY19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JZ19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KA19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KB19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KC19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KD19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KE19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KF19" t="n">
         <v>19</v>
       </c>
     </row>
@@ -17632,7 +18031,28 @@
       <c r="JX20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JY20" t="n">
+      <c r="JY20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KE20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KF20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -18491,7 +18911,28 @@
       <c r="JX21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JY21" t="n">
+      <c r="JY21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF21" t="n">
         <v>8</v>
       </c>
     </row>
@@ -19350,7 +19791,28 @@
       <c r="JX22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JY22" t="n">
+      <c r="JY22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -20209,7 +20671,28 @@
       <c r="JX23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JY23" t="n">
+      <c r="JY23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF23" t="n">
         <v>5</v>
       </c>
     </row>
@@ -21068,7 +21551,28 @@
       <c r="JX24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JY24" t="n">
+      <c r="JY24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="JZ24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KA24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KB24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KC24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KD24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KE24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KF24" t="n">
         <v>24</v>
       </c>
     </row>
@@ -21927,7 +22431,28 @@
       <c r="JX25" s="1" t="n">
         <v>45.8</v>
       </c>
-      <c r="JY25" t="n">
+      <c r="JY25" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JZ25" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="KA25" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="KB25" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="KC25" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="KD25" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="KE25" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="KF25" t="n">
         <v>45.8</v>
       </c>
     </row>
@@ -22786,7 +23311,28 @@
       <c r="JX26" s="1" t="n">
         <v>32.27</v>
       </c>
-      <c r="JY26" t="n">
+      <c r="JY26" s="1" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="JZ26" s="1" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="KA26" s="1" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="KB26" s="1" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="KC26" s="1" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="KD26" s="1" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="KE26" s="1" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="KF26" t="n">
         <v>32.27</v>
       </c>
     </row>
@@ -23645,7 +24191,28 @@
       <c r="JX27" s="1" t="n">
         <v>14.79</v>
       </c>
-      <c r="JY27" t="n">
+      <c r="JY27" s="1" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="JZ27" s="1" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="KA27" s="1" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="KB27" s="1" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="KC27" s="1" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="KD27" s="1" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="KE27" s="1" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="KF27" t="n">
         <v>14.79</v>
       </c>
     </row>
@@ -24504,7 +25071,28 @@
       <c r="JX28" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JY28" t="n">
+      <c r="JY28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JZ28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KA28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KB28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KC28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KE28" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KF28" t="n">
         <v>47</v>
       </c>
     </row>
@@ -25363,7 +25951,28 @@
       <c r="JX29" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="JY29" t="n">
+      <c r="JY29" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="JZ29" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KA29" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KB29" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KC29" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KD29" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KE29" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KF29" t="n">
         <v>63</v>
       </c>
     </row>
@@ -26222,7 +26831,28 @@
       <c r="JX30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JY30" t="n">
+      <c r="JY30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JZ30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KA30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KB30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KC30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KD30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KE30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KF30" t="n">
         <v>34</v>
       </c>
     </row>
@@ -27081,7 +27711,28 @@
       <c r="JX31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="JY31" t="n">
+      <c r="JY31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="JZ31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="KA31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="KB31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="KC31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="KD31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="KE31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="KF31" t="n">
         <v>53</v>
       </c>
     </row>
@@ -27940,7 +28591,28 @@
       <c r="JX32" s="1" t="n">
         <v>2.21</v>
       </c>
-      <c r="JY32" t="n">
+      <c r="JY32" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="JZ32" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="KA32" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="KB32" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="KC32" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="KD32" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="KE32" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="KF32" t="n">
         <v>2.21</v>
       </c>
     </row>
@@ -28799,7 +29471,28 @@
       <c r="JX33" s="1" t="n">
         <v>4.82</v>
       </c>
-      <c r="JY33" t="n">
+      <c r="JY33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="JZ33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="KA33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="KB33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="KC33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="KD33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="KE33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="KF33" t="n">
         <v>4.82</v>
       </c>
     </row>
@@ -29658,7 +30351,28 @@
       <c r="JX34" s="1" t="n">
         <v>35.8</v>
       </c>
-      <c r="JY34" t="n">
+      <c r="JY34" s="1" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="JZ34" s="1" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="KA34" s="1" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="KB34" s="1" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="KC34" s="1" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="KD34" s="1" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="KE34" s="1" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="KF34" t="n">
         <v>35.8</v>
       </c>
     </row>
@@ -30517,7 +31231,28 @@
       <c r="JX35" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="JY35" t="n">
+      <c r="JY35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="JZ35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="KA35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="KB35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="KC35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="KD35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="KE35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="KF35" t="n">
         <v>20.8</v>
       </c>
     </row>
@@ -31376,7 +32111,28 @@
       <c r="JX36" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="JY36" t="n">
+      <c r="JY36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JZ36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KA36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KB36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KC36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KD36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KE36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KF36" t="n">
         <v>187.3</v>
       </c>
     </row>
@@ -32235,7 +32991,28 @@
       <c r="JX37" s="1" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="JY37" t="n">
+      <c r="JY37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="JZ37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="KA37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="KB37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="KC37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="KD37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="KE37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="KF37" t="n">
         <v>87.59999999999999</v>
       </c>
     </row>
@@ -33094,7 +33871,28 @@
       <c r="JX38" s="1" t="n">
         <v>24.74</v>
       </c>
-      <c r="JY38" t="n">
+      <c r="JY38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JZ38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="KA38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="KB38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="KC38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="KD38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="KE38" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="KF38" t="n">
         <v>24.74</v>
       </c>
     </row>
@@ -33953,7 +34751,28 @@
       <c r="JX39" s="1" t="n">
         <v>82.59999999999999</v>
       </c>
-      <c r="JY39" t="n">
+      <c r="JY39" s="1" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="JZ39" s="1" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="KA39" s="1" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="KB39" s="1" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="KC39" s="1" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="KD39" s="1" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="KE39" s="1" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="KF39" t="n">
         <v>82.59999999999999</v>
       </c>
     </row>
@@ -34812,7 +35631,28 @@
       <c r="JX40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JY40" t="n">
+      <c r="JY40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -35671,7 +36511,28 @@
       <c r="JX41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JY41" t="n">
+      <c r="JY41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KA41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KB41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KC41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KD41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KE41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KF41" t="n">
         <v>10</v>
       </c>
     </row>
@@ -36530,7 +37391,28 @@
       <c r="JX42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JY42" t="n">
+      <c r="JY42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37389,7 +38271,28 @@
       <c r="JX43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JY43" t="n">
+      <c r="JY43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38248,7 +39151,28 @@
       <c r="JX44" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="JY44" t="n">
+      <c r="JY44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="JZ44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="KA44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="KB44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="KC44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="KD44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="KE44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="KF44" t="n">
         <v>145</v>
       </c>
     </row>
@@ -39107,7 +40031,28 @@
       <c r="JX45" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="JY45" t="n">
+      <c r="JY45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="JZ45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="KA45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="KB45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="KC45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="KD45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="KE45" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="KF45" t="n">
         <v>206</v>
       </c>
     </row>
@@ -39966,7 +40911,28 @@
       <c r="JX46" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="JY46" t="n">
+      <c r="JY46" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="JZ46" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="KA46" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="KB46" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="KC46" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="KD46" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="KE46" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="KF46" t="n">
         <v>255</v>
       </c>
     </row>
@@ -40825,7 +41791,28 @@
       <c r="JX47" s="1" t="n">
         <v>71.8</v>
       </c>
-      <c r="JY47" t="n">
+      <c r="JY47" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="JZ47" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KA47" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KB47" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KC47" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KD47" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KE47" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KF47" t="n">
         <v>71.8</v>
       </c>
     </row>
@@ -41684,7 +42671,28 @@
       <c r="JX48" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="JY48" t="n">
+      <c r="JY48" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="JZ48" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KA48" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KB48" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KC48" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KD48" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KE48" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KF48" t="n">
         <v>63</v>
       </c>
     </row>
@@ -42543,7 +43551,28 @@
       <c r="JX49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JY49" t="n">
+      <c r="JY49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF49" t="n">
         <v>7</v>
       </c>
     </row>
@@ -43402,7 +44431,28 @@
       <c r="JX50" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JY50" t="n">
+      <c r="JY50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF50" t="n">
         <v>14</v>
       </c>
     </row>
@@ -44261,7 +45311,28 @@
       <c r="JX51" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JY51" t="n">
+      <c r="JY51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JZ51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KA51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KB51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KC51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KE51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KF51" t="n">
         <v>47</v>
       </c>
     </row>
@@ -45120,7 +46191,28 @@
       <c r="JX52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JY52" t="n">
+      <c r="JY52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JZ52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KA52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KB52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KC52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KD52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KE52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KF52" t="n">
         <v>34</v>
       </c>
     </row>
@@ -45979,7 +47071,28 @@
       <c r="JX53" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JY53" t="n">
+      <c r="JY53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JZ53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KA53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KB53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KC53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KD53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KE53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KF53" t="n">
         <v>43</v>
       </c>
     </row>
@@ -46838,7 +47951,28 @@
       <c r="JX54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JY54" t="n">
+      <c r="JY54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -47697,7 +48831,28 @@
       <c r="JX55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JY55" t="n">
+      <c r="JY55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -48556,7 +49711,28 @@
       <c r="JX56" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="JY56" t="n">
+      <c r="JY56" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JZ56" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="KA56" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="KB56" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="KC56" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="KD56" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="KE56" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="KF56" t="n">
         <v>72.7</v>
       </c>
     </row>
@@ -49415,7 +50591,28 @@
       <c r="JX57" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="JY57" t="n">
+      <c r="JY57" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="JZ57" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="KA57" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="KB57" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="KC57" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="KD57" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="KE57" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="KF57" t="n">
         <v>185</v>
       </c>
     </row>
@@ -50274,7 +51471,28 @@
       <c r="JX58" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="JY58" t="n">
+      <c r="JY58" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="JZ58" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="KA58" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="KB58" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="KC58" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="KD58" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="KE58" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="KF58" t="n">
         <v>167</v>
       </c>
     </row>
@@ -51133,7 +52351,28 @@
       <c r="JX59" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="JY59" t="n">
+      <c r="JY59" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="JZ59" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="KA59" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="KB59" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="KC59" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="KD59" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="KE59" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="KF59" t="n">
         <v>352</v>
       </c>
     </row>
@@ -51992,7 +53231,28 @@
       <c r="JX60" s="1" t="n">
         <v>1.11</v>
       </c>
-      <c r="JY60" t="n">
+      <c r="JY60" s="1" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="JZ60" s="1" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="KA60" s="1" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="KB60" s="1" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="KC60" s="1" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="KD60" s="1" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="KE60" s="1" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="KF60" t="n">
         <v>1.11</v>
       </c>
     </row>
@@ -52851,7 +54111,28 @@
       <c r="JX61" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="JY61" t="n">
+      <c r="JY61" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="JZ61" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="KA61" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="KB61" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="KC61" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="KD61" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="KE61" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="KF61" t="n">
         <v>78</v>
       </c>
     </row>
@@ -53710,7 +54991,28 @@
       <c r="JX62" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="JY62" t="n">
+      <c r="JY62" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="JZ62" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="KA62" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="KB62" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="KC62" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="KD62" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="KE62" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="KF62" t="n">
         <v>88</v>
       </c>
     </row>
@@ -54569,7 +55871,28 @@
       <c r="JX63" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JY63" t="n">
+      <c r="JY63" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JZ63" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="KA63" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="KB63" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="KC63" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="KD63" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="KE63" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="KF63" t="n">
         <v>52</v>
       </c>
     </row>
@@ -55428,7 +56751,28 @@
       <c r="JX64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JY64" t="n">
+      <c r="JY64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JZ64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KA64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KB64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KC64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KD64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KE64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KF64" t="n">
         <v>19</v>
       </c>
     </row>
@@ -56287,7 +57631,28 @@
       <c r="JX65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JY65" t="n">
+      <c r="JY65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JZ65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KA65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KB65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KC65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KD65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KE65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KF65" t="n">
         <v>20</v>
       </c>
     </row>
@@ -57146,7 +58511,28 @@
       <c r="JX66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JY66" t="n">
+      <c r="JY66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KE66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KF66" t="n">
         <v>11</v>
       </c>
     </row>
@@ -58005,7 +59391,28 @@
       <c r="JX67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JY67" t="n">
+      <c r="JY67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF67" t="n">
         <v>9</v>
       </c>
     </row>
@@ -58864,7 +60271,28 @@
       <c r="JX68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JY68" t="n">
+      <c r="JY68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF68" t="n">
         <v>9</v>
       </c>
     </row>
@@ -59723,7 +61151,28 @@
       <c r="JX69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JY69" t="n">
+      <c r="JY69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -60582,7 +62031,28 @@
       <c r="JX70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="JY70" t="n">
+      <c r="JY70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="JZ70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KA70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KB70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KC70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KD70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KE70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KF70" t="n">
         <v>21</v>
       </c>
     </row>
@@ -61441,7 +62911,28 @@
       <c r="JX71" s="1" t="n">
         <v>52.4</v>
       </c>
-      <c r="JY71" t="n">
+      <c r="JY71" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="JZ71" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="KA71" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="KB71" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="KC71" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="KD71" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="KE71" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="KF71" t="n">
         <v>52.4</v>
       </c>
     </row>
@@ -62300,7 +63791,28 @@
       <c r="JX72" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JY72" t="n">
+      <c r="JY72" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JZ72" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="KA72" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="KB72" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="KC72" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="KD72" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="KE72" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="KF72" t="n">
         <v>32</v>
       </c>
     </row>
@@ -63159,7 +64671,28 @@
       <c r="JX73" s="1" t="n">
         <v>16.76</v>
       </c>
-      <c r="JY73" t="n">
+      <c r="JY73" s="1" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="JZ73" s="1" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="KA73" s="1" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="KB73" s="1" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="KC73" s="1" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="KD73" s="1" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="KE73" s="1" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="KF73" t="n">
         <v>16.76</v>
       </c>
     </row>
@@ -64018,7 +65551,28 @@
       <c r="JX74" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="JY74" t="n">
+      <c r="JY74" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JZ74" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KA74" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KB74" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KC74" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KD74" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KE74" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KF74" t="n">
         <v>38</v>
       </c>
     </row>
@@ -64877,7 +66431,28 @@
       <c r="JX75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JY75" t="n">
+      <c r="JY75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JZ75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KA75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KB75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KC75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KD75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KE75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KF75" t="n">
         <v>54</v>
       </c>
     </row>
@@ -65736,7 +67311,28 @@
       <c r="JX76" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY76" t="n">
+      <c r="JY76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JZ76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KA76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KB76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KE76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KF76" t="n">
         <v>42</v>
       </c>
     </row>
@@ -66595,7 +68191,28 @@
       <c r="JX77" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JY77" t="n">
+      <c r="JY77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JZ77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KA77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KB77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KC77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KE77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KF77" t="n">
         <v>47</v>
       </c>
     </row>
@@ -67454,7 +69071,28 @@
       <c r="JX78" s="1" t="n">
         <v>2.24</v>
       </c>
-      <c r="JY78" t="n">
+      <c r="JY78" s="1" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="JZ78" s="1" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KA78" s="1" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KB78" s="1" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KC78" s="1" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KD78" s="1" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KE78" s="1" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KF78" t="n">
         <v>2.24</v>
       </c>
     </row>
@@ -68313,7 +69951,28 @@
       <c r="JX79" s="1" t="n">
         <v>4.27</v>
       </c>
-      <c r="JY79" t="n">
+      <c r="JY79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="JZ79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="KA79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="KB79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="KC79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="KD79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="KE79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="KF79" t="n">
         <v>4.27</v>
       </c>
     </row>
@@ -69172,7 +70831,28 @@
       <c r="JX80" s="1" t="n">
         <v>42.6</v>
       </c>
-      <c r="JY80" t="n">
+      <c r="JY80" s="1" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="JZ80" s="1" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="KA80" s="1" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="KB80" s="1" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="KC80" s="1" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="KD80" s="1" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="KE80" s="1" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="KF80" t="n">
         <v>42.6</v>
       </c>
     </row>
@@ -70031,7 +71711,28 @@
       <c r="JX81" s="1" t="n">
         <v>23.4</v>
       </c>
-      <c r="JY81" t="n">
+      <c r="JY81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="JZ81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="KA81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="KB81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="KC81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="KD81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="KE81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="KF81" t="n">
         <v>23.4</v>
       </c>
     </row>
@@ -70890,7 +72591,28 @@
       <c r="JX82" s="1" t="n">
         <v>187.7</v>
       </c>
-      <c r="JY82" t="n">
+      <c r="JY82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JZ82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="KA82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="KB82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="KC82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="KD82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="KE82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="KF82" t="n">
         <v>187.7</v>
       </c>
     </row>
@@ -71749,7 +73471,28 @@
       <c r="JX83" s="1" t="n">
         <v>85.3</v>
       </c>
-      <c r="JY83" t="n">
+      <c r="JY83" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="JZ83" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="KA83" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="KB83" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="KC83" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="KD83" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="KE83" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="KF83" t="n">
         <v>85.3</v>
       </c>
     </row>
@@ -72608,7 +74351,28 @@
       <c r="JX84" s="1" t="n">
         <v>24.58</v>
       </c>
-      <c r="JY84" t="n">
+      <c r="JY84" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="JZ84" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="KA84" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="KB84" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="KC84" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="KD84" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="KE84" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="KF84" t="n">
         <v>24.58</v>
       </c>
     </row>
@@ -73467,7 +75231,28 @@
       <c r="JX85" s="1" t="n">
         <v>74.2</v>
       </c>
-      <c r="JY85" t="n">
+      <c r="JY85" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="JZ85" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="KA85" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="KB85" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="KC85" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="KD85" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="KE85" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="KF85" t="n">
         <v>74.2</v>
       </c>
     </row>
@@ -74326,7 +76111,28 @@
       <c r="JX86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JY86" t="n">
+      <c r="JY86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KE86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KF86" t="n">
         <v>11</v>
       </c>
     </row>
@@ -75185,7 +76991,28 @@
       <c r="JX87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JY87" t="n">
+      <c r="JY87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -76044,7 +77871,28 @@
       <c r="JX88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JY88" t="n">
+      <c r="JY88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -76903,7 +78751,28 @@
       <c r="JX89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JY89" t="n">
+      <c r="JY89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -77762,7 +79631,28 @@
       <c r="JX90" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="JY90" t="n">
+      <c r="JY90" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="JZ90" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="KA90" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="KB90" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="KC90" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="KD90" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="KE90" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="KF90" t="n">
         <v>134</v>
       </c>
     </row>
@@ -78621,7 +80511,28 @@
       <c r="JX91" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="JY91" t="n">
+      <c r="JY91" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="JZ91" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="KA91" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="KB91" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="KC91" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="KD91" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="KE91" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="KF91" t="n">
         <v>212</v>
       </c>
     </row>
@@ -79480,7 +81391,28 @@
       <c r="JX92" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="JY92" t="n">
+      <c r="JY92" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="JZ92" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="KA92" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="KB92" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="KC92" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="KD92" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="KE92" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="KF92" t="n">
         <v>265</v>
       </c>
     </row>
@@ -80339,7 +82271,28 @@
       <c r="JX93" s="1" t="n">
         <v>75.3</v>
       </c>
-      <c r="JY93" t="n">
+      <c r="JY93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="JZ93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KA93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KB93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KC93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KD93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KE93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KF93" t="n">
         <v>75.3</v>
       </c>
     </row>
@@ -81198,7 +83151,28 @@
       <c r="JX94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JY94" t="n">
+      <c r="JY94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JZ94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KA94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KB94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KC94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KD94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KE94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KF94" t="n">
         <v>54</v>
       </c>
     </row>
@@ -82057,7 +84031,28 @@
       <c r="JX95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JY95" t="n">
+      <c r="JY95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF95" t="n">
         <v>8</v>
       </c>
     </row>
@@ -82916,7 +84911,28 @@
       <c r="JX96" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JY96" t="n">
+      <c r="JY96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF96" t="n">
         <v>7</v>
       </c>
     </row>
@@ -83775,7 +85791,28 @@
       <c r="JX97" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="JY97" t="n">
+      <c r="JY97" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="JZ97" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KA97" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KB97" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KC97" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KD97" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KE97" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KF97" t="n">
         <v>38</v>
       </c>
     </row>
@@ -84634,7 +86671,28 @@
       <c r="JX98" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY98" t="n">
+      <c r="JY98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JZ98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KA98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KB98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KE98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KF98" t="n">
         <v>42</v>
       </c>
     </row>
@@ -85493,7 +87551,28 @@
       <c r="JX99" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY99" t="n">
+      <c r="JY99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JZ99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KA99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KB99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KE99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KF99" t="n">
         <v>42</v>
       </c>
     </row>
@@ -86352,7 +88431,28 @@
       <c r="JX100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JY100" t="n">
+      <c r="JY100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE100" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF100" t="n">
         <v>6</v>
       </c>
     </row>
@@ -87211,7 +89311,28 @@
       <c r="JX101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JY101" t="n">
+      <c r="JY101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF101" t="n">
         <v>9</v>
       </c>
     </row>
@@ -88070,7 +90191,28 @@
       <c r="JX102" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="JY102" t="n">
+      <c r="JY102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="JZ102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="KA102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="KB102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="KC102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="KD102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="KE102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="KF102" t="n">
         <v>81.8</v>
       </c>
     </row>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KR102"/>
+  <dimension ref="A1:KS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KG88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KL88" activeCellId="0" sqref="KL88"/>
@@ -1372,8 +1372,11 @@
       <c r="KQ1" s="2" t="n">
         <v>10834</v>
       </c>
-      <c r="KR1" t="n">
+      <c r="KR1" s="2" t="n">
         <v>10849</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>10854</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2288,7 +2291,10 @@
       <c r="KQ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KR2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3204,8 +3210,11 @@
       <c r="KQ3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KR3" t="n">
+      <c r="KR3" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4120,8 +4129,11 @@
       <c r="KQ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR4" t="n">
+      <c r="KR4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5036,7 +5048,10 @@
       <c r="KQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR5" t="n">
+      <c r="KR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5952,8 +5967,11 @@
       <c r="KQ6" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KR6" t="n">
+      <c r="KR6" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6868,8 +6886,11 @@
       <c r="KQ7" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KR7" t="n">
+      <c r="KR7" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7784,8 +7805,11 @@
       <c r="KQ8" s="2" t="n">
         <v>-45</v>
       </c>
-      <c r="KR8" t="n">
+      <c r="KR8" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KS8" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8700,8 +8724,11 @@
       <c r="KQ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR9" t="n">
+      <c r="KR9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KS9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9616,8 +9643,11 @@
       <c r="KQ10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KR10" t="n">
+      <c r="KR10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10532,8 +10562,11 @@
       <c r="KQ11" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="KR11" t="n">
+      <c r="KR11" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11448,8 +11481,11 @@
       <c r="KQ12" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="KR12" t="n">
+      <c r="KR12" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="KS12" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12364,8 +12400,11 @@
       <c r="KQ13" s="2" t="n">
         <v>298</v>
       </c>
-      <c r="KR13" t="n">
+      <c r="KR13" s="2" t="n">
         <v>356</v>
+      </c>
+      <c r="KS13" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13280,8 +13319,11 @@
       <c r="KQ14" s="2" t="n">
         <v>1.87</v>
       </c>
-      <c r="KR14" t="n">
+      <c r="KR14" s="2" t="n">
         <v>1.52</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14196,8 +14238,11 @@
       <c r="KQ15" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KR15" t="n">
+      <c r="KR15" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15112,8 +15157,11 @@
       <c r="KQ16" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="KR16" t="n">
+      <c r="KR16" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16028,8 +16076,11 @@
       <c r="KQ17" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KR17" t="n">
+      <c r="KR17" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16944,8 +16995,11 @@
       <c r="KQ18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KR18" t="n">
+      <c r="KR18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KS18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17860,8 +17914,11 @@
       <c r="KQ19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KR19" t="n">
+      <c r="KR19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KS19" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18776,8 +18833,11 @@
       <c r="KQ20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR20" t="n">
+      <c r="KR20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KS20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19692,8 +19752,11 @@
       <c r="KQ21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR21" t="n">
+      <c r="KR21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KS21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20608,8 +20671,11 @@
       <c r="KQ22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KR22" t="n">
+      <c r="KR22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21524,8 +21590,11 @@
       <c r="KQ23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR23" t="n">
+      <c r="KR23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22440,8 +22509,11 @@
       <c r="KQ24" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KR24" t="n">
+      <c r="KR24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KS24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23356,8 +23428,11 @@
       <c r="KQ25" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="KR25" t="n">
+      <c r="KR25" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KS25" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24272,8 +24347,11 @@
       <c r="KQ26" s="2" t="n">
         <v>59.6</v>
       </c>
-      <c r="KR26" t="n">
+      <c r="KR26" s="2" t="n">
         <v>25.43</v>
+      </c>
+      <c r="KS26" t="n">
+        <v>25.38</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25188,8 +25266,11 @@
       <c r="KQ27" s="2" t="n">
         <v>19.87</v>
       </c>
-      <c r="KR27" t="n">
+      <c r="KR27" s="2" t="n">
         <v>14.24</v>
+      </c>
+      <c r="KS27" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26104,8 +26185,11 @@
       <c r="KQ28" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KR28" t="n">
+      <c r="KR28" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KS28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27020,7 +27104,10 @@
       <c r="KQ29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KR29" t="n">
+      <c r="KR29" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KS29" t="n">
         <v>68</v>
       </c>
     </row>
@@ -27936,8 +28023,11 @@
       <c r="KQ30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KR30" t="n">
+      <c r="KR30" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28852,8 +28942,11 @@
       <c r="KQ31" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KR31" t="n">
+      <c r="KR31" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KS31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29768,8 +29861,11 @@
       <c r="KQ32" s="2" t="n">
         <v>2.73</v>
       </c>
-      <c r="KR32" t="n">
+      <c r="KR32" s="2" t="n">
         <v>1.88</v>
+      </c>
+      <c r="KS32" t="n">
+        <v>2.64</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30684,8 +30780,11 @@
       <c r="KQ33" s="2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="KR33" t="n">
+      <c r="KR33" s="2" t="n">
         <v>3.36</v>
+      </c>
+      <c r="KS33" t="n">
+        <v>4.46</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31600,8 +31699,11 @@
       <c r="KQ34" s="2" t="n">
         <v>34.1</v>
       </c>
-      <c r="KR34" t="n">
+      <c r="KR34" s="2" t="n">
         <v>44.7</v>
+      </c>
+      <c r="KS34" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32516,8 +32618,11 @@
       <c r="KQ35" s="2" t="n">
         <v>12.2</v>
       </c>
-      <c r="KR35" t="n">
+      <c r="KR35" s="2" t="n">
         <v>29.8</v>
+      </c>
+      <c r="KS35" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33432,8 +33537,11 @@
       <c r="KQ36" s="2" t="n">
         <v>186.8</v>
       </c>
-      <c r="KR36" t="n">
+      <c r="KR36" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="KS36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34348,8 +34456,11 @@
       <c r="KQ37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KR37" t="n">
+      <c r="KR37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KS37" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35264,8 +35375,11 @@
       <c r="KQ38" s="2" t="n">
         <v>24.24</v>
       </c>
-      <c r="KR38" t="n">
+      <c r="KR38" s="2" t="n">
         <v>24.33</v>
+      </c>
+      <c r="KS38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36180,8 +36294,11 @@
       <c r="KQ39" s="2" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="KR39" t="n">
+      <c r="KR39" s="2" t="n">
         <v>76.59999999999999</v>
+      </c>
+      <c r="KS39" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37096,8 +37213,11 @@
       <c r="KQ40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KR40" t="n">
+      <c r="KR40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KS40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38012,7 +38132,10 @@
       <c r="KQ41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KR41" t="n">
+      <c r="KR41" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS41" t="n">
         <v>10</v>
       </c>
     </row>
@@ -38928,7 +39051,10 @@
       <c r="KQ42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR42" t="n">
+      <c r="KR42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39844,8 +39970,11 @@
       <c r="KQ43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR43" t="n">
+      <c r="KR43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KS43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40760,8 +40889,11 @@
       <c r="KQ44" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="KR44" t="n">
+      <c r="KR44" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41676,8 +41808,11 @@
       <c r="KQ45" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KR45" t="n">
+      <c r="KR45" s="2" t="n">
         <v>190</v>
+      </c>
+      <c r="KS45" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42592,8 +42727,11 @@
       <c r="KQ46" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="KR46" t="n">
+      <c r="KR46" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="KS46" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43508,8 +43646,11 @@
       <c r="KQ47" s="2" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="KR47" t="n">
+      <c r="KR47" s="2" t="n">
         <v>70.2</v>
+      </c>
+      <c r="KS47" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44424,7 +44565,10 @@
       <c r="KQ48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KR48" t="n">
+      <c r="KR48" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KS48" t="n">
         <v>68</v>
       </c>
     </row>
@@ -45340,8 +45484,11 @@
       <c r="KQ49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR49" t="n">
+      <c r="KR49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46256,8 +46403,11 @@
       <c r="KQ50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR50" t="n">
+      <c r="KR50" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KS50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47172,8 +47322,11 @@
       <c r="KQ51" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KR51" t="n">
+      <c r="KR51" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KS51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48088,8 +48241,11 @@
       <c r="KQ52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KR52" t="n">
+      <c r="KR52" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KS52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49004,8 +49160,11 @@
       <c r="KQ53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KR53" t="n">
+      <c r="KR53" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KS53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49920,8 +50079,11 @@
       <c r="KQ54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR54" t="n">
+      <c r="KR54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KS54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50836,8 +50998,11 @@
       <c r="KQ55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR55" t="n">
+      <c r="KR55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KS55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51752,8 +51917,11 @@
       <c r="KQ56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KR56" t="n">
+      <c r="KR56" s="2" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="KS56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52668,8 +52836,11 @@
       <c r="KQ57" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KR57" t="n">
+      <c r="KR57" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="KS57" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53584,8 +53755,11 @@
       <c r="KQ58" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="KR58" t="n">
+      <c r="KR58" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="KS58" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54500,8 +54674,11 @@
       <c r="KQ59" s="2" t="n">
         <v>399</v>
       </c>
-      <c r="KR59" t="n">
+      <c r="KR59" s="2" t="n">
         <v>317</v>
+      </c>
+      <c r="KS59" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55416,8 +55593,11 @@
       <c r="KQ60" s="2" t="n">
         <v>1.29</v>
       </c>
-      <c r="KR60" t="n">
+      <c r="KR60" s="2" t="n">
         <v>1.88</v>
+      </c>
+      <c r="KS60" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56332,8 +56512,11 @@
       <c r="KQ61" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KR61" t="n">
+      <c r="KR61" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KS61" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57248,8 +57431,11 @@
       <c r="KQ62" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KR62" t="n">
+      <c r="KR62" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KS62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58164,8 +58350,11 @@
       <c r="KQ63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KR63" t="n">
+      <c r="KR63" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KS63" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59080,8 +59269,11 @@
       <c r="KQ64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KR64" t="n">
+      <c r="KR64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KS64" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59996,8 +60188,11 @@
       <c r="KQ65" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KR65" t="n">
+      <c r="KR65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KS65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60912,8 +61107,11 @@
       <c r="KQ66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KR66" t="n">
+      <c r="KR66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KS66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61828,8 +62026,11 @@
       <c r="KQ67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR67" t="n">
+      <c r="KR67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KS67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62744,8 +62945,11 @@
       <c r="KQ68" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KR68" t="n">
+      <c r="KR68" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KS68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63660,7 +63864,10 @@
       <c r="KQ69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KR69" t="n">
+      <c r="KR69" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS69" t="n">
         <v>5</v>
       </c>
     </row>
@@ -64576,8 +64783,11 @@
       <c r="KQ70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KR70" t="n">
+      <c r="KR70" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KS70" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65492,8 +65702,11 @@
       <c r="KQ71" s="2" t="n">
         <v>36.7</v>
       </c>
-      <c r="KR71" t="n">
+      <c r="KR71" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="KS71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66408,8 +66621,11 @@
       <c r="KQ72" s="2" t="n">
         <v>36.27</v>
       </c>
-      <c r="KR72" t="n">
+      <c r="KR72" s="2" t="n">
         <v>31.7</v>
+      </c>
+      <c r="KS72" t="n">
+        <v>19.31</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67324,8 +67540,11 @@
       <c r="KQ73" s="2" t="n">
         <v>13.3</v>
       </c>
-      <c r="KR73" t="n">
+      <c r="KR73" s="2" t="n">
         <v>11.32</v>
+      </c>
+      <c r="KS73" t="n">
+        <v>9.66</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68240,8 +68459,11 @@
       <c r="KQ74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KR74" t="n">
+      <c r="KR74" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KS74" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69156,8 +69378,11 @@
       <c r="KQ75" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KR75" t="n">
+      <c r="KR75" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KS75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70072,8 +70297,11 @@
       <c r="KQ76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KR76" t="n">
+      <c r="KR76" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KS76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70988,8 +71216,11 @@
       <c r="KQ77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KR77" t="n">
+      <c r="KR77" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KS77" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71904,8 +72135,11 @@
       <c r="KQ78" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="KR78" t="n">
+      <c r="KR78" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="KS78" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72820,8 +73054,11 @@
       <c r="KQ79" s="2" t="n">
         <v>4.91</v>
       </c>
-      <c r="KR79" t="n">
+      <c r="KR79" s="2" t="n">
         <v>6.6</v>
+      </c>
+      <c r="KS79" t="n">
+        <v>3.81</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73736,8 +73973,11 @@
       <c r="KQ80" s="2" t="n">
         <v>51.9</v>
       </c>
-      <c r="KR80" t="n">
+      <c r="KR80" s="2" t="n">
         <v>34.8</v>
+      </c>
+      <c r="KS80" t="n">
+        <v>44.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74652,8 +74892,11 @@
       <c r="KQ81" s="2" t="n">
         <v>20.4</v>
       </c>
-      <c r="KR81" t="n">
+      <c r="KR81" s="2" t="n">
         <v>15.2</v>
+      </c>
+      <c r="KS81" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75568,8 +75811,11 @@
       <c r="KQ82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KR82" t="n">
+      <c r="KR82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KS82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76484,8 +76730,11 @@
       <c r="KQ83" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KR83" t="n">
+      <c r="KR83" s="2" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="KS83" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77400,8 +77649,11 @@
       <c r="KQ84" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KR84" t="n">
+      <c r="KR84" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KS84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78316,8 +78568,11 @@
       <c r="KQ85" s="2" t="n">
         <v>106.4</v>
       </c>
-      <c r="KR85" t="n">
+      <c r="KR85" s="2" t="n">
         <v>132.6</v>
+      </c>
+      <c r="KS85" t="n">
+        <v>78.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79232,8 +79487,11 @@
       <c r="KQ86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KR86" t="n">
+      <c r="KR86" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KS86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80148,8 +80406,11 @@
       <c r="KQ87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR87" t="n">
+      <c r="KR87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81064,8 +81325,11 @@
       <c r="KQ88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR88" t="n">
+      <c r="KR88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81980,8 +82244,11 @@
       <c r="KQ89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR89" t="n">
+      <c r="KR89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KS89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82896,8 +83163,11 @@
       <c r="KQ90" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="KR90" t="n">
+      <c r="KR90" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="KS90" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83812,8 +84082,11 @@
       <c r="KQ91" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="KR91" t="n">
+      <c r="KR91" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="KS91" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84728,8 +85001,11 @@
       <c r="KQ92" s="2" t="n">
         <v>277</v>
       </c>
-      <c r="KR92" t="n">
+      <c r="KR92" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="KS92" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85644,8 +85920,11 @@
       <c r="KQ93" s="2" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="KR93" t="n">
+      <c r="KR93" s="2" t="n">
         <v>63.1</v>
+      </c>
+      <c r="KS93" t="n">
+        <v>60.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -86560,8 +86839,11 @@
       <c r="KQ94" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KR94" t="n">
+      <c r="KR94" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KS94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -87476,8 +87758,11 @@
       <c r="KQ95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR95" t="n">
+      <c r="KR95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88392,8 +88677,11 @@
       <c r="KQ96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KR96" t="n">
+      <c r="KR96" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89308,8 +89596,11 @@
       <c r="KQ97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KR97" t="n">
+      <c r="KR97" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KS97" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -90224,8 +90515,11 @@
       <c r="KQ98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KR98" t="n">
+      <c r="KR98" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KS98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91140,8 +91434,11 @@
       <c r="KQ99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KR99" t="n">
+      <c r="KR99" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KS99" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92056,8 +92353,11 @@
       <c r="KQ100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR100" t="n">
+      <c r="KR100" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KS100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92972,8 +93272,11 @@
       <c r="KQ101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR101" t="n">
+      <c r="KR101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KS101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93888,8 +94191,11 @@
       <c r="KQ102" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="KR102" t="n">
+      <c r="KR102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KS102" t="n">
+        <v>43.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KS102"/>
+  <dimension ref="A1:KT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KG88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KL88" activeCellId="0" sqref="KL88"/>
@@ -1375,8 +1375,11 @@
       <c r="KR1" s="2" t="n">
         <v>10849</v>
       </c>
-      <c r="KS1" t="n">
+      <c r="KS1" s="2" t="n">
         <v>10854</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>10860</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2294,7 +2297,10 @@
       <c r="KR2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KS2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KT2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3213,8 +3219,11 @@
       <c r="KR3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS3" t="n">
+      <c r="KS3" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4132,8 +4141,11 @@
       <c r="KR4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS4" t="n">
+      <c r="KS4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5051,7 +5063,10 @@
       <c r="KR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS5" t="n">
+      <c r="KS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5970,8 +5985,11 @@
       <c r="KR6" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="KS6" t="n">
+      <c r="KS6" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6889,8 +6907,11 @@
       <c r="KR7" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KS7" t="n">
+      <c r="KS7" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="KT7" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7808,8 +7829,11 @@
       <c r="KR8" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KS8" t="n">
+      <c r="KS8" s="2" t="n">
         <v>-25</v>
+      </c>
+      <c r="KT8" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8727,8 +8751,11 @@
       <c r="KR9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS9" t="n">
+      <c r="KS9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KT9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9646,8 +9673,11 @@
       <c r="KR10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS10" t="n">
+      <c r="KS10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10565,8 +10595,11 @@
       <c r="KR11" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KS11" t="n">
+      <c r="KS11" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="KT11" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11484,8 +11517,11 @@
       <c r="KR12" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="KS12" t="n">
+      <c r="KS12" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="KT12" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12403,8 +12439,11 @@
       <c r="KR13" s="2" t="n">
         <v>356</v>
       </c>
-      <c r="KS13" t="n">
+      <c r="KS13" s="2" t="n">
         <v>330</v>
+      </c>
+      <c r="KT13" t="n">
+        <v>424</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13322,8 +13361,11 @@
       <c r="KR14" s="2" t="n">
         <v>1.52</v>
       </c>
-      <c r="KS14" t="n">
+      <c r="KS14" s="2" t="n">
         <v>1.7</v>
+      </c>
+      <c r="KT14" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14241,8 +14283,11 @@
       <c r="KR15" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KS15" t="n">
+      <c r="KS15" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KT15" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15160,8 +15205,11 @@
       <c r="KR16" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KS16" t="n">
+      <c r="KS16" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="KT16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16079,8 +16127,11 @@
       <c r="KR17" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KS17" t="n">
+      <c r="KS17" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KT17" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16998,8 +17049,11 @@
       <c r="KR18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KS18" t="n">
+      <c r="KS18" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KT18" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17917,8 +17971,11 @@
       <c r="KR19" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KS19" t="n">
+      <c r="KS19" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KT19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18836,8 +18893,11 @@
       <c r="KR20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS20" t="n">
+      <c r="KS20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KT20" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19755,8 +19815,11 @@
       <c r="KR21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS21" t="n">
+      <c r="KS21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT21" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20674,8 +20737,11 @@
       <c r="KR22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS22" t="n">
+      <c r="KS22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21593,8 +21659,11 @@
       <c r="KR23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS23" t="n">
+      <c r="KS23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22512,8 +22581,11 @@
       <c r="KR24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KS24" t="n">
+      <c r="KS24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KT24" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23431,8 +23503,11 @@
       <c r="KR25" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KS25" t="n">
+      <c r="KS25" s="2" t="n">
         <v>59.1</v>
+      </c>
+      <c r="KT25" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24350,8 +24425,11 @@
       <c r="KR26" s="2" t="n">
         <v>25.43</v>
       </c>
-      <c r="KS26" t="n">
+      <c r="KS26" s="2" t="n">
         <v>25.38</v>
+      </c>
+      <c r="KT26" t="n">
+        <v>15.7</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25269,8 +25347,11 @@
       <c r="KR27" s="2" t="n">
         <v>14.24</v>
       </c>
-      <c r="KS27" t="n">
+      <c r="KS27" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT27" t="n">
+        <v>10.87</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26188,8 +26269,11 @@
       <c r="KR28" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KS28" t="n">
+      <c r="KS28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KT28" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27107,8 +27191,11 @@
       <c r="KR29" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KS29" t="n">
+      <c r="KS29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KT29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28026,8 +28113,11 @@
       <c r="KR30" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KS30" t="n">
+      <c r="KS30" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KT30" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28945,8 +29035,11 @@
       <c r="KR31" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KS31" t="n">
+      <c r="KS31" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KT31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29864,8 +29957,11 @@
       <c r="KR32" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="KS32" t="n">
+      <c r="KS32" s="2" t="n">
         <v>2.64</v>
+      </c>
+      <c r="KT32" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30783,8 +30879,11 @@
       <c r="KR33" s="2" t="n">
         <v>3.36</v>
       </c>
-      <c r="KS33" t="n">
+      <c r="KS33" s="2" t="n">
         <v>4.46</v>
+      </c>
+      <c r="KT33" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31702,8 +31801,11 @@
       <c r="KR34" s="2" t="n">
         <v>44.7</v>
       </c>
-      <c r="KS34" t="n">
+      <c r="KS34" s="2" t="n">
         <v>36.2</v>
+      </c>
+      <c r="KT34" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32621,8 +32723,11 @@
       <c r="KR35" s="2" t="n">
         <v>29.8</v>
       </c>
-      <c r="KS35" t="n">
+      <c r="KS35" s="2" t="n">
         <v>22.4</v>
+      </c>
+      <c r="KT35" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33540,8 +33645,11 @@
       <c r="KR36" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="KS36" t="n">
+      <c r="KS36" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="KT36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34459,8 +34567,11 @@
       <c r="KR37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KS37" t="n">
+      <c r="KS37" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="KT37" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35378,8 +35489,11 @@
       <c r="KR38" s="2" t="n">
         <v>24.33</v>
       </c>
-      <c r="KS38" t="n">
+      <c r="KS38" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KT38" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36297,8 +36411,11 @@
       <c r="KR39" s="2" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="KS39" t="n">
+      <c r="KS39" s="2" t="n">
         <v>88.2</v>
+      </c>
+      <c r="KT39" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37216,7 +37333,10 @@
       <c r="KR40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS40" t="n">
+      <c r="KS40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -38135,7 +38255,10 @@
       <c r="KR41" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS41" t="n">
+      <c r="KS41" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KT41" t="n">
         <v>10</v>
       </c>
     </row>
@@ -39054,7 +39177,10 @@
       <c r="KR42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS42" t="n">
+      <c r="KS42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39973,7 +40099,10 @@
       <c r="KR43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS43" t="n">
+      <c r="KS43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40892,8 +41021,11 @@
       <c r="KR44" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="KS44" t="n">
+      <c r="KS44" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="KT44" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41811,8 +41943,11 @@
       <c r="KR45" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="KS45" t="n">
+      <c r="KS45" s="2" t="n">
         <v>163</v>
+      </c>
+      <c r="KT45" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42730,8 +42865,11 @@
       <c r="KR46" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="KS46" t="n">
+      <c r="KS46" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="KT46" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43649,8 +43787,11 @@
       <c r="KR47" s="2" t="n">
         <v>70.2</v>
       </c>
-      <c r="KS47" t="n">
+      <c r="KS47" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KT47" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44568,8 +44709,11 @@
       <c r="KR48" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KS48" t="n">
+      <c r="KS48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KT48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45487,8 +45631,11 @@
       <c r="KR49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS49" t="n">
+      <c r="KS49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT49" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46406,8 +46553,11 @@
       <c r="KR50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KS50" t="n">
+      <c r="KS50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47325,8 +47475,11 @@
       <c r="KR51" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KS51" t="n">
+      <c r="KS51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KT51" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48244,8 +48397,11 @@
       <c r="KR52" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KS52" t="n">
+      <c r="KS52" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KT52" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49163,8 +49319,11 @@
       <c r="KR53" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KS53" t="n">
+      <c r="KS53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KT53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50082,8 +50241,11 @@
       <c r="KR54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS54" t="n">
+      <c r="KS54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KT54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51001,8 +51163,11 @@
       <c r="KR55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS55" t="n">
+      <c r="KS55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT55" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51920,8 +52085,11 @@
       <c r="KR56" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="KS56" t="n">
+      <c r="KS56" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KT56" t="n">
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52839,8 +53007,11 @@
       <c r="KR57" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="KS57" t="n">
+      <c r="KS57" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="KT57" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53758,8 +53929,11 @@
       <c r="KR58" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KS58" t="n">
+      <c r="KS58" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KT58" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54677,8 +54851,11 @@
       <c r="KR59" s="2" t="n">
         <v>317</v>
       </c>
-      <c r="KS59" t="n">
+      <c r="KS59" s="2" t="n">
         <v>309</v>
+      </c>
+      <c r="KT59" t="n">
+        <v>323</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55596,8 +55773,11 @@
       <c r="KR60" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="KS60" t="n">
+      <c r="KS60" s="2" t="n">
         <v>2.43</v>
+      </c>
+      <c r="KT60" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56515,8 +56695,11 @@
       <c r="KR61" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KS61" t="n">
+      <c r="KS61" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KT61" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57434,8 +57617,11 @@
       <c r="KR62" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KS62" t="n">
+      <c r="KS62" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KT62" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58353,8 +58539,11 @@
       <c r="KR63" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KS63" t="n">
+      <c r="KS63" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KT63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59272,8 +59461,11 @@
       <c r="KR64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KS64" t="n">
+      <c r="KS64" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KT64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60191,8 +60383,11 @@
       <c r="KR65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KS65" t="n">
+      <c r="KS65" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KT65" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61110,8 +61305,11 @@
       <c r="KR66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS66" t="n">
+      <c r="KS66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KT66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62029,8 +62227,11 @@
       <c r="KR67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS67" t="n">
+      <c r="KS67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62948,8 +63149,11 @@
       <c r="KR68" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KS68" t="n">
+      <c r="KS68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KT68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63867,8 +64071,11 @@
       <c r="KR69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS69" t="n">
+      <c r="KS69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64786,8 +64993,11 @@
       <c r="KR70" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KS70" t="n">
+      <c r="KS70" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KT70" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65705,8 +65915,11 @@
       <c r="KR71" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="KS71" t="n">
+      <c r="KS71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KT71" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66624,8 +66837,11 @@
       <c r="KR72" s="2" t="n">
         <v>31.7</v>
       </c>
-      <c r="KS72" t="n">
+      <c r="KS72" s="2" t="n">
         <v>19.31</v>
+      </c>
+      <c r="KT72" t="n">
+        <v>40.38</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67543,8 +67759,11 @@
       <c r="KR73" s="2" t="n">
         <v>11.32</v>
       </c>
-      <c r="KS73" t="n">
+      <c r="KS73" s="2" t="n">
         <v>9.66</v>
+      </c>
+      <c r="KT73" t="n">
+        <v>26.92</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68462,8 +68681,11 @@
       <c r="KR74" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KS74" t="n">
+      <c r="KS74" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KT74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69381,8 +69603,11 @@
       <c r="KR75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KS75" t="n">
+      <c r="KS75" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KT75" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70300,8 +70525,11 @@
       <c r="KR76" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KS76" t="n">
+      <c r="KS76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KT76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71219,8 +71447,11 @@
       <c r="KR77" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="KS77" t="n">
+      <c r="KS77" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KT77" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72138,8 +72369,11 @@
       <c r="KR78" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="KS78" t="n">
+      <c r="KS78" s="2" t="n">
         <v>1.91</v>
+      </c>
+      <c r="KT78" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73057,8 +73291,11 @@
       <c r="KR79" s="2" t="n">
         <v>6.6</v>
       </c>
-      <c r="KS79" t="n">
+      <c r="KS79" s="2" t="n">
         <v>3.81</v>
+      </c>
+      <c r="KT79" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73976,8 +74213,11 @@
       <c r="KR80" s="2" t="n">
         <v>34.8</v>
       </c>
-      <c r="KS80" t="n">
+      <c r="KS80" s="2" t="n">
         <v>44.3</v>
+      </c>
+      <c r="KT80" t="n">
+        <v>32.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74895,8 +75135,11 @@
       <c r="KR81" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="KS81" t="n">
+      <c r="KS81" s="2" t="n">
         <v>26.2</v>
+      </c>
+      <c r="KT81" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75814,8 +76057,11 @@
       <c r="KR82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KS82" t="n">
+      <c r="KS82" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KT82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76733,8 +76979,11 @@
       <c r="KR83" s="2" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="KS83" t="n">
+      <c r="KS83" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="KT83" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77652,8 +77901,11 @@
       <c r="KR84" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KS84" t="n">
+      <c r="KS84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KT84" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78571,8 +78823,11 @@
       <c r="KR85" s="2" t="n">
         <v>132.6</v>
       </c>
-      <c r="KS85" t="n">
+      <c r="KS85" s="2" t="n">
         <v>78.8</v>
+      </c>
+      <c r="KT85" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79490,8 +79745,11 @@
       <c r="KR86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS86" t="n">
+      <c r="KS86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80409,8 +80667,11 @@
       <c r="KR87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS87" t="n">
+      <c r="KS87" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81328,7 +81589,10 @@
       <c r="KR88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS88" t="n">
+      <c r="KS88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -82247,8 +82511,11 @@
       <c r="KR89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS89" t="n">
+      <c r="KS89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83166,8 +83433,11 @@
       <c r="KR90" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="KS90" t="n">
+      <c r="KS90" s="2" t="n">
         <v>174</v>
+      </c>
+      <c r="KT90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84085,8 +84355,11 @@
       <c r="KR91" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="KS91" t="n">
+      <c r="KS91" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="KT91" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85004,8 +85277,11 @@
       <c r="KR92" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="KS92" t="n">
+      <c r="KS92" s="2" t="n">
         <v>186</v>
+      </c>
+      <c r="KT92" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85923,8 +86199,11 @@
       <c r="KR93" s="2" t="n">
         <v>63.1</v>
       </c>
-      <c r="KS93" t="n">
+      <c r="KS93" s="2" t="n">
         <v>60.2</v>
+      </c>
+      <c r="KT93" t="n">
+        <v>71.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -86842,8 +87121,11 @@
       <c r="KR94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KS94" t="n">
+      <c r="KS94" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KT94" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -87761,8 +88043,11 @@
       <c r="KR95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS95" t="n">
+      <c r="KS95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KT95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88680,8 +88965,11 @@
       <c r="KR96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS96" t="n">
+      <c r="KS96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89599,8 +89887,11 @@
       <c r="KR97" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KS97" t="n">
+      <c r="KS97" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KT97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -90518,8 +90809,11 @@
       <c r="KR98" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KS98" t="n">
+      <c r="KS98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KT98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91437,8 +91731,11 @@
       <c r="KR99" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KS99" t="n">
+      <c r="KS99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KT99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92356,7 +92653,10 @@
       <c r="KR100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS100" t="n">
+      <c r="KS100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -93275,8 +93575,11 @@
       <c r="KR101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS101" t="n">
+      <c r="KS101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -94194,8 +94497,11 @@
       <c r="KR102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KS102" t="n">
+      <c r="KS102" s="2" t="n">
         <v>43.8</v>
+      </c>
+      <c r="KT102" t="n">
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KU102"/>
+  <dimension ref="A1:KV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KG88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KL88" activeCellId="0" sqref="KL88"/>
@@ -1381,8 +1381,11 @@
       <c r="KT1" s="2" t="n">
         <v>10860</v>
       </c>
-      <c r="KU1" t="n">
+      <c r="KU1" s="2" t="n">
         <v>10875</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>10883</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2306,7 +2309,10 @@
       <c r="KT2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KU2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3231,8 +3237,11 @@
       <c r="KT3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KU3" t="n">
+      <c r="KU3" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4156,8 +4165,11 @@
       <c r="KT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU4" t="n">
+      <c r="KU4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5081,7 +5093,10 @@
       <c r="KT5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU5" t="n">
+      <c r="KU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6006,8 +6021,11 @@
       <c r="KT6" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="KU6" t="n">
+      <c r="KU6" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6931,8 +6949,11 @@
       <c r="KT7" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KU7" t="n">
+      <c r="KU7" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="KV7" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7856,8 +7877,11 @@
       <c r="KT8" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="KU8" t="n">
+      <c r="KU8" s="2" t="n">
         <v>-2</v>
+      </c>
+      <c r="KV8" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8781,8 +8805,11 @@
       <c r="KT9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU9" t="n">
+      <c r="KU9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KV9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9706,8 +9733,11 @@
       <c r="KT10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KU10" t="n">
+      <c r="KU10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KV10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10631,8 +10661,11 @@
       <c r="KT11" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KU11" t="n">
+      <c r="KU11" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="KV11" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11556,8 +11589,11 @@
       <c r="KT12" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="KU12" t="n">
+      <c r="KU12" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="KV12" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12481,8 +12517,11 @@
       <c r="KT13" s="2" t="n">
         <v>424</v>
       </c>
-      <c r="KU13" t="n">
+      <c r="KU13" s="2" t="n">
         <v>366</v>
+      </c>
+      <c r="KV13" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13406,8 +13445,11 @@
       <c r="KT14" s="2" t="n">
         <v>1.33</v>
       </c>
-      <c r="KU14" t="n">
+      <c r="KU14" s="2" t="n">
         <v>1.33</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14331,8 +14373,11 @@
       <c r="KT15" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="KU15" t="n">
+      <c r="KU15" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KV15" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15256,8 +15301,11 @@
       <c r="KT16" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KU16" t="n">
+      <c r="KU16" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KV16" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16181,8 +16229,11 @@
       <c r="KT17" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KU17" t="n">
+      <c r="KU17" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KV17" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17106,8 +17157,11 @@
       <c r="KT18" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KU18" t="n">
+      <c r="KU18" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KV18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18031,8 +18085,11 @@
       <c r="KT19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KU19" t="n">
+      <c r="KU19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KV19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18956,8 +19013,11 @@
       <c r="KT20" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KU20" t="n">
+      <c r="KU20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV20" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19881,8 +19941,11 @@
       <c r="KT21" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KU21" t="n">
+      <c r="KU21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV21" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20806,8 +20869,11 @@
       <c r="KT22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU22" t="n">
+      <c r="KU22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21731,8 +21797,11 @@
       <c r="KT23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU23" t="n">
+      <c r="KU23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KV23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22656,8 +22725,11 @@
       <c r="KT24" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KU24" t="n">
+      <c r="KU24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KV24" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23581,8 +23653,11 @@
       <c r="KT25" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="KU25" t="n">
+      <c r="KU25" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KV25" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24506,8 +24581,11 @@
       <c r="KT26" s="2" t="n">
         <v>15.7</v>
       </c>
-      <c r="KU26" t="n">
+      <c r="KU26" s="2" t="n">
         <v>33.27</v>
+      </c>
+      <c r="KV26" t="n">
+        <v>19.24</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25431,8 +25509,11 @@
       <c r="KT27" s="2" t="n">
         <v>10.87</v>
       </c>
-      <c r="KU27" t="n">
+      <c r="KU27" s="2" t="n">
         <v>14.64</v>
+      </c>
+      <c r="KV27" t="n">
+        <v>12.24</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26356,8 +26437,11 @@
       <c r="KT28" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KU28" t="n">
+      <c r="KU28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KV28" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27281,8 +27365,11 @@
       <c r="KT29" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KU29" t="n">
+      <c r="KU29" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KV29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28206,8 +28293,11 @@
       <c r="KT30" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KU30" t="n">
+      <c r="KU30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KV30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29131,8 +29221,11 @@
       <c r="KT31" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KU31" t="n">
+      <c r="KU31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KV31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30056,8 +30149,11 @@
       <c r="KT32" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="KU32" t="n">
+      <c r="KU32" s="2" t="n">
         <v>2.28</v>
+      </c>
+      <c r="KV32" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30981,8 +31077,11 @@
       <c r="KT33" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="KU33" t="n">
+      <c r="KU33" s="2" t="n">
         <v>5.18</v>
+      </c>
+      <c r="KV33" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31906,8 +32005,11 @@
       <c r="KT34" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KU34" t="n">
+      <c r="KU34" s="2" t="n">
         <v>36.8</v>
+      </c>
+      <c r="KV34" t="n">
+        <v>51.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32831,8 +32933,11 @@
       <c r="KT35" s="2" t="n">
         <v>41.5</v>
       </c>
-      <c r="KU35" t="n">
+      <c r="KU35" s="2" t="n">
         <v>19.3</v>
+      </c>
+      <c r="KV35" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33756,7 +33861,10 @@
       <c r="KT36" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="KU36" t="n">
+      <c r="KU36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="KV36" t="n">
         <v>187.6</v>
       </c>
     </row>
@@ -34681,7 +34789,10 @@
       <c r="KT37" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="KU37" t="n">
+      <c r="KU37" s="2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="KV37" t="n">
         <v>87.5</v>
       </c>
     </row>
@@ -35606,8 +35717,11 @@
       <c r="KT38" s="2" t="n">
         <v>24.74</v>
       </c>
-      <c r="KU38" t="n">
+      <c r="KU38" s="2" t="n">
         <v>24.74</v>
+      </c>
+      <c r="KV38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36531,8 +36645,11 @@
       <c r="KT39" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="KU39" t="n">
+      <c r="KU39" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="KV39" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37456,7 +37573,10 @@
       <c r="KT40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU40" t="n">
+      <c r="KU40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -38381,7 +38501,10 @@
       <c r="KT41" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU41" t="n">
+      <c r="KU41" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KV41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -39306,7 +39429,10 @@
       <c r="KT42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU42" t="n">
+      <c r="KU42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -40231,7 +40357,10 @@
       <c r="KT43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU43" t="n">
+      <c r="KU43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KV43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41156,8 +41285,11 @@
       <c r="KT44" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="KU44" t="n">
+      <c r="KU44" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KV44" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42081,8 +42213,11 @@
       <c r="KT45" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="KU45" t="n">
+      <c r="KU45" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="KV45" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43006,8 +43141,11 @@
       <c r="KT46" s="2" t="n">
         <v>326</v>
       </c>
-      <c r="KU46" t="n">
+      <c r="KU46" s="2" t="n">
         <v>268</v>
+      </c>
+      <c r="KV46" t="n">
+        <v>290</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43931,8 +44069,11 @@
       <c r="KT47" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="KU47" t="n">
+      <c r="KU47" s="2" t="n">
         <v>73.2</v>
+      </c>
+      <c r="KV47" t="n">
+        <v>71.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44856,8 +44997,11 @@
       <c r="KT48" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KU48" t="n">
+      <c r="KU48" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KV48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45781,8 +45925,11 @@
       <c r="KT49" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KU49" t="n">
+      <c r="KU49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46706,8 +46853,11 @@
       <c r="KT50" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KU50" t="n">
+      <c r="KU50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KV50" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47631,8 +47781,11 @@
       <c r="KT51" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KU51" t="n">
+      <c r="KU51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KV51" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48556,8 +48709,11 @@
       <c r="KT52" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KU52" t="n">
+      <c r="KU52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KV52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49481,8 +49637,11 @@
       <c r="KT53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU53" t="n">
+      <c r="KU53" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KV53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50406,8 +50565,11 @@
       <c r="KT54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU54" t="n">
+      <c r="KU54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KV54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51331,8 +51493,11 @@
       <c r="KT55" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KU55" t="n">
+      <c r="KU55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV55" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52256,8 +52421,11 @@
       <c r="KT56" s="2" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="KU56" t="n">
+      <c r="KU56" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="KV56" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53181,8 +53349,11 @@
       <c r="KT57" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="KU57" t="n">
+      <c r="KU57" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KV57" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54106,8 +54277,11 @@
       <c r="KT58" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="KU58" t="n">
+      <c r="KU58" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KV58" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55031,7 +55205,10 @@
       <c r="KT59" s="2" t="n">
         <v>323</v>
       </c>
-      <c r="KU59" t="n">
+      <c r="KU59" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="KV59" t="n">
         <v>369</v>
       </c>
     </row>
@@ -55956,8 +56133,11 @@
       <c r="KT60" s="2" t="n">
         <v>1.03</v>
       </c>
-      <c r="KU60" t="n">
+      <c r="KU60" s="2" t="n">
         <v>1.4</v>
+      </c>
+      <c r="KV60" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56881,8 +57061,11 @@
       <c r="KT61" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KU61" t="n">
+      <c r="KU61" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KV61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57806,8 +57989,11 @@
       <c r="KT62" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KU62" t="n">
+      <c r="KU62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KV62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58731,8 +58917,11 @@
       <c r="KT63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KU63" t="n">
+      <c r="KU63" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KV63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59656,8 +59845,11 @@
       <c r="KT64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KU64" t="n">
+      <c r="KU64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KV64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60581,8 +60773,11 @@
       <c r="KT65" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KU65" t="n">
+      <c r="KU65" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KV65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61506,8 +61701,11 @@
       <c r="KT66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU66" t="n">
+      <c r="KU66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KV66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62431,8 +62629,11 @@
       <c r="KT67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU67" t="n">
+      <c r="KU67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KV67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63356,8 +63557,11 @@
       <c r="KT68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU68" t="n">
+      <c r="KU68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64281,8 +64485,11 @@
       <c r="KT69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU69" t="n">
+      <c r="KU69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KV69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -65206,8 +65413,11 @@
       <c r="KT70" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU70" t="n">
+      <c r="KU70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KV70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66131,8 +66341,11 @@
       <c r="KT71" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KU71" t="n">
+      <c r="KU71" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="KV71" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67056,8 +67269,11 @@
       <c r="KT72" s="2" t="n">
         <v>40.38</v>
       </c>
-      <c r="KU72" t="n">
+      <c r="KU72" s="2" t="n">
         <v>30.75</v>
+      </c>
+      <c r="KV72" t="n">
+        <v>33.55</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67981,8 +68197,11 @@
       <c r="KT73" s="2" t="n">
         <v>26.92</v>
       </c>
-      <c r="KU73" t="n">
+      <c r="KU73" s="2" t="n">
         <v>16.77</v>
+      </c>
+      <c r="KV73" t="n">
+        <v>21.71</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68906,8 +69125,11 @@
       <c r="KT74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KU74" t="n">
+      <c r="KU74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KV74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69831,8 +70053,11 @@
       <c r="KT75" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KU75" t="n">
+      <c r="KU75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KV75" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70756,8 +70981,11 @@
       <c r="KT76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU76" t="n">
+      <c r="KU76" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KV76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71681,8 +71909,11 @@
       <c r="KT77" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KU77" t="n">
+      <c r="KU77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KV77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72606,8 +72837,11 @@
       <c r="KT78" s="2" t="n">
         <v>2.83</v>
       </c>
-      <c r="KU78" t="n">
+      <c r="KU78" s="2" t="n">
         <v>2.23</v>
+      </c>
+      <c r="KV78" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73531,8 +73765,11 @@
       <c r="KT79" s="2" t="n">
         <v>4.25</v>
       </c>
-      <c r="KU79" t="n">
+      <c r="KU79" s="2" t="n">
         <v>4.08</v>
+      </c>
+      <c r="KV79" t="n">
+        <v>4.27</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74456,8 +74693,11 @@
       <c r="KT80" s="2" t="n">
         <v>32.4</v>
       </c>
-      <c r="KU80" t="n">
+      <c r="KU80" s="2" t="n">
         <v>40.8</v>
+      </c>
+      <c r="KV80" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -75381,8 +75621,11 @@
       <c r="KT81" s="2" t="n">
         <v>23.5</v>
       </c>
-      <c r="KU81" t="n">
+      <c r="KU81" s="2" t="n">
         <v>24.5</v>
+      </c>
+      <c r="KV81" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76306,8 +76549,11 @@
       <c r="KT82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="KU82" t="n">
+      <c r="KU82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KV82" t="n">
+        <v>189.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77231,8 +77477,11 @@
       <c r="KT83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="KU83" t="n">
+      <c r="KU83" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KV83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78156,8 +78405,11 @@
       <c r="KT84" s="2" t="n">
         <v>24.49</v>
       </c>
-      <c r="KU84" t="n">
+      <c r="KU84" s="2" t="n">
         <v>27.16</v>
+      </c>
+      <c r="KV84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79081,8 +79333,11 @@
       <c r="KT85" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KU85" t="n">
+      <c r="KU85" s="2" t="n">
         <v>119.5</v>
+      </c>
+      <c r="KV85" t="n">
+        <v>99.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80006,8 +80261,11 @@
       <c r="KT86" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU86" t="n">
+      <c r="KU86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KV86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80931,7 +81189,10 @@
       <c r="KT87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU87" t="n">
+      <c r="KU87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -81856,8 +82117,11 @@
       <c r="KT88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU88" t="n">
+      <c r="KU88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KV88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -82781,8 +83045,11 @@
       <c r="KT89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KU89" t="n">
+      <c r="KU89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83706,8 +83973,11 @@
       <c r="KT90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KU90" t="n">
+      <c r="KU90" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KV90" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84631,8 +84901,11 @@
       <c r="KT91" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KU91" t="n">
+      <c r="KU91" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="KV91" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85556,8 +85829,11 @@
       <c r="KT92" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KU92" t="n">
+      <c r="KU92" s="2" t="n">
         <v>258</v>
+      </c>
+      <c r="KV92" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -86481,8 +86757,11 @@
       <c r="KT93" s="2" t="n">
         <v>71.2</v>
       </c>
-      <c r="KU93" t="n">
+      <c r="KU93" s="2" t="n">
         <v>69.90000000000001</v>
+      </c>
+      <c r="KV93" t="n">
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87406,8 +87685,11 @@
       <c r="KT94" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KU94" t="n">
+      <c r="KU94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KV94" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -88331,8 +88613,11 @@
       <c r="KT95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU95" t="n">
+      <c r="KU95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -89256,8 +89541,11 @@
       <c r="KT96" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU96" t="n">
+      <c r="KU96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -90181,8 +90469,11 @@
       <c r="KT97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KU97" t="n">
+      <c r="KU97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KV97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91106,8 +91397,11 @@
       <c r="KT98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU98" t="n">
+      <c r="KU98" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KV98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92031,8 +92325,11 @@
       <c r="KT99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KU99" t="n">
+      <c r="KU99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KV99" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92956,8 +93253,11 @@
       <c r="KT100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU100" t="n">
+      <c r="KU100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93881,8 +94181,11 @@
       <c r="KT101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU101" t="n">
+      <c r="KU101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KV101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -94806,8 +95109,11 @@
       <c r="KT102" s="2" t="n">
         <v>37.5</v>
       </c>
-      <c r="KU102" t="n">
+      <c r="KU102" s="2" t="n">
         <v>41.7</v>
+      </c>
+      <c r="KV102" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KX102"/>
+  <dimension ref="A1:KY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KG88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KL88" activeCellId="0" sqref="KL88"/>
@@ -1390,8 +1390,11 @@
       <c r="KW1" s="2" t="n">
         <v>10887</v>
       </c>
-      <c r="KX1" t="n">
+      <c r="KX1" s="2" t="n">
         <v>10902</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>10908</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2324,7 +2327,10 @@
       <c r="KW2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KX2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KY2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3258,8 +3264,11 @@
       <c r="KW3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KX3" t="n">
+      <c r="KX3" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4192,8 +4201,11 @@
       <c r="KW4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX4" t="n">
+      <c r="KX4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5126,8 +5138,11 @@
       <c r="KW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KX5" t="n">
+      <c r="KX5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KY5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -6060,8 +6075,11 @@
       <c r="KW6" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="KX6" t="n">
+      <c r="KX6" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6994,8 +7012,11 @@
       <c r="KW7" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="KX7" t="n">
+      <c r="KX7" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7928,8 +7949,11 @@
       <c r="KW8" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="KX8" t="n">
+      <c r="KX8" s="2" t="n">
         <v>-14</v>
+      </c>
+      <c r="KY8" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8862,7 +8886,10 @@
       <c r="KW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KX9" t="n">
+      <c r="KX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9796,8 +9823,11 @@
       <c r="KW10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX10" t="n">
+      <c r="KX10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10730,8 +10760,11 @@
       <c r="KW11" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="KX11" t="n">
+      <c r="KX11" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="KY11" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11664,8 +11697,11 @@
       <c r="KW12" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="KX12" t="n">
+      <c r="KX12" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KY12" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12598,8 +12634,11 @@
       <c r="KW13" s="2" t="n">
         <v>326</v>
       </c>
-      <c r="KX13" t="n">
+      <c r="KX13" s="2" t="n">
         <v>354</v>
+      </c>
+      <c r="KY13" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13532,8 +13571,11 @@
       <c r="KW14" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="KX14" t="n">
+      <c r="KX14" s="2" t="n">
         <v>1.38</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14466,8 +14508,11 @@
       <c r="KW15" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="KX15" t="n">
+      <c r="KX15" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KY15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15400,8 +15445,11 @@
       <c r="KW16" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KX16" t="n">
+      <c r="KX16" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16334,8 +16382,11 @@
       <c r="KW17" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KX17" t="n">
+      <c r="KX17" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KY17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17268,8 +17319,11 @@
       <c r="KW18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KX18" t="n">
+      <c r="KX18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KY18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18202,8 +18256,11 @@
       <c r="KW19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KX19" t="n">
+      <c r="KX19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KY19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19136,8 +19193,11 @@
       <c r="KW20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KX20" t="n">
+      <c r="KX20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20070,8 +20130,11 @@
       <c r="KW21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KX21" t="n">
+      <c r="KX21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21004,8 +21067,11 @@
       <c r="KW22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX22" t="n">
+      <c r="KX22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KY22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21938,8 +22004,11 @@
       <c r="KW23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX23" t="n">
+      <c r="KX23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KY23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22872,8 +22941,11 @@
       <c r="KW24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KX24" t="n">
+      <c r="KX24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KY24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23806,8 +23878,11 @@
       <c r="KW25" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="KX25" t="n">
+      <c r="KX25" s="2" t="n">
         <v>47.1</v>
+      </c>
+      <c r="KY25" t="n">
+        <v>46.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24740,8 +24815,11 @@
       <c r="KW26" s="2" t="n">
         <v>21.73</v>
       </c>
-      <c r="KX26" t="n">
+      <c r="KX26" s="2" t="n">
         <v>44.25</v>
+      </c>
+      <c r="KY26" t="n">
+        <v>26.08</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25674,8 +25752,11 @@
       <c r="KW27" s="2" t="n">
         <v>14.82</v>
       </c>
-      <c r="KX27" t="n">
+      <c r="KX27" s="2" t="n">
         <v>20.82</v>
+      </c>
+      <c r="KY27" t="n">
+        <v>12.11</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26608,8 +26689,11 @@
       <c r="KW28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KX28" t="n">
+      <c r="KX28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KY28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27542,8 +27626,11 @@
       <c r="KW29" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KX29" t="n">
+      <c r="KX29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KY29" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28476,8 +28563,11 @@
       <c r="KW30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KX30" t="n">
+      <c r="KX30" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KY30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29410,7 +29500,10 @@
       <c r="KW31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KX31" t="n">
+      <c r="KX31" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KY31" t="n">
         <v>54</v>
       </c>
     </row>
@@ -30344,8 +30437,11 @@
       <c r="KW32" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="KX32" t="n">
+      <c r="KX32" s="2" t="n">
         <v>3.18</v>
+      </c>
+      <c r="KY32" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31278,8 +31374,11 @@
       <c r="KW33" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="KX33" t="n">
+      <c r="KX33" s="2" t="n">
         <v>6.75</v>
+      </c>
+      <c r="KY33" t="n">
+        <v>4.15</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32212,8 +32311,11 @@
       <c r="KW34" s="2" t="n">
         <v>37.7</v>
       </c>
-      <c r="KX34" t="n">
+      <c r="KX34" s="2" t="n">
         <v>31.5</v>
+      </c>
+      <c r="KY34" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33146,8 +33248,11 @@
       <c r="KW35" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="KX35" t="n">
+      <c r="KX35" s="2" t="n">
         <v>14.8</v>
+      </c>
+      <c r="KY35" t="n">
+        <v>24.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34080,8 +34185,11 @@
       <c r="KW36" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="KX36" t="n">
+      <c r="KX36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="KY36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35014,8 +35122,11 @@
       <c r="KW37" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KX37" t="n">
+      <c r="KX37" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="KY37" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35948,7 +36059,10 @@
       <c r="KW38" s="2" t="n">
         <v>24.74</v>
       </c>
-      <c r="KX38" t="n">
+      <c r="KX38" s="2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="KY38" t="n">
         <v>25.16</v>
       </c>
     </row>
@@ -36882,8 +36996,11 @@
       <c r="KW39" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="KX39" t="n">
+      <c r="KX39" s="2" t="n">
         <v>90.40000000000001</v>
+      </c>
+      <c r="KY39" t="n">
+        <v>84.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37816,8 +37933,11 @@
       <c r="KW40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KX40" t="n">
+      <c r="KX40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38750,8 +38870,11 @@
       <c r="KW41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX41" t="n">
+      <c r="KX41" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KY41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39684,8 +39807,11 @@
       <c r="KW42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX42" t="n">
+      <c r="KX42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KY42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -40618,8 +40744,11 @@
       <c r="KW43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX43" t="n">
+      <c r="KX43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41552,8 +41681,11 @@
       <c r="KW44" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="KX44" t="n">
+      <c r="KX44" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="KY44" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42486,8 +42618,11 @@
       <c r="KW45" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="KX45" t="n">
+      <c r="KX45" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="KY45" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43420,8 +43555,11 @@
       <c r="KW46" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KX46" t="n">
+      <c r="KX46" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="KY46" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44354,8 +44492,11 @@
       <c r="KW47" s="2" t="n">
         <v>74.2</v>
       </c>
-      <c r="KX47" t="n">
+      <c r="KX47" s="2" t="n">
         <v>69.8</v>
+      </c>
+      <c r="KY47" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45288,8 +45429,11 @@
       <c r="KW48" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KX48" t="n">
+      <c r="KX48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KY48" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46222,8 +46366,11 @@
       <c r="KW49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KX49" t="n">
+      <c r="KX49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KY49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47156,8 +47303,11 @@
       <c r="KW50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KX50" t="n">
+      <c r="KX50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48090,8 +48240,11 @@
       <c r="KW51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KX51" t="n">
+      <c r="KX51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KY51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49024,8 +49177,11 @@
       <c r="KW52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KX52" t="n">
+      <c r="KX52" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KY52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49958,8 +50114,11 @@
       <c r="KW53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KX53" t="n">
+      <c r="KX53" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KY53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50892,8 +51051,11 @@
       <c r="KW54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX54" t="n">
+      <c r="KX54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KY54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51826,8 +51988,11 @@
       <c r="KW55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KX55" t="n">
+      <c r="KX55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52760,8 +52925,11 @@
       <c r="KW56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KX56" t="n">
+      <c r="KX56" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KY56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53694,8 +53862,11 @@
       <c r="KW57" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="KX57" t="n">
+      <c r="KX57" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KY57" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54628,8 +54799,11 @@
       <c r="KW58" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="KX58" t="n">
+      <c r="KX58" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="KY58" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55562,8 +55736,11 @@
       <c r="KW59" s="2" t="n">
         <v>425</v>
       </c>
-      <c r="KX59" t="n">
+      <c r="KX59" s="2" t="n">
         <v>358</v>
+      </c>
+      <c r="KY59" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56496,8 +56673,11 @@
       <c r="KW60" s="2" t="n">
         <v>1.16</v>
       </c>
-      <c r="KX60" t="n">
+      <c r="KX60" s="2" t="n">
         <v>1.56</v>
+      </c>
+      <c r="KY60" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57430,8 +57610,11 @@
       <c r="KW61" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="KX61" t="n">
+      <c r="KX61" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KY61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58364,8 +58547,11 @@
       <c r="KW62" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KX62" t="n">
+      <c r="KX62" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KY62" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59298,8 +59484,11 @@
       <c r="KW63" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KX63" t="n">
+      <c r="KX63" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KY63" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60232,8 +60421,11 @@
       <c r="KW64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KX64" t="n">
+      <c r="KX64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KY64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61166,8 +61358,11 @@
       <c r="KW65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KX65" t="n">
+      <c r="KX65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KY65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62100,8 +62295,11 @@
       <c r="KW66" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KX66" t="n">
+      <c r="KX66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KY66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63034,8 +63232,11 @@
       <c r="KW67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KX67" t="n">
+      <c r="KX67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63968,8 +64169,11 @@
       <c r="KW68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX68" t="n">
+      <c r="KX68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64902,8 +65106,11 @@
       <c r="KW69" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX69" t="n">
+      <c r="KX69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -65836,8 +66043,11 @@
       <c r="KW70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KX70" t="n">
+      <c r="KX70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KY70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66770,8 +66980,11 @@
       <c r="KW71" s="2" t="n">
         <v>56.7</v>
       </c>
-      <c r="KX71" t="n">
+      <c r="KX71" s="2" t="n">
         <v>47.6</v>
+      </c>
+      <c r="KY71" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67704,8 +67917,11 @@
       <c r="KW72" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KX72" t="n">
+      <c r="KX72" s="2" t="n">
         <v>35.8</v>
+      </c>
+      <c r="KY72" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68638,8 +68854,11 @@
       <c r="KW73" s="2" t="n">
         <v>14.17</v>
       </c>
-      <c r="KX73" t="n">
+      <c r="KX73" s="2" t="n">
         <v>17.05</v>
+      </c>
+      <c r="KY73" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69572,8 +69791,11 @@
       <c r="KW74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KX74" t="n">
+      <c r="KX74" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KY74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70506,8 +70728,11 @@
       <c r="KW75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KX75" t="n">
+      <c r="KX75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KY75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71440,8 +71665,11 @@
       <c r="KW76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KX76" t="n">
+      <c r="KX76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KY76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72374,8 +72602,11 @@
       <c r="KW77" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KX77" t="n">
+      <c r="KX77" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KY77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73308,8 +73539,11 @@
       <c r="KW78" s="2" t="n">
         <v>1.93</v>
       </c>
-      <c r="KX78" t="n">
+      <c r="KX78" s="2" t="n">
         <v>2.86</v>
+      </c>
+      <c r="KY78" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74242,8 +74476,11 @@
       <c r="KW79" s="2" t="n">
         <v>3.41</v>
       </c>
-      <c r="KX79" t="n">
+      <c r="KX79" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY79" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75176,8 +75413,11 @@
       <c r="KW80" s="2" t="n">
         <v>41.4</v>
       </c>
-      <c r="KX80" t="n">
+      <c r="KX80" s="2" t="n">
         <v>28.3</v>
+      </c>
+      <c r="KY80" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76110,8 +76350,11 @@
       <c r="KW81" s="2" t="n">
         <v>29.3</v>
       </c>
-      <c r="KX81" t="n">
+      <c r="KX81" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KY81" t="n">
+        <v>26.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77044,8 +77287,11 @@
       <c r="KW82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KX82" t="n">
+      <c r="KX82" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="KY82" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77978,8 +78224,11 @@
       <c r="KW83" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KX83" t="n">
+      <c r="KX83" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KY83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78912,8 +79161,11 @@
       <c r="KW84" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="KX84" t="n">
+      <c r="KX84" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="KY84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79846,8 +80098,11 @@
       <c r="KW85" s="2" t="n">
         <v>101.1</v>
       </c>
-      <c r="KX85" t="n">
+      <c r="KX85" s="2" t="n">
         <v>90.40000000000001</v>
+      </c>
+      <c r="KY85" t="n">
+        <v>116.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80780,8 +81035,11 @@
       <c r="KW86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX86" t="n">
+      <c r="KX86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KY86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -81714,8 +81972,11 @@
       <c r="KW87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KX87" t="n">
+      <c r="KX87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82648,8 +82909,11 @@
       <c r="KW88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX88" t="n">
+      <c r="KX88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KY88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -83582,8 +83846,11 @@
       <c r="KW89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX89" t="n">
+      <c r="KX89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY89" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -84516,8 +84783,11 @@
       <c r="KW90" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KX90" t="n">
+      <c r="KX90" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="KY90" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85450,8 +85720,11 @@
       <c r="KW91" s="2" t="n">
         <v>269</v>
       </c>
-      <c r="KX91" t="n">
+      <c r="KX91" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KY91" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86384,8 +86657,11 @@
       <c r="KW92" s="2" t="n">
         <v>314</v>
       </c>
-      <c r="KX92" t="n">
+      <c r="KX92" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="KY92" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87318,8 +87594,11 @@
       <c r="KW93" s="2" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="KX93" t="n">
+      <c r="KX93" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KY93" t="n">
+        <v>65.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -88252,8 +88531,11 @@
       <c r="KW94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KX94" t="n">
+      <c r="KX94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KY94" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -89186,8 +89468,11 @@
       <c r="KW95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KX95" t="n">
+      <c r="KX95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90120,8 +90405,11 @@
       <c r="KW96" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KX96" t="n">
+      <c r="KX96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KY96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91054,8 +91342,11 @@
       <c r="KW97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KX97" t="n">
+      <c r="KX97" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KY97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91988,8 +92279,11 @@
       <c r="KW98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KX98" t="n">
+      <c r="KX98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KY98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92922,8 +93216,11 @@
       <c r="KW99" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KX99" t="n">
+      <c r="KX99" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KY99" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -93856,8 +94153,11 @@
       <c r="KW100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX100" t="n">
+      <c r="KX100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -94790,8 +95090,11 @@
       <c r="KW101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KX101" t="n">
+      <c r="KX101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -95724,8 +96027,11 @@
       <c r="KW102" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="KX102" t="n">
+      <c r="KX102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KY102" t="n">
+        <v>92.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KY102"/>
+  <dimension ref="A1:KZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KG88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KL88" activeCellId="0" sqref="KL88"/>
@@ -1393,8 +1393,11 @@
       <c r="KX1" s="2" t="n">
         <v>10902</v>
       </c>
-      <c r="KY1" t="n">
+      <c r="KY1" s="2" t="n">
         <v>10908</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>10920</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2330,7 +2333,10 @@
       <c r="KX2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KY2" t="n">
+      <c r="KY2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KZ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3267,8 +3273,11 @@
       <c r="KX3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KY3" t="n">
+      <c r="KY3" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4204,8 +4213,11 @@
       <c r="KX4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY4" t="n">
+      <c r="KY4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5141,7 +5153,10 @@
       <c r="KX5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY5" t="n">
+      <c r="KY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6078,8 +6093,11 @@
       <c r="KX6" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KY6" t="n">
+      <c r="KY6" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="KZ6" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7015,8 +7033,11 @@
       <c r="KX7" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KY7" t="n">
+      <c r="KY7" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="KZ7" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7952,8 +7973,11 @@
       <c r="KX8" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="KY8" t="n">
+      <c r="KY8" s="2" t="n">
         <v>-4</v>
+      </c>
+      <c r="KZ8" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8889,8 +8913,11 @@
       <c r="KX9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY9" t="n">
+      <c r="KY9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KZ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9826,8 +9853,11 @@
       <c r="KX10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KY10" t="n">
+      <c r="KY10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10763,8 +10793,11 @@
       <c r="KX11" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="KY11" t="n">
+      <c r="KY11" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="KZ11" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11700,8 +11733,11 @@
       <c r="KX12" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="KY12" t="n">
+      <c r="KY12" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KZ12" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12637,8 +12673,11 @@
       <c r="KX13" s="2" t="n">
         <v>354</v>
       </c>
-      <c r="KY13" t="n">
+      <c r="KY13" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="KZ13" t="n">
+        <v>387</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13574,8 +13613,11 @@
       <c r="KX14" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="KY14" t="n">
+      <c r="KY14" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="KZ14" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14511,8 +14553,11 @@
       <c r="KX15" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KY15" t="n">
+      <c r="KY15" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="KZ15" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15448,7 +15493,10 @@
       <c r="KX16" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="KY16" t="n">
+      <c r="KY16" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="KZ16" t="n">
         <v>69</v>
       </c>
     </row>
@@ -16385,8 +16433,11 @@
       <c r="KX17" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KY17" t="n">
+      <c r="KY17" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KZ17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17322,8 +17373,11 @@
       <c r="KX18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KY18" t="n">
+      <c r="KY18" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18259,8 +18313,11 @@
       <c r="KX19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KY19" t="n">
+      <c r="KY19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KZ19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19196,8 +19253,11 @@
       <c r="KX20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY20" t="n">
+      <c r="KY20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KZ20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20133,8 +20193,11 @@
       <c r="KX21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KY21" t="n">
+      <c r="KY21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21070,8 +21133,11 @@
       <c r="KX22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KY22" t="n">
+      <c r="KY22" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ22" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22007,8 +22073,11 @@
       <c r="KX23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY23" t="n">
+      <c r="KY23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22944,8 +23013,11 @@
       <c r="KX24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KY24" t="n">
+      <c r="KY24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KZ24" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23881,8 +23953,11 @@
       <c r="KX25" s="2" t="n">
         <v>47.1</v>
       </c>
-      <c r="KY25" t="n">
+      <c r="KY25" s="2" t="n">
         <v>46.4</v>
+      </c>
+      <c r="KZ25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24818,8 +24893,11 @@
       <c r="KX26" s="2" t="n">
         <v>44.25</v>
       </c>
-      <c r="KY26" t="n">
+      <c r="KY26" s="2" t="n">
         <v>26.08</v>
+      </c>
+      <c r="KZ26" t="n">
+        <v>24.19</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25755,8 +25833,11 @@
       <c r="KX27" s="2" t="n">
         <v>20.82</v>
       </c>
-      <c r="KY27" t="n">
+      <c r="KY27" s="2" t="n">
         <v>12.11</v>
+      </c>
+      <c r="KZ27" t="n">
+        <v>12.09</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26692,8 +26773,11 @@
       <c r="KX28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KY28" t="n">
+      <c r="KY28" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KZ28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27629,8 +27713,11 @@
       <c r="KX29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KY29" t="n">
+      <c r="KY29" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KZ29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28566,8 +28653,11 @@
       <c r="KX30" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KY30" t="n">
+      <c r="KY30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KZ30" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29503,8 +29593,11 @@
       <c r="KX31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KY31" t="n">
+      <c r="KY31" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KZ31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30440,8 +30533,11 @@
       <c r="KX32" s="2" t="n">
         <v>3.18</v>
       </c>
-      <c r="KY32" t="n">
+      <c r="KY32" s="2" t="n">
         <v>1.93</v>
+      </c>
+      <c r="KZ32" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31377,8 +31473,11 @@
       <c r="KX33" s="2" t="n">
         <v>6.75</v>
       </c>
-      <c r="KY33" t="n">
+      <c r="KY33" s="2" t="n">
         <v>4.15</v>
+      </c>
+      <c r="KZ33" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32314,8 +32413,11 @@
       <c r="KX34" s="2" t="n">
         <v>31.5</v>
       </c>
-      <c r="KY34" t="n">
+      <c r="KY34" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KZ34" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33251,8 +33353,11 @@
       <c r="KX35" s="2" t="n">
         <v>14.8</v>
       </c>
-      <c r="KY35" t="n">
+      <c r="KY35" s="2" t="n">
         <v>24.1</v>
+      </c>
+      <c r="KZ35" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34188,8 +34293,11 @@
       <c r="KX36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="KY36" t="n">
+      <c r="KY36" s="2" t="n">
         <v>188.8</v>
+      </c>
+      <c r="KZ36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35125,8 +35233,11 @@
       <c r="KX37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KY37" t="n">
+      <c r="KY37" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="KZ37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36062,8 +36173,11 @@
       <c r="KX38" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="KY38" t="n">
+      <c r="KY38" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="KZ38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36999,8 +37113,11 @@
       <c r="KX39" s="2" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="KY39" t="n">
+      <c r="KY39" s="2" t="n">
         <v>84.7</v>
+      </c>
+      <c r="KZ39" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37936,7 +38053,10 @@
       <c r="KX40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY40" t="n">
+      <c r="KY40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KZ40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -38873,8 +38993,11 @@
       <c r="KX41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KY41" t="n">
+      <c r="KY41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39810,7 +39933,10 @@
       <c r="KX42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KY42" t="n">
+      <c r="KY42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KZ42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40747,8 +40873,11 @@
       <c r="KX43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KY43" t="n">
+      <c r="KY43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KZ43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41684,8 +41813,11 @@
       <c r="KX44" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="KY44" t="n">
+      <c r="KY44" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="KZ44" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42621,8 +42753,11 @@
       <c r="KX45" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="KY45" t="n">
+      <c r="KY45" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="KZ45" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43558,8 +43693,11 @@
       <c r="KX46" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="KY46" t="n">
+      <c r="KY46" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="KZ46" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44495,8 +44633,11 @@
       <c r="KX47" s="2" t="n">
         <v>69.8</v>
       </c>
-      <c r="KY47" t="n">
+      <c r="KY47" s="2" t="n">
         <v>75.2</v>
+      </c>
+      <c r="KZ47" t="n">
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45432,8 +45573,11 @@
       <c r="KX48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KY48" t="n">
+      <c r="KY48" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KZ48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46369,7 +46513,10 @@
       <c r="KX49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KY49" t="n">
+      <c r="KY49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KZ49" t="n">
         <v>18</v>
       </c>
     </row>
@@ -47306,8 +47453,11 @@
       <c r="KX50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY50" t="n">
+      <c r="KY50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ50" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48243,8 +48393,11 @@
       <c r="KX51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KY51" t="n">
+      <c r="KY51" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KZ51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49180,8 +49333,11 @@
       <c r="KX52" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KY52" t="n">
+      <c r="KY52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KZ52" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50117,8 +50273,11 @@
       <c r="KX53" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KY53" t="n">
+      <c r="KY53" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KZ53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51054,8 +51213,11 @@
       <c r="KX54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KY54" t="n">
+      <c r="KY54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KZ54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51991,8 +52153,11 @@
       <c r="KX55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KY55" t="n">
+      <c r="KY55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52928,8 +53093,11 @@
       <c r="KX56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KY56" t="n">
+      <c r="KY56" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KZ56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53865,8 +54033,11 @@
       <c r="KX57" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="KY57" t="n">
+      <c r="KY57" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KZ57" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54802,8 +54973,11 @@
       <c r="KX58" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="KY58" t="n">
+      <c r="KY58" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="KZ58" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55739,8 +55913,11 @@
       <c r="KX59" s="2" t="n">
         <v>358</v>
       </c>
-      <c r="KY59" t="n">
+      <c r="KY59" s="2" t="n">
         <v>343</v>
+      </c>
+      <c r="KZ59" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56676,8 +56853,11 @@
       <c r="KX60" s="2" t="n">
         <v>1.56</v>
       </c>
-      <c r="KY60" t="n">
+      <c r="KY60" s="2" t="n">
         <v>1.68</v>
+      </c>
+      <c r="KZ60" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57613,8 +57793,11 @@
       <c r="KX61" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KY61" t="n">
+      <c r="KY61" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KZ61" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58550,8 +58733,11 @@
       <c r="KX62" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KY62" t="n">
+      <c r="KY62" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KZ62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59487,8 +59673,11 @@
       <c r="KX63" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KY63" t="n">
+      <c r="KY63" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KZ63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60424,8 +60613,11 @@
       <c r="KX64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KY64" t="n">
+      <c r="KY64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KZ64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61361,8 +61553,11 @@
       <c r="KX65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KY65" t="n">
+      <c r="KY65" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62298,8 +62493,11 @@
       <c r="KX66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KY66" t="n">
+      <c r="KY66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63235,8 +63433,11 @@
       <c r="KX67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY67" t="n">
+      <c r="KY67" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KZ67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -64172,8 +64373,11 @@
       <c r="KX68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY68" t="n">
+      <c r="KY68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65109,8 +65313,11 @@
       <c r="KX69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KY69" t="n">
+      <c r="KY69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KZ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -66046,8 +66253,11 @@
       <c r="KX70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KY70" t="n">
+      <c r="KY70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KZ70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66983,8 +67193,11 @@
       <c r="KX71" s="2" t="n">
         <v>47.6</v>
       </c>
-      <c r="KY71" t="n">
+      <c r="KY71" s="2" t="n">
         <v>51.9</v>
+      </c>
+      <c r="KZ71" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67920,8 +68133,11 @@
       <c r="KX72" s="2" t="n">
         <v>35.8</v>
       </c>
-      <c r="KY72" t="n">
+      <c r="KY72" s="2" t="n">
         <v>24.5</v>
+      </c>
+      <c r="KZ72" t="n">
+        <v>35.56</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68857,8 +69073,11 @@
       <c r="KX73" s="2" t="n">
         <v>17.05</v>
       </c>
-      <c r="KY73" t="n">
+      <c r="KY73" s="2" t="n">
         <v>12.7</v>
+      </c>
+      <c r="KZ73" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69794,8 +70013,11 @@
       <c r="KX74" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KY74" t="n">
+      <c r="KY74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KZ74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70731,8 +70953,11 @@
       <c r="KX75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KY75" t="n">
+      <c r="KY75" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KZ75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71668,8 +71893,11 @@
       <c r="KX76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KY76" t="n">
+      <c r="KY76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KZ76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72605,8 +72833,11 @@
       <c r="KX77" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KY77" t="n">
+      <c r="KY77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KZ77" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73542,8 +73773,11 @@
       <c r="KX78" s="2" t="n">
         <v>2.86</v>
       </c>
-      <c r="KY78" t="n">
+      <c r="KY78" s="2" t="n">
         <v>1.93</v>
+      </c>
+      <c r="KZ78" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74479,8 +74713,11 @@
       <c r="KX79" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY79" t="n">
+      <c r="KY79" s="2" t="n">
         <v>3.71</v>
+      </c>
+      <c r="KZ79" t="n">
+        <v>7.22</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75416,8 +75653,11 @@
       <c r="KX80" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="KY80" t="n">
+      <c r="KY80" s="2" t="n">
         <v>48.1</v>
+      </c>
+      <c r="KZ80" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76353,8 +76593,11 @@
       <c r="KX81" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="KY81" t="n">
+      <c r="KY81" s="2" t="n">
         <v>26.9</v>
+      </c>
+      <c r="KZ81" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77290,8 +77533,11 @@
       <c r="KX82" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="KY82" t="n">
+      <c r="KY82" s="2" t="n">
         <v>186.6</v>
+      </c>
+      <c r="KZ82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -78227,8 +78473,11 @@
       <c r="KX83" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KY83" t="n">
+      <c r="KY83" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KZ83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -79164,8 +79413,11 @@
       <c r="KX84" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="KY84" t="n">
+      <c r="KY84" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="KZ84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -80101,8 +80353,11 @@
       <c r="KX85" s="2" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="KY85" t="n">
+      <c r="KY85" s="2" t="n">
         <v>116.8</v>
+      </c>
+      <c r="KZ85" t="n">
+        <v>104.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -81038,7 +81293,10 @@
       <c r="KX86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KY86" t="n">
+      <c r="KY86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KZ86" t="n">
         <v>6</v>
       </c>
     </row>
@@ -81975,8 +82233,11 @@
       <c r="KX87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY87" t="n">
+      <c r="KY87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82912,8 +83173,11 @@
       <c r="KX88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KY88" t="n">
+      <c r="KY88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -83849,8 +84113,11 @@
       <c r="KX89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KY89" t="n">
+      <c r="KY89" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -84786,8 +85053,11 @@
       <c r="KX90" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="KY90" t="n">
+      <c r="KY90" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KZ90" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85723,8 +85993,11 @@
       <c r="KX91" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KY91" t="n">
+      <c r="KY91" s="2" t="n">
         <v>180</v>
+      </c>
+      <c r="KZ91" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86660,8 +86933,11 @@
       <c r="KX92" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="KY92" t="n">
+      <c r="KY92" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="KZ92" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87597,8 +87873,11 @@
       <c r="KX93" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KY93" t="n">
+      <c r="KY93" s="2" t="n">
         <v>65.3</v>
+      </c>
+      <c r="KZ93" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -88534,8 +88813,11 @@
       <c r="KX94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KY94" t="n">
+      <c r="KY94" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KZ94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -89471,8 +89753,11 @@
       <c r="KX95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY95" t="n">
+      <c r="KY95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90408,8 +90693,11 @@
       <c r="KX96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KY96" t="n">
+      <c r="KY96" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KZ96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91345,8 +91633,11 @@
       <c r="KX97" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KY97" t="n">
+      <c r="KY97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KZ97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -92282,8 +92573,11 @@
       <c r="KX98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KY98" t="n">
+      <c r="KY98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KZ98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -93219,8 +93513,11 @@
       <c r="KX99" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KY99" t="n">
+      <c r="KY99" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KZ99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -94156,8 +94453,11 @@
       <c r="KX100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY100" t="n">
+      <c r="KY100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -95093,8 +95393,11 @@
       <c r="KX101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY101" t="n">
+      <c r="KY101" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KZ101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -96030,8 +96333,11 @@
       <c r="KX102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KY102" t="n">
+      <c r="KY102" s="2" t="n">
         <v>92.90000000000001</v>
+      </c>
+      <c r="KZ102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LA102"/>
+  <dimension ref="A1:LB102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KG88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KL88" activeCellId="0" sqref="KL88"/>
@@ -1399,8 +1399,11 @@
       <c r="KZ1" s="2" t="n">
         <v>10920</v>
       </c>
-      <c r="LA1" t="n">
+      <c r="LA1" s="2" t="n">
         <v>10929</v>
+      </c>
+      <c r="LB1" t="n">
+        <v>10932</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2342,7 +2345,10 @@
       <c r="KZ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="LA2" t="n">
+      <c r="LA2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LB2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3285,8 +3291,11 @@
       <c r="KZ3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="LA3" t="n">
+      <c r="LA3" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4228,8 +4237,11 @@
       <c r="KZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LA4" t="n">
+      <c r="LA4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5171,7 +5183,10 @@
       <c r="KZ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LA5" t="n">
+      <c r="LA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6114,8 +6129,11 @@
       <c r="KZ6" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="LA6" t="n">
+      <c r="LA6" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="LB6" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7057,8 +7075,11 @@
       <c r="KZ7" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="LA7" t="n">
+      <c r="LA7" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="LB7" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -8000,8 +8021,11 @@
       <c r="KZ8" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="LA8" t="n">
+      <c r="LA8" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="LB8" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8943,8 +8967,11 @@
       <c r="KZ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LA9" t="n">
+      <c r="LA9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LB9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9886,8 +9913,11 @@
       <c r="KZ10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LA10" t="n">
+      <c r="LA10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LB10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10829,8 +10859,11 @@
       <c r="KZ11" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="LA11" t="n">
+      <c r="LA11" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="LB11" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11772,8 +11805,11 @@
       <c r="KZ12" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="LA12" t="n">
+      <c r="LA12" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="LB12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12715,8 +12751,11 @@
       <c r="KZ13" s="2" t="n">
         <v>387</v>
       </c>
-      <c r="LA13" t="n">
+      <c r="LA13" s="2" t="n">
         <v>381</v>
+      </c>
+      <c r="LB13" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13658,8 +13697,11 @@
       <c r="KZ14" s="2" t="n">
         <v>1.48</v>
       </c>
-      <c r="LA14" t="n">
+      <c r="LA14" s="2" t="n">
         <v>1.63</v>
+      </c>
+      <c r="LB14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14601,8 +14643,11 @@
       <c r="KZ15" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="LA15" t="n">
+      <c r="LA15" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="LB15" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15544,8 +15589,11 @@
       <c r="KZ16" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="LA16" t="n">
+      <c r="LA16" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="LB16" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16487,8 +16535,11 @@
       <c r="KZ17" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="LA17" t="n">
+      <c r="LA17" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LB17" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17430,8 +17481,11 @@
       <c r="KZ18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LA18" t="n">
+      <c r="LA18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LB18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18373,8 +18427,11 @@
       <c r="KZ19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="LA19" t="n">
+      <c r="LA19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LB19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19316,7 +19373,10 @@
       <c r="KZ20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LA20" t="n">
+      <c r="LA20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB20" t="n">
         <v>13</v>
       </c>
     </row>
@@ -20259,8 +20319,11 @@
       <c r="KZ21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LA21" t="n">
+      <c r="LA21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LB21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21202,8 +21265,11 @@
       <c r="KZ22" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LA22" t="n">
+      <c r="LA22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LB22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22145,8 +22211,11 @@
       <c r="KZ23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LA23" t="n">
+      <c r="LA23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LB23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -23088,8 +23157,11 @@
       <c r="KZ24" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="LA24" t="n">
+      <c r="LA24" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="LB24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -24031,8 +24103,11 @@
       <c r="KZ25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="LA25" t="n">
+      <c r="LA25" s="2" t="n">
         <v>54.2</v>
+      </c>
+      <c r="LB25" t="n">
+        <v>46.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24974,8 +25049,11 @@
       <c r="KZ26" s="2" t="n">
         <v>24.19</v>
       </c>
-      <c r="LA26" t="n">
+      <c r="LA26" s="2" t="n">
         <v>29.31</v>
+      </c>
+      <c r="LB26" t="n">
+        <v>28.23</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25917,8 +25995,11 @@
       <c r="KZ27" s="2" t="n">
         <v>12.09</v>
       </c>
-      <c r="LA27" t="n">
+      <c r="LA27" s="2" t="n">
         <v>15.88</v>
+      </c>
+      <c r="LB27" t="n">
+        <v>13.11</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26860,8 +26941,11 @@
       <c r="KZ28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LA28" t="n">
+      <c r="LA28" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LB28" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27803,8 +27887,11 @@
       <c r="KZ29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="LA29" t="n">
+      <c r="LA29" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LB29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28746,8 +28833,11 @@
       <c r="KZ30" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="LA30" t="n">
+      <c r="LA30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="LB30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29689,8 +29779,11 @@
       <c r="KZ31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LA31" t="n">
+      <c r="LA31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="LB31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30632,8 +30725,11 @@
       <c r="KZ32" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="LA32" t="n">
+      <c r="LA32" s="2" t="n">
         <v>2.38</v>
+      </c>
+      <c r="LB32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31575,8 +31671,11 @@
       <c r="KZ33" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="LA33" t="n">
+      <c r="LA33" s="2" t="n">
         <v>4.38</v>
+      </c>
+      <c r="LB33" t="n">
+        <v>4.31</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32518,8 +32617,11 @@
       <c r="KZ34" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="LA34" t="n">
+      <c r="LA34" s="2" t="n">
         <v>42.1</v>
+      </c>
+      <c r="LB34" t="n">
+        <v>44.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33461,8 +33563,11 @@
       <c r="KZ35" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="LA35" t="n">
+      <c r="LA35" s="2" t="n">
         <v>22.8</v>
+      </c>
+      <c r="LB35" t="n">
+        <v>23.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34404,8 +34509,11 @@
       <c r="KZ36" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="LA36" t="n">
+      <c r="LA36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="LB36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35347,8 +35455,11 @@
       <c r="KZ37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="LA37" t="n">
+      <c r="LA37" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="LB37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36290,8 +36401,11 @@
       <c r="KZ38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="LA38" t="n">
+      <c r="LA38" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="LB38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37233,8 +37347,11 @@
       <c r="KZ39" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="LA39" t="n">
+      <c r="LA39" s="2" t="n">
         <v>89.7</v>
+      </c>
+      <c r="LB39" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38176,8 +38293,11 @@
       <c r="KZ40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LA40" t="n">
+      <c r="LA40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LB40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -39119,8 +39239,11 @@
       <c r="KZ41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LA41" t="n">
+      <c r="LA41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LB41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -40062,7 +40185,10 @@
       <c r="KZ42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LA42" t="n">
+      <c r="LA42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -41005,7 +41131,10 @@
       <c r="KZ43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LA43" t="n">
+      <c r="LA43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41948,8 +42077,11 @@
       <c r="KZ44" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="LA44" t="n">
+      <c r="LA44" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="LB44" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42891,8 +43023,11 @@
       <c r="KZ45" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="LA45" t="n">
+      <c r="LA45" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="LB45" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43834,8 +43969,11 @@
       <c r="KZ46" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="LA46" t="n">
+      <c r="LA46" s="2" t="n">
         <v>283</v>
+      </c>
+      <c r="LB46" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44777,8 +44915,11 @@
       <c r="KZ47" s="2" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="LA47" t="n">
+      <c r="LA47" s="2" t="n">
         <v>74.3</v>
+      </c>
+      <c r="LB47" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45720,8 +45861,11 @@
       <c r="KZ48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="LA48" t="n">
+      <c r="LA48" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LB48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46663,8 +46807,11 @@
       <c r="KZ49" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LA49" t="n">
+      <c r="LA49" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LB49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47606,7 +47753,10 @@
       <c r="KZ50" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="LA50" t="n">
+      <c r="LA50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB50" t="n">
         <v>13</v>
       </c>
     </row>
@@ -48549,8 +48699,11 @@
       <c r="KZ51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LA51" t="n">
+      <c r="LA51" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LB51" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49492,8 +49645,11 @@
       <c r="KZ52" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="LA52" t="n">
+      <c r="LA52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="LB52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50435,8 +50591,11 @@
       <c r="KZ53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="LA53" t="n">
+      <c r="LA53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="LB53" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51378,8 +51537,11 @@
       <c r="KZ54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LA54" t="n">
+      <c r="LA54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LB54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -52321,8 +52483,11 @@
       <c r="KZ55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LA55" t="n">
+      <c r="LA55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LB55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -53264,8 +53429,11 @@
       <c r="KZ56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="LA56" t="n">
+      <c r="LA56" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="LB56" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54207,8 +54375,11 @@
       <c r="KZ57" s="2" t="n">
         <v>196</v>
       </c>
-      <c r="LA57" t="n">
+      <c r="LA57" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="LB57" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -55150,8 +55321,11 @@
       <c r="KZ58" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="LA58" t="n">
+      <c r="LA58" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="LB58" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -56093,8 +56267,11 @@
       <c r="KZ59" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="LA59" t="n">
+      <c r="LA59" s="2" t="n">
         <v>317</v>
+      </c>
+      <c r="LB59" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -57036,8 +57213,11 @@
       <c r="KZ60" s="2" t="n">
         <v>1.58</v>
       </c>
-      <c r="LA60" t="n">
+      <c r="LA60" s="2" t="n">
         <v>1.71</v>
+      </c>
+      <c r="LB60" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57979,8 +58159,11 @@
       <c r="KZ61" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LA61" t="n">
+      <c r="LA61" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="LB61" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58922,8 +59105,11 @@
       <c r="KZ62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LA62" t="n">
+      <c r="LA62" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="LB62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59865,8 +60051,11 @@
       <c r="KZ63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="LA63" t="n">
+      <c r="LA63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LB63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60808,8 +60997,11 @@
       <c r="KZ64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="LA64" t="n">
+      <c r="LA64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LB64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61751,8 +61943,11 @@
       <c r="KZ65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LA65" t="n">
+      <c r="LA65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LB65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62694,8 +62889,11 @@
       <c r="KZ66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LA66" t="n">
+      <c r="LA66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LB66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63637,8 +63835,11 @@
       <c r="KZ67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LA67" t="n">
+      <c r="LA67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LB67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -64580,8 +64781,11 @@
       <c r="KZ68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LA68" t="n">
+      <c r="LA68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LB68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65523,7 +65727,10 @@
       <c r="KZ69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LA69" t="n">
+      <c r="LA69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66466,8 +66673,11 @@
       <c r="KZ70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="LA70" t="n">
+      <c r="LA70" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LB70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -67409,8 +67619,11 @@
       <c r="KZ71" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="LA71" t="n">
+      <c r="LA71" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="LB71" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -68352,8 +68565,11 @@
       <c r="KZ72" s="2" t="n">
         <v>35.56</v>
       </c>
-      <c r="LA72" t="n">
+      <c r="LA72" s="2" t="n">
         <v>35.22</v>
+      </c>
+      <c r="LB72" t="n">
+        <v>21.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69295,8 +69511,11 @@
       <c r="KZ73" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LA73" t="n">
+      <c r="LA73" s="2" t="n">
         <v>19.81</v>
+      </c>
+      <c r="LB73" t="n">
+        <v>13.33</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70238,8 +70457,11 @@
       <c r="KZ74" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="LA74" t="n">
+      <c r="LA74" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="LB74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -71181,8 +71403,11 @@
       <c r="KZ75" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="LA75" t="n">
+      <c r="LA75" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="LB75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -72124,8 +72349,11 @@
       <c r="KZ76" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="LA76" t="n">
+      <c r="LA76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LB76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -73067,8 +73295,11 @@
       <c r="KZ77" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="LA77" t="n">
+      <c r="LA77" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LB77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -74010,8 +74241,11 @@
       <c r="KZ78" s="2" t="n">
         <v>3.25</v>
       </c>
-      <c r="LA78" t="n">
+      <c r="LA78" s="2" t="n">
         <v>2.81</v>
+      </c>
+      <c r="LB78" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74953,8 +75187,11 @@
       <c r="KZ79" s="2" t="n">
         <v>7.22</v>
       </c>
-      <c r="LA79" t="n">
+      <c r="LA79" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LB79" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75896,8 +76133,11 @@
       <c r="KZ80" s="2" t="n">
         <v>29.2</v>
       </c>
-      <c r="LA80" t="n">
+      <c r="LA80" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="LB80" t="n">
+        <v>46.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76839,8 +77079,11 @@
       <c r="KZ81" s="2" t="n">
         <v>13.8</v>
       </c>
-      <c r="LA81" t="n">
+      <c r="LA81" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="LB81" t="n">
+        <v>30.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77782,8 +78025,11 @@
       <c r="KZ82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="LA82" t="n">
+      <c r="LA82" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="LB82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -78725,8 +78971,11 @@
       <c r="KZ83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="LA83" t="n">
+      <c r="LA83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="LB83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -79668,8 +79917,11 @@
       <c r="KZ84" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="LA84" t="n">
+      <c r="LA84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="LB84" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -80611,8 +80863,11 @@
       <c r="KZ85" s="2" t="n">
         <v>104.1</v>
       </c>
-      <c r="LA85" t="n">
+      <c r="LA85" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="LB85" t="n">
+        <v>128.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -81554,8 +81809,11 @@
       <c r="KZ86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LA86" t="n">
+      <c r="LA86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LB86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -82497,8 +82755,11 @@
       <c r="KZ87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LA87" t="n">
+      <c r="LA87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LB87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -83440,8 +83701,11 @@
       <c r="KZ88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LA88" t="n">
+      <c r="LA88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LB88" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -84383,8 +84647,11 @@
       <c r="KZ89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LA89" t="n">
+      <c r="LA89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LB89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -85326,8 +85593,11 @@
       <c r="KZ90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="LA90" t="n">
+      <c r="LA90" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="LB90" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -86269,8 +86539,11 @@
       <c r="KZ91" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="LA91" t="n">
+      <c r="LA91" s="2" t="n">
         <v>177</v>
+      </c>
+      <c r="LB91" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -87212,8 +87485,11 @@
       <c r="KZ92" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="LA92" t="n">
+      <c r="LA92" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="LB92" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -88155,8 +88431,11 @@
       <c r="KZ93" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="LA93" t="n">
+      <c r="LA93" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="LB93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -89098,8 +89377,11 @@
       <c r="KZ94" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="LA94" t="n">
+      <c r="LA94" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="LB94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -90041,8 +90323,11 @@
       <c r="KZ95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LA95" t="n">
+      <c r="LA95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="LB95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90984,8 +91269,11 @@
       <c r="KZ96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LA96" t="n">
+      <c r="LA96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LB96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91927,8 +92215,11 @@
       <c r="KZ97" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="LA97" t="n">
+      <c r="LA97" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="LB97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -92870,8 +93161,11 @@
       <c r="KZ98" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="LA98" t="n">
+      <c r="LA98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LB98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -93813,8 +94107,11 @@
       <c r="KZ99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LA99" t="n">
+      <c r="LA99" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="LB99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -94756,8 +95053,11 @@
       <c r="KZ100" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LA100" t="n">
+      <c r="LA100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LB100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -95699,8 +95999,11 @@
       <c r="KZ101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LA101" t="n">
+      <c r="LA101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LB101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -96642,8 +96945,11 @@
       <c r="KZ102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="LA102" t="n">
+      <c r="LA102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="LB102" t="n">
+        <v>73.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LB102"/>
+  <dimension ref="A1:LC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KG88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KL88" activeCellId="0" sqref="KL88"/>
@@ -1402,8 +1402,11 @@
       <c r="LA1" s="2" t="n">
         <v>10929</v>
       </c>
-      <c r="LB1" t="n">
+      <c r="LB1" s="2" t="n">
         <v>10932</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>10947</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2348,7 +2351,10 @@
       <c r="LA2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="LB2" t="n">
+      <c r="LB2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LC2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3294,8 +3300,11 @@
       <c r="LA3" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="LB3" t="n">
+      <c r="LB3" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4240,8 +4249,11 @@
       <c r="LA4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LB4" t="n">
+      <c r="LB4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5186,8 +5198,11 @@
       <c r="LA5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LB5" t="n">
+      <c r="LB5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LC5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -6132,8 +6147,11 @@
       <c r="LA6" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="LB6" t="n">
+      <c r="LB6" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="LC6" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7078,8 +7096,11 @@
       <c r="LA7" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="LB7" t="n">
+      <c r="LB7" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="LC7" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -8024,8 +8045,11 @@
       <c r="LA8" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LB8" t="n">
+      <c r="LB8" s="2" t="n">
         <v>-6</v>
+      </c>
+      <c r="LC8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8970,7 +8994,10 @@
       <c r="LA9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LB9" t="n">
+      <c r="LB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9916,8 +9943,11 @@
       <c r="LA10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LB10" t="n">
+      <c r="LB10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LC10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10862,8 +10892,11 @@
       <c r="LA11" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="LB11" t="n">
+      <c r="LB11" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="LC11" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11808,8 +11841,11 @@
       <c r="LA12" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="LB12" t="n">
+      <c r="LB12" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="LC12" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12754,8 +12790,11 @@
       <c r="LA13" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="LB13" t="n">
+      <c r="LB13" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="LC13" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13700,8 +13739,11 @@
       <c r="LA14" s="2" t="n">
         <v>1.63</v>
       </c>
-      <c r="LB14" t="n">
+      <c r="LB14" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="LC14" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14646,8 +14688,11 @@
       <c r="LA15" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="LB15" t="n">
+      <c r="LB15" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="LC15" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15592,8 +15637,11 @@
       <c r="LA16" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="LB16" t="n">
+      <c r="LB16" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="LC16" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16538,8 +16586,11 @@
       <c r="LA17" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="LB17" t="n">
+      <c r="LB17" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LC17" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17484,8 +17535,11 @@
       <c r="LA18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LB18" t="n">
+      <c r="LB18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="LC18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18430,8 +18484,11 @@
       <c r="LA19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LB19" t="n">
+      <c r="LB19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LC19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19376,8 +19433,11 @@
       <c r="LA20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LB20" t="n">
+      <c r="LB20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="LC20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20322,8 +20382,11 @@
       <c r="LA21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LB21" t="n">
+      <c r="LB21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LC21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21268,8 +21331,11 @@
       <c r="LA22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LB22" t="n">
+      <c r="LB22" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LC22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22214,8 +22280,11 @@
       <c r="LA23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LB23" t="n">
+      <c r="LB23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LC23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -23160,8 +23229,11 @@
       <c r="LA24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LB24" t="n">
+      <c r="LB24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="LC24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -24106,8 +24178,11 @@
       <c r="LA25" s="2" t="n">
         <v>54.2</v>
       </c>
-      <c r="LB25" t="n">
+      <c r="LB25" s="2" t="n">
         <v>46.4</v>
+      </c>
+      <c r="LC25" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -25052,8 +25127,11 @@
       <c r="LA26" s="2" t="n">
         <v>29.31</v>
       </c>
-      <c r="LB26" t="n">
+      <c r="LB26" s="2" t="n">
         <v>28.23</v>
+      </c>
+      <c r="LC26" t="n">
+        <v>35.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25998,8 +26076,11 @@
       <c r="LA27" s="2" t="n">
         <v>15.88</v>
       </c>
-      <c r="LB27" t="n">
+      <c r="LB27" s="2" t="n">
         <v>13.11</v>
+      </c>
+      <c r="LC27" t="n">
+        <v>15.43</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26944,8 +27025,11 @@
       <c r="LA28" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="LB28" t="n">
+      <c r="LB28" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LC28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27890,8 +27974,11 @@
       <c r="LA29" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="LB29" t="n">
+      <c r="LB29" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LC29" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28836,8 +28923,11 @@
       <c r="LA30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="LB30" t="n">
+      <c r="LB30" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="LC30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29782,8 +29872,11 @@
       <c r="LA31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="LB31" t="n">
+      <c r="LB31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LC31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30728,8 +30821,11 @@
       <c r="LA32" s="2" t="n">
         <v>2.38</v>
       </c>
-      <c r="LB32" t="n">
+      <c r="LB32" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LC32" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31674,8 +31770,11 @@
       <c r="LA33" s="2" t="n">
         <v>4.38</v>
       </c>
-      <c r="LB33" t="n">
+      <c r="LB33" s="2" t="n">
         <v>4.31</v>
+      </c>
+      <c r="LC33" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32620,8 +32719,11 @@
       <c r="LA34" s="2" t="n">
         <v>42.1</v>
       </c>
-      <c r="LB34" t="n">
+      <c r="LB34" s="2" t="n">
         <v>44.6</v>
+      </c>
+      <c r="LC34" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33566,8 +33668,11 @@
       <c r="LA35" s="2" t="n">
         <v>22.8</v>
       </c>
-      <c r="LB35" t="n">
+      <c r="LB35" s="2" t="n">
         <v>23.2</v>
+      </c>
+      <c r="LC35" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34512,8 +34617,11 @@
       <c r="LA36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="LB36" t="n">
+      <c r="LB36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="LC36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35458,8 +35566,11 @@
       <c r="LA37" s="2" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="LB37" t="n">
+      <c r="LB37" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="LC37" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36404,8 +36515,11 @@
       <c r="LA38" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="LB38" t="n">
+      <c r="LB38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="LC38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37350,8 +37464,11 @@
       <c r="LA39" s="2" t="n">
         <v>89.7</v>
       </c>
-      <c r="LB39" t="n">
+      <c r="LB39" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="LC39" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38296,8 +38413,11 @@
       <c r="LA40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LB40" t="n">
+      <c r="LB40" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LC40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -39242,8 +39362,11 @@
       <c r="LA41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB41" t="n">
+      <c r="LB41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LC41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -40188,7 +40311,10 @@
       <c r="LA42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LB42" t="n">
+      <c r="LB42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -41134,7 +41260,10 @@
       <c r="LA43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LB43" t="n">
+      <c r="LB43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42080,8 +42209,11 @@
       <c r="LA44" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="LB44" t="n">
+      <c r="LB44" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="LC44" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -43026,8 +43158,11 @@
       <c r="LA45" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="LB45" t="n">
+      <c r="LB45" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="LC45" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43972,8 +44107,11 @@
       <c r="LA46" s="2" t="n">
         <v>283</v>
       </c>
-      <c r="LB46" t="n">
+      <c r="LB46" s="2" t="n">
         <v>274</v>
+      </c>
+      <c r="LC46" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44918,8 +45056,11 @@
       <c r="LA47" s="2" t="n">
         <v>74.3</v>
       </c>
-      <c r="LB47" t="n">
+      <c r="LB47" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="LC47" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45864,8 +46005,11 @@
       <c r="LA48" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="LB48" t="n">
+      <c r="LB48" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LC48" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46810,8 +46954,11 @@
       <c r="LA49" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LB49" t="n">
+      <c r="LB49" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LC49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47756,8 +47903,11 @@
       <c r="LA50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LB50" t="n">
+      <c r="LB50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="LC50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48702,8 +48852,11 @@
       <c r="LA51" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="LB51" t="n">
+      <c r="LB51" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LC51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49648,8 +49801,11 @@
       <c r="LA52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="LB52" t="n">
+      <c r="LB52" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="LC52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50594,8 +50750,11 @@
       <c r="LA53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="LB53" t="n">
+      <c r="LB53" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="LC53" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51540,8 +51699,11 @@
       <c r="LA54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LB54" t="n">
+      <c r="LB54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LC54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -52486,8 +52648,11 @@
       <c r="LA55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LB55" t="n">
+      <c r="LB55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LC55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -53432,8 +53597,11 @@
       <c r="LA56" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="LB56" t="n">
+      <c r="LB56" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="LC56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54378,8 +54546,11 @@
       <c r="LA57" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="LB57" t="n">
+      <c r="LB57" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="LC57" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -55324,8 +55495,11 @@
       <c r="LA58" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="LB58" t="n">
+      <c r="LB58" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="LC58" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -56270,8 +56444,11 @@
       <c r="LA59" s="2" t="n">
         <v>317</v>
       </c>
-      <c r="LB59" t="n">
+      <c r="LB59" s="2" t="n">
         <v>320</v>
+      </c>
+      <c r="LC59" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -57216,8 +57393,11 @@
       <c r="LA60" s="2" t="n">
         <v>1.71</v>
       </c>
-      <c r="LB60" t="n">
+      <c r="LB60" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="LC60" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -58162,8 +58342,11 @@
       <c r="LA61" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="LB61" t="n">
+      <c r="LB61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="LC61" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -59108,8 +59291,11 @@
       <c r="LA62" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="LB62" t="n">
+      <c r="LB62" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="LC62" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -60054,8 +60240,11 @@
       <c r="LA63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="LB63" t="n">
+      <c r="LB63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="LC63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -61000,8 +61189,11 @@
       <c r="LA64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LB64" t="n">
+      <c r="LB64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LC64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61946,8 +62138,11 @@
       <c r="LA65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LB65" t="n">
+      <c r="LB65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="LC65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62892,8 +63087,11 @@
       <c r="LA66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LB66" t="n">
+      <c r="LB66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LC66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63838,8 +64036,11 @@
       <c r="LA67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB67" t="n">
+      <c r="LB67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LC67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -64784,8 +64985,11 @@
       <c r="LA68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB68" t="n">
+      <c r="LB68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LC68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65730,7 +65934,10 @@
       <c r="LA69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LB69" t="n">
+      <c r="LB69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66676,8 +66883,11 @@
       <c r="LA70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LB70" t="n">
+      <c r="LB70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="LC70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -67622,8 +67832,11 @@
       <c r="LA71" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="LB71" t="n">
+      <c r="LB71" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="LC71" t="n">
+        <v>57.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -68568,8 +68781,11 @@
       <c r="LA72" s="2" t="n">
         <v>35.22</v>
       </c>
-      <c r="LB72" t="n">
+      <c r="LB72" s="2" t="n">
         <v>21.33</v>
+      </c>
+      <c r="LC72" t="n">
+        <v>29.91</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69514,8 +69730,11 @@
       <c r="LA73" s="2" t="n">
         <v>19.81</v>
       </c>
-      <c r="LB73" t="n">
+      <c r="LB73" s="2" t="n">
         <v>13.33</v>
+      </c>
+      <c r="LC73" t="n">
+        <v>17.32</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70460,8 +70679,11 @@
       <c r="LA74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="LB74" t="n">
+      <c r="LB74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LC74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -71406,8 +71628,11 @@
       <c r="LA75" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="LB75" t="n">
+      <c r="LB75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LC75" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -72352,8 +72577,11 @@
       <c r="LA76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LB76" t="n">
+      <c r="LB76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="LC76" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -73298,8 +73526,11 @@
       <c r="LA77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="LB77" t="n">
+      <c r="LB77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LC77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -74244,8 +74475,11 @@
       <c r="LA78" s="2" t="n">
         <v>2.81</v>
       </c>
-      <c r="LB78" t="n">
+      <c r="LB78" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="LC78" t="n">
+        <v>2.84</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -75190,8 +75424,11 @@
       <c r="LA79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LB79" t="n">
+      <c r="LB79" s="2" t="n">
         <v>3.27</v>
+      </c>
+      <c r="LC79" t="n">
+        <v>4.91</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -76136,8 +76373,11 @@
       <c r="LA80" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="LB80" t="n">
+      <c r="LB80" s="2" t="n">
         <v>46.9</v>
+      </c>
+      <c r="LC80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -77082,8 +77322,11 @@
       <c r="LA81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="LB81" t="n">
+      <c r="LB81" s="2" t="n">
         <v>30.6</v>
+      </c>
+      <c r="LC81" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -78028,8 +78271,11 @@
       <c r="LA82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="LB82" t="n">
+      <c r="LB82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="LC82" t="n">
+        <v>186.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -78974,8 +79220,11 @@
       <c r="LA83" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="LB83" t="n">
+      <c r="LB83" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="LC83" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -79920,8 +80169,11 @@
       <c r="LA84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="LB84" t="n">
+      <c r="LB84" s="2" t="n">
         <v>26.41</v>
+      </c>
+      <c r="LC84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -80866,8 +81118,11 @@
       <c r="LA85" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="LB85" t="n">
+      <c r="LB85" s="2" t="n">
         <v>128.3</v>
+      </c>
+      <c r="LC85" t="n">
+        <v>118.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -81812,8 +82067,11 @@
       <c r="LA86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LB86" t="n">
+      <c r="LB86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LC86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -82758,8 +83016,11 @@
       <c r="LA87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB87" t="n">
+      <c r="LB87" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LC87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -83704,8 +83965,11 @@
       <c r="LA88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB88" t="n">
+      <c r="LB88" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LC88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -84650,8 +84914,11 @@
       <c r="LA89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LB89" t="n">
+      <c r="LB89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LC89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -85596,8 +85863,11 @@
       <c r="LA90" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="LB90" t="n">
+      <c r="LB90" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="LC90" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -86542,8 +86812,11 @@
       <c r="LA91" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="LB91" t="n">
+      <c r="LB91" s="2" t="n">
         <v>178</v>
+      </c>
+      <c r="LC91" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -87488,8 +87761,11 @@
       <c r="LA92" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="LB92" t="n">
+      <c r="LB92" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="LC92" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -88434,8 +88710,11 @@
       <c r="LA93" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="LB93" t="n">
+      <c r="LB93" s="2" t="n">
         <v>72.8</v>
+      </c>
+      <c r="LC93" t="n">
+        <v>60.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -89380,8 +89659,11 @@
       <c r="LA94" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="LB94" t="n">
+      <c r="LB94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LC94" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -90326,8 +90608,11 @@
       <c r="LA95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LB95" t="n">
+      <c r="LB95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LC95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -91272,8 +91557,11 @@
       <c r="LA96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LB96" t="n">
+      <c r="LB96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LC96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -92218,8 +92506,11 @@
       <c r="LA97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="LB97" t="n">
+      <c r="LB97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LC97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -93164,8 +93455,11 @@
       <c r="LA98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LB98" t="n">
+      <c r="LB98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="LC98" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -94110,8 +94404,11 @@
       <c r="LA99" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="LB99" t="n">
+      <c r="LB99" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LC99" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -95056,8 +95353,11 @@
       <c r="LA100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LB100" t="n">
+      <c r="LB100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LC100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -96002,8 +96302,11 @@
       <c r="LA101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB101" t="n">
+      <c r="LB101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LC101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -96948,8 +97251,11 @@
       <c r="LA102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="LB102" t="n">
+      <c r="LB102" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="LC102" t="n">
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LC102"/>
+  <dimension ref="A1:LD102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KG88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KL88" activeCellId="0" sqref="KL88"/>
@@ -1405,8 +1405,11 @@
       <c r="LB1" s="2" t="n">
         <v>10932</v>
       </c>
-      <c r="LC1" t="n">
+      <c r="LC1" s="2" t="n">
         <v>10947</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>10957</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2354,7 +2357,10 @@
       <c r="LB2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="LC2" t="n">
+      <c r="LC2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LD2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3303,8 +3309,11 @@
       <c r="LB3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LC3" t="n">
+      <c r="LC3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4252,8 +4261,11 @@
       <c r="LB4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC4" t="n">
+      <c r="LC4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5201,7 +5213,10 @@
       <c r="LB5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LC5" t="n">
+      <c r="LC5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6150,8 +6165,11 @@
       <c r="LB6" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="LC6" t="n">
+      <c r="LC6" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="LD6" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7099,8 +7117,11 @@
       <c r="LB7" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="LC7" t="n">
+      <c r="LC7" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="LD7" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -8048,8 +8069,11 @@
       <c r="LB8" s="2" t="n">
         <v>-6</v>
       </c>
-      <c r="LC8" t="n">
+      <c r="LC8" s="2" t="n">
         <v>-1</v>
+      </c>
+      <c r="LD8" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8997,8 +9021,11 @@
       <c r="LB9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LC9" t="n">
+      <c r="LC9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LD9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9946,8 +9973,11 @@
       <c r="LB10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LC10" t="n">
+      <c r="LC10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LD10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10895,8 +10925,11 @@
       <c r="LB11" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="LC11" t="n">
+      <c r="LC11" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="LD11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11844,8 +11877,11 @@
       <c r="LB12" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="LC12" t="n">
+      <c r="LC12" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="LD12" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12793,8 +12829,11 @@
       <c r="LB13" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="LC13" t="n">
+      <c r="LC13" s="2" t="n">
         <v>355</v>
+      </c>
+      <c r="LD13" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13742,8 +13781,11 @@
       <c r="LB14" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="LC14" t="n">
+      <c r="LC14" s="2" t="n">
         <v>1.41</v>
+      </c>
+      <c r="LD14" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14691,8 +14733,11 @@
       <c r="LB15" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="LC15" t="n">
+      <c r="LC15" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="LD15" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15640,8 +15685,11 @@
       <c r="LB16" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="LC16" t="n">
+      <c r="LC16" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="LD16" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16589,8 +16637,11 @@
       <c r="LB17" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LC17" t="n">
+      <c r="LC17" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="LD17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17538,8 +17589,11 @@
       <c r="LB18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="LC18" t="n">
+      <c r="LC18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="LD18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18487,8 +18541,11 @@
       <c r="LB19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LC19" t="n">
+      <c r="LC19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LD19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19436,8 +19493,11 @@
       <c r="LB20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LC20" t="n">
+      <c r="LC20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LD20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20385,8 +20445,11 @@
       <c r="LB21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC21" t="n">
+      <c r="LC21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LD21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21334,8 +21397,11 @@
       <c r="LB22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LC22" t="n">
+      <c r="LC22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LD22" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22283,8 +22349,11 @@
       <c r="LB23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC23" t="n">
+      <c r="LC23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LD23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -23232,8 +23301,11 @@
       <c r="LB24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LC24" t="n">
+      <c r="LC24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LD24" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -24181,8 +24253,11 @@
       <c r="LB25" s="2" t="n">
         <v>46.4</v>
       </c>
-      <c r="LC25" t="n">
+      <c r="LC25" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="LD25" t="n">
+        <v>44.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -25130,8 +25205,11 @@
       <c r="LB26" s="2" t="n">
         <v>28.23</v>
       </c>
-      <c r="LC26" t="n">
+      <c r="LC26" s="2" t="n">
         <v>35.5</v>
+      </c>
+      <c r="LD26" t="n">
+        <v>23.47</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -26079,8 +26157,11 @@
       <c r="LB27" s="2" t="n">
         <v>13.11</v>
       </c>
-      <c r="LC27" t="n">
+      <c r="LC27" s="2" t="n">
         <v>15.43</v>
+      </c>
+      <c r="LD27" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -27028,8 +27109,11 @@
       <c r="LB28" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LC28" t="n">
+      <c r="LC28" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="LD28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27977,8 +28061,11 @@
       <c r="LB29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LC29" t="n">
+      <c r="LC29" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="LD29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28926,8 +29013,11 @@
       <c r="LB30" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="LC30" t="n">
+      <c r="LC30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LD30" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29875,8 +29965,11 @@
       <c r="LB31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LC31" t="n">
+      <c r="LC31" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="LD31" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30824,8 +30917,11 @@
       <c r="LB32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LC32" t="n">
+      <c r="LC32" s="2" t="n">
         <v>2.52</v>
+      </c>
+      <c r="LD32" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31773,8 +31869,11 @@
       <c r="LB33" s="2" t="n">
         <v>4.31</v>
       </c>
-      <c r="LC33" t="n">
+      <c r="LC33" s="2" t="n">
         <v>5.8</v>
+      </c>
+      <c r="LD33" t="n">
+        <v>3.94</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32722,8 +32821,11 @@
       <c r="LB34" s="2" t="n">
         <v>44.6</v>
       </c>
-      <c r="LC34" t="n">
+      <c r="LC34" s="2" t="n">
         <v>32.8</v>
+      </c>
+      <c r="LD34" t="n">
+        <v>52.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33671,8 +33773,11 @@
       <c r="LB35" s="2" t="n">
         <v>23.2</v>
       </c>
-      <c r="LC35" t="n">
+      <c r="LC35" s="2" t="n">
         <v>17.2</v>
+      </c>
+      <c r="LD35" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34620,8 +34725,11 @@
       <c r="LB36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="LC36" t="n">
+      <c r="LC36" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="LD36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35569,8 +35677,11 @@
       <c r="LB37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="LC37" t="n">
+      <c r="LC37" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="LD37" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36518,8 +36629,11 @@
       <c r="LB38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="LC38" t="n">
+      <c r="LC38" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="LD38" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37467,8 +37581,11 @@
       <c r="LB39" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="LC39" t="n">
+      <c r="LC39" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="LD39" t="n">
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38416,8 +38533,11 @@
       <c r="LB40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LC40" t="n">
+      <c r="LC40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LD40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -39365,8 +39485,11 @@
       <c r="LB41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC41" t="n">
+      <c r="LC41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LD41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -40314,8 +40437,11 @@
       <c r="LB42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC42" t="n">
+      <c r="LC42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LD42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -41263,8 +41389,11 @@
       <c r="LB43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LC43" t="n">
+      <c r="LC43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LD43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -42212,8 +42341,11 @@
       <c r="LB44" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="LC44" t="n">
+      <c r="LC44" s="2" t="n">
         <v>165</v>
+      </c>
+      <c r="LD44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -43161,8 +43293,11 @@
       <c r="LB45" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="LC45" t="n">
+      <c r="LC45" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="LD45" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -44110,8 +44245,11 @@
       <c r="LB46" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="LC46" t="n">
+      <c r="LC46" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="LD46" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -45059,8 +45197,11 @@
       <c r="LB47" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="LC47" t="n">
+      <c r="LC47" s="2" t="n">
         <v>68.2</v>
+      </c>
+      <c r="LD47" t="n">
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -46008,8 +46149,11 @@
       <c r="LB48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LC48" t="n">
+      <c r="LC48" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="LD48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46957,8 +47101,11 @@
       <c r="LB49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LC49" t="n">
+      <c r="LC49" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47906,8 +48053,11 @@
       <c r="LB50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LC50" t="n">
+      <c r="LC50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LD50" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48855,8 +49005,11 @@
       <c r="LB51" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LC51" t="n">
+      <c r="LC51" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="LD51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49804,8 +49957,11 @@
       <c r="LB52" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="LC52" t="n">
+      <c r="LC52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LD52" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50753,8 +50909,11 @@
       <c r="LB53" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="LC53" t="n">
+      <c r="LC53" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="LD53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51702,8 +51861,11 @@
       <c r="LB54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC54" t="n">
+      <c r="LC54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LD54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -52651,8 +52813,11 @@
       <c r="LB55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC55" t="n">
+      <c r="LC55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LD55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -53600,8 +53765,11 @@
       <c r="LB56" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="LC56" t="n">
+      <c r="LC56" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="LD56" t="n">
+        <v>58.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54549,8 +54717,11 @@
       <c r="LB57" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="LC57" t="n">
+      <c r="LC57" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="LD57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -55498,8 +55669,11 @@
       <c r="LB58" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="LC58" t="n">
+      <c r="LC58" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="LD58" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -56447,8 +56621,11 @@
       <c r="LB59" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="LC59" t="n">
+      <c r="LC59" s="2" t="n">
         <v>329</v>
+      </c>
+      <c r="LD59" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -57396,8 +57573,11 @@
       <c r="LB60" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="LC60" t="n">
+      <c r="LC60" s="2" t="n">
         <v>1.79</v>
+      </c>
+      <c r="LD60" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -58345,8 +58525,11 @@
       <c r="LB61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="LC61" t="n">
+      <c r="LC61" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LD61" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -59294,8 +59477,11 @@
       <c r="LB62" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="LC62" t="n">
+      <c r="LC62" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="LD62" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -60243,8 +60429,11 @@
       <c r="LB63" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="LC63" t="n">
+      <c r="LC63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="LD63" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -61192,8 +61381,11 @@
       <c r="LB64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LC64" t="n">
+      <c r="LC64" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LD64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -62141,8 +62333,11 @@
       <c r="LB65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="LC65" t="n">
+      <c r="LC65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="LD65" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -63090,8 +63285,11 @@
       <c r="LB66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LC66" t="n">
+      <c r="LC66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LD66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -64039,8 +64237,11 @@
       <c r="LB67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LC67" t="n">
+      <c r="LC67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LD67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -64988,8 +65189,11 @@
       <c r="LB68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LC68" t="n">
+      <c r="LC68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LD68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65937,7 +66141,10 @@
       <c r="LB69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC69" t="n">
+      <c r="LC69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66886,8 +67093,11 @@
       <c r="LB70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LC70" t="n">
+      <c r="LC70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="LD70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -67835,8 +68045,11 @@
       <c r="LB71" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="LC71" t="n">
+      <c r="LC71" s="2" t="n">
         <v>57.9</v>
+      </c>
+      <c r="LD71" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -68784,8 +68997,11 @@
       <c r="LB72" s="2" t="n">
         <v>21.33</v>
       </c>
-      <c r="LC72" t="n">
+      <c r="LC72" s="2" t="n">
         <v>29.91</v>
+      </c>
+      <c r="LD72" t="n">
+        <v>29.83</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69733,8 +69949,11 @@
       <c r="LB73" s="2" t="n">
         <v>13.33</v>
       </c>
-      <c r="LC73" t="n">
+      <c r="LC73" s="2" t="n">
         <v>17.32</v>
+      </c>
+      <c r="LD73" t="n">
+        <v>19.89</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70682,8 +70901,11 @@
       <c r="LB74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="LC74" t="n">
+      <c r="LC74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LD74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -71631,8 +71853,11 @@
       <c r="LB75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LC75" t="n">
+      <c r="LC75" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="LD75" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -72580,8 +72805,11 @@
       <c r="LB76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LC76" t="n">
+      <c r="LC76" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="LD76" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -73529,8 +73757,11 @@
       <c r="LB77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="LC77" t="n">
+      <c r="LC77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LD77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -74478,8 +74709,11 @@
       <c r="LB78" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="LC78" t="n">
+      <c r="LC78" s="2" t="n">
         <v>2.84</v>
+      </c>
+      <c r="LD78" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -75427,8 +75661,11 @@
       <c r="LB79" s="2" t="n">
         <v>3.27</v>
       </c>
-      <c r="LC79" t="n">
+      <c r="LC79" s="2" t="n">
         <v>4.91</v>
+      </c>
+      <c r="LD79" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -76376,8 +76613,11 @@
       <c r="LB80" s="2" t="n">
         <v>46.9</v>
       </c>
-      <c r="LC80" t="n">
+      <c r="LC80" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="LD80" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -77325,8 +77565,11 @@
       <c r="LB81" s="2" t="n">
         <v>30.6</v>
       </c>
-      <c r="LC81" t="n">
+      <c r="LC81" s="2" t="n">
         <v>20.4</v>
+      </c>
+      <c r="LD81" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -78274,8 +78517,11 @@
       <c r="LB82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="LC82" t="n">
+      <c r="LC82" s="2" t="n">
         <v>186.3</v>
+      </c>
+      <c r="LD82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -79223,8 +79469,11 @@
       <c r="LB83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="LC83" t="n">
+      <c r="LC83" s="2" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="LD83" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -80172,7 +80421,10 @@
       <c r="LB84" s="2" t="n">
         <v>26.41</v>
       </c>
-      <c r="LC84" t="n">
+      <c r="LC84" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="LD84" t="n">
         <v>25.91</v>
       </c>
     </row>
@@ -81121,8 +81373,11 @@
       <c r="LB85" s="2" t="n">
         <v>128.3</v>
       </c>
-      <c r="LC85" t="n">
+      <c r="LC85" s="2" t="n">
         <v>118.6</v>
+      </c>
+      <c r="LD85" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -82070,8 +82325,11 @@
       <c r="LB86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC86" t="n">
+      <c r="LC86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LD86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -83019,8 +83277,11 @@
       <c r="LB87" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC87" t="n">
+      <c r="LC87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LD87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -83968,8 +84229,11 @@
       <c r="LB88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC88" t="n">
+      <c r="LC88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -84917,7 +85181,10 @@
       <c r="LB89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LC89" t="n">
+      <c r="LC89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD89" t="n">
         <v>7</v>
       </c>
     </row>
@@ -85866,8 +86133,11 @@
       <c r="LB90" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="LC90" t="n">
+      <c r="LC90" s="2" t="n">
         <v>165</v>
+      </c>
+      <c r="LD90" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -86815,8 +87085,11 @@
       <c r="LB91" s="2" t="n">
         <v>178</v>
       </c>
-      <c r="LC91" t="n">
+      <c r="LC91" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="LD91" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -87764,8 +88037,11 @@
       <c r="LB92" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="LC92" t="n">
+      <c r="LC92" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="LD92" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -88713,8 +88989,11 @@
       <c r="LB93" s="2" t="n">
         <v>72.8</v>
       </c>
-      <c r="LC93" t="n">
+      <c r="LC93" s="2" t="n">
         <v>60.2</v>
+      </c>
+      <c r="LD93" t="n">
+        <v>74.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -89662,8 +89941,11 @@
       <c r="LB94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LC94" t="n">
+      <c r="LC94" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="LD94" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -90611,8 +90893,11 @@
       <c r="LB95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LC95" t="n">
+      <c r="LC95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LD95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -91560,8 +91845,11 @@
       <c r="LB96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LC96" t="n">
+      <c r="LC96" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LD96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -92509,8 +92797,11 @@
       <c r="LB97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="LC97" t="n">
+      <c r="LC97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LD97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -93458,8 +93749,11 @@
       <c r="LB98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LC98" t="n">
+      <c r="LC98" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="LD98" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -94407,8 +94701,11 @@
       <c r="LB99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="LC99" t="n">
+      <c r="LC99" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="LD99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -95356,8 +95653,11 @@
       <c r="LB100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LC100" t="n">
+      <c r="LC100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LD100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -96305,8 +96605,11 @@
       <c r="LB101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LC101" t="n">
+      <c r="LC101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LD101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -97254,8 +97557,11 @@
       <c r="LB102" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="LC102" t="n">
+      <c r="LC102" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="LD102" t="n">
+        <v>58.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LD102"/>
+  <dimension ref="A1:LE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KG88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KL88" activeCellId="0" sqref="KL88"/>
@@ -1408,8 +1408,11 @@
       <c r="LC1" s="2" t="n">
         <v>10947</v>
       </c>
-      <c r="LD1" t="n">
+      <c r="LD1" s="2" t="n">
         <v>10957</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>10976</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2360,7 +2363,10 @@
       <c r="LC2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="LD2" t="n">
+      <c r="LD2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LE2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3312,8 +3318,11 @@
       <c r="LC3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LD3" t="n">
+      <c r="LD3" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4264,7 +4273,10 @@
       <c r="LC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LD4" t="n">
+      <c r="LD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5216,8 +5228,11 @@
       <c r="LC5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LD5" t="n">
+      <c r="LD5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LE5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -6168,8 +6183,11 @@
       <c r="LC6" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="LD6" t="n">
+      <c r="LD6" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="LE6" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7120,8 +7138,11 @@
       <c r="LC7" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="LD7" t="n">
+      <c r="LD7" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="LE7" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -8072,8 +8093,11 @@
       <c r="LC8" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="LD8" t="n">
+      <c r="LD8" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LE8" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -9024,8 +9048,11 @@
       <c r="LC9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LD9" t="n">
+      <c r="LD9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LE9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9976,8 +10003,11 @@
       <c r="LC10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LD10" t="n">
+      <c r="LD10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LE10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10928,7 +10958,10 @@
       <c r="LC11" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="LD11" t="n">
+      <c r="LD11" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="LE11" t="n">
         <v>220</v>
       </c>
     </row>
@@ -11880,8 +11913,11 @@
       <c r="LC12" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="LD12" t="n">
+      <c r="LD12" s="2" t="n">
         <v>179</v>
+      </c>
+      <c r="LE12" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12832,8 +12868,11 @@
       <c r="LC13" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="LD13" t="n">
+      <c r="LD13" s="2" t="n">
         <v>399</v>
+      </c>
+      <c r="LE13" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13784,8 +13823,11 @@
       <c r="LC14" s="2" t="n">
         <v>1.41</v>
       </c>
-      <c r="LD14" t="n">
+      <c r="LD14" s="2" t="n">
         <v>1.23</v>
+      </c>
+      <c r="LE14" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14736,8 +14778,11 @@
       <c r="LC15" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="LD15" t="n">
+      <c r="LD15" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="LE15" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15688,8 +15733,11 @@
       <c r="LC16" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="LD16" t="n">
+      <c r="LD16" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LE16" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16640,8 +16688,11 @@
       <c r="LC17" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="LD17" t="n">
+      <c r="LD17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="LE17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17592,8 +17643,11 @@
       <c r="LC18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LD18" t="n">
+      <c r="LD18" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LE18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18544,8 +18598,11 @@
       <c r="LC19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LD19" t="n">
+      <c r="LD19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LE19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19496,8 +19553,11 @@
       <c r="LC20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LD20" t="n">
+      <c r="LD20" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LE20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20448,8 +20508,11 @@
       <c r="LC21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LD21" t="n">
+      <c r="LD21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LE21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21400,8 +21463,11 @@
       <c r="LC22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LD22" t="n">
+      <c r="LD22" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LE22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22352,7 +22418,10 @@
       <c r="LC23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LD23" t="n">
+      <c r="LD23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LE23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -23304,8 +23373,11 @@
       <c r="LC24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LD24" t="n">
+      <c r="LD24" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LE24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -24256,8 +24328,11 @@
       <c r="LC25" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="LD25" t="n">
+      <c r="LD25" s="2" t="n">
         <v>44.7</v>
+      </c>
+      <c r="LE25" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -25208,8 +25283,11 @@
       <c r="LC26" s="2" t="n">
         <v>35.5</v>
       </c>
-      <c r="LD26" t="n">
+      <c r="LD26" s="2" t="n">
         <v>23.47</v>
+      </c>
+      <c r="LE26" t="n">
+        <v>44.88</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -26160,8 +26238,11 @@
       <c r="LC27" s="2" t="n">
         <v>15.43</v>
       </c>
-      <c r="LD27" t="n">
+      <c r="LD27" s="2" t="n">
         <v>10.5</v>
+      </c>
+      <c r="LE27" t="n">
+        <v>25.64</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -27112,8 +27193,11 @@
       <c r="LC28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LD28" t="n">
+      <c r="LD28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LE28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -28064,8 +28148,11 @@
       <c r="LC29" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="LD29" t="n">
+      <c r="LD29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LE29" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -29016,8 +29103,11 @@
       <c r="LC30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LD30" t="n">
+      <c r="LD30" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="LE30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29968,8 +30058,11 @@
       <c r="LC31" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="LD31" t="n">
+      <c r="LD31" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="LE31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30920,8 +31013,11 @@
       <c r="LC32" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="LD32" t="n">
+      <c r="LD32" s="2" t="n">
         <v>1.76</v>
+      </c>
+      <c r="LE32" t="n">
+        <v>3.86</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31872,8 +31968,11 @@
       <c r="LC33" s="2" t="n">
         <v>5.8</v>
       </c>
-      <c r="LD33" t="n">
+      <c r="LD33" s="2" t="n">
         <v>3.94</v>
+      </c>
+      <c r="LE33" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32824,8 +32923,11 @@
       <c r="LC34" s="2" t="n">
         <v>32.8</v>
       </c>
-      <c r="LD34" t="n">
+      <c r="LD34" s="2" t="n">
         <v>52.2</v>
+      </c>
+      <c r="LE34" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33776,8 +33878,11 @@
       <c r="LC35" s="2" t="n">
         <v>17.2</v>
       </c>
-      <c r="LD35" t="n">
+      <c r="LD35" s="2" t="n">
         <v>25.4</v>
+      </c>
+      <c r="LE35" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34728,8 +34833,11 @@
       <c r="LC36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="LD36" t="n">
+      <c r="LD36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="LE36" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35680,8 +35788,11 @@
       <c r="LC37" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="LD37" t="n">
+      <c r="LD37" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="LE37" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36632,8 +36743,11 @@
       <c r="LC38" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="LD38" t="n">
+      <c r="LD38" s="2" t="n">
         <v>24.49</v>
+      </c>
+      <c r="LE38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37584,8 +37698,11 @@
       <c r="LC39" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="LD39" t="n">
+      <c r="LD39" s="2" t="n">
         <v>80.90000000000001</v>
+      </c>
+      <c r="LE39" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38536,8 +38653,11 @@
       <c r="LC40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LD40" t="n">
+      <c r="LD40" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LE40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -39488,8 +39608,11 @@
       <c r="LC41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LD41" t="n">
+      <c r="LD41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LE41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -40440,7 +40563,10 @@
       <c r="LC42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LD42" t="n">
+      <c r="LD42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LE42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41392,8 +41518,11 @@
       <c r="LC43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LD43" t="n">
+      <c r="LD43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LE43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -42344,8 +42473,11 @@
       <c r="LC44" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="LD44" t="n">
+      <c r="LD44" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="LE44" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -43296,8 +43428,11 @@
       <c r="LC45" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="LD45" t="n">
+      <c r="LD45" s="2" t="n">
         <v>260</v>
+      </c>
+      <c r="LE45" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -44248,8 +44383,11 @@
       <c r="LC46" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="LD46" t="n">
+      <c r="LD46" s="2" t="n">
         <v>295</v>
+      </c>
+      <c r="LE46" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -45200,8 +45338,11 @@
       <c r="LC47" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="LD47" t="n">
+      <c r="LD47" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="LE47" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -46152,8 +46293,11 @@
       <c r="LC48" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="LD48" t="n">
+      <c r="LD48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LE48" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -47104,8 +47248,11 @@
       <c r="LC49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LD49" t="n">
+      <c r="LD49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LE49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -48056,8 +48203,11 @@
       <c r="LC50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LD50" t="n">
+      <c r="LD50" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LE50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -49008,8 +49158,11 @@
       <c r="LC51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LD51" t="n">
+      <c r="LD51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LE51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49960,8 +50113,11 @@
       <c r="LC52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LD52" t="n">
+      <c r="LD52" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="LE52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50912,8 +51068,11 @@
       <c r="LC53" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="LD53" t="n">
+      <c r="LD53" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LE53" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51864,8 +52023,11 @@
       <c r="LC54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LD54" t="n">
+      <c r="LD54" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LE54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -52816,8 +52978,11 @@
       <c r="LC55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LD55" t="n">
+      <c r="LD55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LE55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -53768,8 +53933,11 @@
       <c r="LC56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="LD56" t="n">
+      <c r="LD56" s="2" t="n">
         <v>58.8</v>
+      </c>
+      <c r="LE56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54720,8 +54888,11 @@
       <c r="LC57" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="LD57" t="n">
+      <c r="LD57" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="LE57" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -55672,8 +55843,11 @@
       <c r="LC58" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="LD58" t="n">
+      <c r="LD58" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="LE58" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -56624,8 +56798,11 @@
       <c r="LC59" s="2" t="n">
         <v>329</v>
       </c>
-      <c r="LD59" t="n">
+      <c r="LD59" s="2" t="n">
         <v>358</v>
+      </c>
+      <c r="LE59" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -57576,8 +57753,11 @@
       <c r="LC60" s="2" t="n">
         <v>1.79</v>
       </c>
-      <c r="LD60" t="n">
+      <c r="LD60" s="2" t="n">
         <v>1.52</v>
+      </c>
+      <c r="LE60" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -58528,8 +58708,11 @@
       <c r="LC61" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="LD61" t="n">
+      <c r="LD61" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="LE61" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -59480,8 +59663,11 @@
       <c r="LC62" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="LD62" t="n">
+      <c r="LD62" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="LE62" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -60432,8 +60618,11 @@
       <c r="LC63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="LD63" t="n">
+      <c r="LD63" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="LE63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -61384,8 +61573,11 @@
       <c r="LC64" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LD64" t="n">
+      <c r="LD64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LE64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -62336,8 +62528,11 @@
       <c r="LC65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LD65" t="n">
+      <c r="LD65" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LE65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -63288,8 +63483,11 @@
       <c r="LC66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LD66" t="n">
+      <c r="LD66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LE66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -64240,8 +64438,11 @@
       <c r="LC67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LD67" t="n">
+      <c r="LD67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LE67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -65192,8 +65393,11 @@
       <c r="LC68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LD68" t="n">
+      <c r="LD68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LE68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -66144,8 +66348,11 @@
       <c r="LC69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LD69" t="n">
+      <c r="LD69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LE69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -67096,8 +67303,11 @@
       <c r="LC70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="LD70" t="n">
+      <c r="LD70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LE70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -68048,8 +68258,11 @@
       <c r="LC71" s="2" t="n">
         <v>57.9</v>
       </c>
-      <c r="LD71" t="n">
+      <c r="LD71" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="LE71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -69000,8 +69213,11 @@
       <c r="LC72" s="2" t="n">
         <v>29.91</v>
       </c>
-      <c r="LD72" t="n">
+      <c r="LD72" s="2" t="n">
         <v>29.83</v>
+      </c>
+      <c r="LE72" t="n">
+        <v>45.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69952,8 +70168,11 @@
       <c r="LC73" s="2" t="n">
         <v>17.32</v>
       </c>
-      <c r="LD73" t="n">
+      <c r="LD73" s="2" t="n">
         <v>19.89</v>
+      </c>
+      <c r="LE73" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70904,8 +71123,11 @@
       <c r="LC74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LD74" t="n">
+      <c r="LD74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="LE74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -71856,8 +72078,11 @@
       <c r="LC75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="LD75" t="n">
+      <c r="LD75" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="LE75" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -72808,8 +73033,11 @@
       <c r="LC76" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="LD76" t="n">
+      <c r="LD76" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LE76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -73760,8 +73988,11 @@
       <c r="LC77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LD77" t="n">
+      <c r="LD77" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LE77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -74712,8 +74943,11 @@
       <c r="LC78" s="2" t="n">
         <v>2.84</v>
       </c>
-      <c r="LD78" t="n">
+      <c r="LD78" s="2" t="n">
         <v>2.28</v>
+      </c>
+      <c r="LE78" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -75664,8 +75898,11 @@
       <c r="LC79" s="2" t="n">
         <v>4.91</v>
       </c>
-      <c r="LD79" t="n">
+      <c r="LD79" s="2" t="n">
         <v>3.42</v>
+      </c>
+      <c r="LE79" t="n">
+        <v>6.38</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -76616,8 +76853,11 @@
       <c r="LC80" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="LD80" t="n">
+      <c r="LD80" s="2" t="n">
         <v>41.5</v>
+      </c>
+      <c r="LE80" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -77568,8 +77808,11 @@
       <c r="LC81" s="2" t="n">
         <v>20.4</v>
       </c>
-      <c r="LD81" t="n">
+      <c r="LD81" s="2" t="n">
         <v>29.3</v>
+      </c>
+      <c r="LE81" t="n">
+        <v>15.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -78520,8 +78763,11 @@
       <c r="LC82" s="2" t="n">
         <v>186.3</v>
       </c>
-      <c r="LD82" t="n">
+      <c r="LD82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="LE82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -79472,8 +79718,11 @@
       <c r="LC83" s="2" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="LD83" t="n">
+      <c r="LD83" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="LE83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -80424,8 +80673,11 @@
       <c r="LC84" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="LD84" t="n">
+      <c r="LD84" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="LE84" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -81376,8 +81628,11 @@
       <c r="LC85" s="2" t="n">
         <v>118.6</v>
       </c>
-      <c r="LD85" t="n">
+      <c r="LD85" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="LE85" t="n">
+        <v>104.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -82328,8 +82583,11 @@
       <c r="LC86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LD86" t="n">
+      <c r="LD86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LE86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -83280,8 +83538,11 @@
       <c r="LC87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LD87" t="n">
+      <c r="LD87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LE87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -84232,7 +84493,10 @@
       <c r="LC88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LD88" t="n">
+      <c r="LD88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LE88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -85184,8 +85448,11 @@
       <c r="LC89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LD89" t="n">
+      <c r="LD89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LE89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -86136,8 +86403,11 @@
       <c r="LC90" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="LD90" t="n">
+      <c r="LD90" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="LE90" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -87088,8 +87358,11 @@
       <c r="LC91" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="LD91" t="n">
+      <c r="LD91" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="LE91" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -88040,8 +88313,11 @@
       <c r="LC92" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="LD92" t="n">
+      <c r="LD92" s="2" t="n">
         <v>266</v>
+      </c>
+      <c r="LE92" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -88992,8 +89268,11 @@
       <c r="LC93" s="2" t="n">
         <v>60.2</v>
       </c>
-      <c r="LD93" t="n">
+      <c r="LD93" s="2" t="n">
         <v>74.3</v>
+      </c>
+      <c r="LE93" t="n">
+        <v>68.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -89944,8 +90223,11 @@
       <c r="LC94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="LD94" t="n">
+      <c r="LD94" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="LE94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -90896,8 +91178,11 @@
       <c r="LC95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LD95" t="n">
+      <c r="LD95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LE95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -91848,8 +92133,11 @@
       <c r="LC96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LD96" t="n">
+      <c r="LD96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LE96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -92800,8 +93088,11 @@
       <c r="LC97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="LD97" t="n">
+      <c r="LD97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="LE97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -93752,8 +94043,11 @@
       <c r="LC98" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="LD98" t="n">
+      <c r="LD98" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LE98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -94704,8 +94998,11 @@
       <c r="LC99" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="LD99" t="n">
+      <c r="LD99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LE99" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -95656,8 +95953,11 @@
       <c r="LC100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LD100" t="n">
+      <c r="LD100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LE100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -96608,8 +96908,11 @@
       <c r="LC101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LD101" t="n">
+      <c r="LD101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LE101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -97560,8 +97863,11 @@
       <c r="LC102" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="LD102" t="n">
+      <c r="LD102" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="LE102" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
